--- a/results/sterilization_APOS/data_sterilization_APOS_recipe.xlsx
+++ b/results/sterilization_APOS/data_sterilization_APOS_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682390649949], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169124447995518], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.043945019175067e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278811360015978e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0012157618888241442], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.119401763626671e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003806030032052456], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.10808780113079e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.958633330653405e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.521149176052554e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.19106427796053e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.878980412960495e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00011844523231172351], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.110274301286222e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.753118984420626e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682390649949], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169124447995518], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.043945019175067e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278811360015978e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0012157618888241442], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.119401763626671e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1687459896137506e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.4068495341908146e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.034597447382366e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00027907104810753525], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.19106427796053e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739321731144923], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005738257941542387], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001822777032350461], ["'market for corrugated board box' (kilogram, RER, None)", 2.4967843779673343e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0018236428332362162], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1471211673506326e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010828423471473186], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7468835669187825e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019899978956035], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001578912800771822], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7614013862675586e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.7730258029126228e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00033698502714039647], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.364319192415414e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.98774696976009e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739321731144923], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005738257941542387], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001822777032350461], ["'market for corrugated board box' (kilogram, RER, None)", 2.4967843779673343e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0018236428332362162], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1471211673506326e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.325164646506727e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.242879461610277e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0002001392514126784], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007939767847126042], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7614013862675586e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365791327921], ["'alubox production - APOS' (kilogram, GLO, None)", 6.612055142051585e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.94001953800475e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0024315237776482883], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00030750521462884385], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.682371056442595e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.9136106138383115e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00046515475017615244], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.57856643344311e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8085737100717683e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4349664328963822e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.9388064199821356e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365791327921], ["'alubox production - APOS' (kilogram, GLO, None)", 6.612055142051585e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.94001953800475e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0024315237776482883], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.682371056442595e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.9136106138383115e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00046515475017615244], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.57856643344311e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765468979768e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.9488363530659654e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.9388064199821356e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418850240648], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795084119068e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009452650144134e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715673690341], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950888105351025e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970009769002375e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0016210158517655255], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00015375260731442192], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.602791820902546e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360199380486164e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00027794298900058243], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283216721555e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.042868550358842e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.174832164481911e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.158491129742458e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715673690341], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950888105351025e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970009769002375e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0016210158517655255], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.602791820902546e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360199380486164e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00027794298900058243], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283216721555e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765468979768e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.9488363530659654e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.158491129742458e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418850240648], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009452650144134e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795084119068e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16899115275489068], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0542415244708507], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788073728095374], ["'market for corrugated board box' (kilogram, RER, None)", 0.0026051645802919864], ["'autoclave - APOS' (unit, GLO, None)", 0.40990392983650326], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868353285656446e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1436424798416571], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0027616391476612693], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.028709446056794076], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01731494408759545], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014073799863590702], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0016698446196471977], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.04375104148865093], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0032959625158499165], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027168737636760254]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16899115275489068], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0542415244708507], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788073728095374], ["'market for corrugated board box' (kilogram, RER, None)", 0.0026051645802919864], ["'autoclave - APOS' (unit, GLO, None)", 0.40990392983650326], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868353285656446e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.18112491757840168], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.021973083438999442], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.02902285353321263], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.08751981590005561], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014073799863590702]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4807917303730692], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432095694523718], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.06571006229330553], ["'market for corrugated board box' (kilogram, RER, None)", 0.007856845558194122], ["'autoclave - APOS' (unit, GLO, None)", 0.6148558947547549], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698208326293464], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40867297081710885], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008328752816292051], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08210195094673545], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.04951647925604357], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004004095172784584], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.005036039227078117], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.12447479409447165], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009940204211518904], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.07729697186796579]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4807917303730692], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432095694523718], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.06571006229330553], ["'market for corrugated board box' (kilogram, RER, None)", 0.007856845558194122], ["'autoclave - APOS' (unit, GLO, None)", 0.6148558947547549], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698208326293464], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.5153131457864386], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06626802807679269], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0825720622031957], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.24900003958916203], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004004095172784584]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393266237161], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018451355548204772], ["'market for polysulfone' (kilogram, GLO, None)", 0.0026035160825615537], ["'autoclave - APOS' (unit, GLO, None)", 0.8198078596730065], ["'cabinet washer - APOS' (unit, GLO, None)", 0.09182085157550562], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.001655477881544241], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942488443992956], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.10335423602925302], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007493636028379179], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0007461687791525849], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00045002159443446714], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00044073801052606866]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393266237161], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018451355548204772], ["'market for polysulfone' (kilogram, GLO, None)", 0.0026035160825615537], ["'autoclave - APOS' (unit, GLO, None)", 0.8198078596730065], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.001655477881544241], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942488443992956], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.10335423602925302], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007493636028379179], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927246171315], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520106778433717], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00044073801052606866], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245824851772], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277221384452], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0328139182528038]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742133205442], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01102520163502232], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017580412807768], ["'autoclave - APOS' (unit, GLO, None)", 0.5465385731153376], ["'cabinet washer - APOS' (unit, GLO, None)", 0.04591042578775281], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943927187866], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269227355294363], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.061757050265451696], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00037468180141895895], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00037308438957629243], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00022501079721723357], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00026335330359566957]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742133205442], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01102520163502232], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017580412807768], ["'autoclave - APOS' (unit, GLO, None)", 0.5465385731153376], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943927187866], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269227355294363], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.061757050265451696], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00037468180141895895], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927246171315], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520106778433717], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00026335330359566957], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245824851772], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0328139182528038], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277221384452]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0038893168919031658], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864310462958], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233233786631], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086302769845098], ["'autoclave - APOS' (unit, GLO, None)", 0.057609430077450105], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499572898779562e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003305919358117691], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00038064710105455005], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0017801467732573703], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009076479383291842], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328905389191584], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00037534718459740626], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00907747608758486], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00017305319283962578], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0014264324540849186]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0038893168919031658], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864310462958], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233233786631], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086302769845098], ["'autoclave - APOS' (unit, GLO, None)", 0.057609430077450105], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499572898779562e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009509549693899456], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0011536879522641718], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0017995797956416248], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004587781517674353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328905389191584]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065380453020274], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095304094556585], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001784260780394502], ["'market for corrugated board box' (kilogram, RER, None)", 0.00042482500409333335], ["'autoclave - APOS' (unit, GLO, None)", 0.08641414511617516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633632558352627e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009405573385067234], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011479832973856532], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00509078171577535], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0025956497510301302], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766744913417377], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0011319994226799623], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.025826058728058335], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0005219064440232762], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.004058300784861317]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065380453020274], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095304094556585], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001784260780394502], ["'market for corrugated board box' (kilogram, RER, None)", 0.00042482500409333335], ["'autoclave - APOS' (unit, GLO, None)", 0.08641414511617516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633632558352627e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027055338565742115], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0034793762934885084], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005119931251945577], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.013052561500264924], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766744913417377]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540663933552668], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763594882397678], ["'market for polysulfone' (kilogram, GLO, None)", 9.050918689045629e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.11521886015490021], ["'cabinet washer - APOS' (unit, GLO, None)", 0.019489226507070974], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968120053695803e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.003880676111222134], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004313630736875035], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261151123605e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.6266651815092265e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.359009479474328e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487269476231786e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540663933552668], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763594882397678], ["'market for polysulfone' (kilogram, GLO, None)", 9.050918689045629e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.11521886015490021], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968120053695803e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.003880676111222134], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004313630736875035], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261151123605e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001582688735443159], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627148912389], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487269476231786e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643508505878], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783059775773e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816456251073]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713173852918493], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614245377778759], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254593445228143e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07681257343660014], ["'cabinet washer - APOS' (unit, GLO, None)", 0.009744613253535487], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.4479598966036058e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023188126473776133], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002577515160272568], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.8966305755618026e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3133325907546132e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.179504739737164e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.681269172311957e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713173852918493], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614245377778759], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254593445228143e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07681257343660014], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.4479598966036058e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023188126473776133], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002577515160272568], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.8966305755618026e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001582688735443159], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627148912389], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.681269172311957e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643508505878], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816456251073], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783059775773e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00518709293689302], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161632735621886], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0007866002143817703], ["'market for corrugated board box' (kilogram, RER, None)", 0.00018484312216060825], ["'autoclave - APOS' (unit, GLO, None)", 0.07319219689670191], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359441368097908e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004409028996359066], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004990237505012814], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023212736700523747], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0011868971191859603], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001899856138502309], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00048491034741396345], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011771130848174969], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002505812404844303], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0020654556328073203]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00518709293689302], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161632735621886], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0007866002143817703], ["'market for corrugated board box' (kilogram, RER, None)", 0.00018484312216060825], ["'autoclave - APOS' (unit, GLO, None)", 0.07319219689670191], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359441368097908e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.013769704218715468], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0016705416032295353], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002346613919445163], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.005999269581117495], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001899856138502309]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757644693695633], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.011840138205572124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002372286312777772], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574633841933844], ["'autoclave - APOS' (unit, GLO, None)", 0.10978829534505287], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0290378739365766e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012543997989641288], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001504992232929469], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006638271480946521], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0033942336910769122], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405224507165474], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.001462428002258525], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.03348969621593442], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0007557211861521021], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005876366729958854]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757644693695633], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.011840138205572124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002372286312777772], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574633841933844], ["'autoclave - APOS' (unit, GLO, None)", 0.10978829534505287], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0290378739365766e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.039175778199725696], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005038141241014015], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006676281858418021], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017068344441105738], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405224507165474]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809200794867], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0022976264442509517], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759898123176694], ["'autoclave - APOS' (unit, GLO, None)", 0.14638439379340382], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02456542518172497], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.273796441632583e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173849843345], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005686518740755123], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402302352034e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.0330733551444786e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.0847880957836626e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.9496285501079545e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809200794867], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0022976264442509517], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759898123176694], ["'autoclave - APOS' (unit, GLO, None)", 0.14638439379340382], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.273796441632583e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173849843345], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005686518740755123], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402302352034e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002063792572985517], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0010638654061827576], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.9496285501079545e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024338129508], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869016795865692e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947347857874383]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766886186286827], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728961410800395], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949061588347e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09758959586226922], ["'cabinet washer - APOS' (unit, GLO, None)", 0.012282712590862485], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297062651833e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378314822925], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0033978541876972484], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.525701151176017e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0165366775722393e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5423940478918313e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5550696704553184e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766886186286827], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728961410800395], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949061588347e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09758959586226922], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297062651833e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378314822925], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0033978541876972484], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.525701151176017e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002063792572985517], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0010638654061827576], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5550696704553184e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024338129508], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947347857874383], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869016795865692e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.357840197137607], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111787015582233], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566967000698385], ["'market for corrugated board box' (kilogram, RER, None)", 0.01134566651888852], ["'autoclave - APOS' (unit, GLO, None)", 2.8766765648629833], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206379666081656], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30416416756696596], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025550711029211637], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08001860842646724], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.08729547493418488], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0047754655958520305], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.01026085300007874], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.19042230543700717], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009639104298853382], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.07945929438105034]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.357840197137607], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111787015582233], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566967000698385], ["'market for corrugated board box' (kilogram, RER, None)", 0.01134566651888852], ["'autoclave - APOS' (unit, GLO, None)", 2.8766765648629833], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206379666081656], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.5297286292070023], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06426069532568922], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08089213381890613], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.44124219266877046], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0047754655958520305]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.018080560870375], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428987291757199], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.13440831045395862], ["'market for corrugated board box' (kilogram, RER, None)", 0.0342170894952403], ["'autoclave - APOS' (unit, GLO, None)", 4.315014847294475], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00109193843464983], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8653684767398186], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07705769836838676], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.228833529245373], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.2496435767772275], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.013586535921700577], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.03094542905590601], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.541764868989795], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.029070313963211147], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.22606728823904462]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.018080560870375], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428987291757199], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.13440831045395862], ["'market for corrugated board box' (kilogram, RER, None)", 0.0342170894952403], ["'autoclave - APOS' (unit, GLO, None)", 4.315014847294475], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00109193843464983], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5071152549269642], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.1938020930880743], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.23014381745062612], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.2553651114668614], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.013586535921700577]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275722567803134], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271288486900704], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110338789601915], ["'autoclave - APOS' (unit, GLO, None)", 5.753353129725967], ["'cabinet washer - APOS' (unit, GLO, None)", 0.9904185040180288], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.031538618797637454], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.3403391022190147], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.11661936439412976], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00039972030768179335], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020797122745228338], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0022688406395109228], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014954946257950577]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275722567803134], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271288486900704], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110338789601915], ["'autoclave - APOS' (unit, GLO, None)", 5.753353129725967], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.031538618797637454], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.3403391022190147], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.11661936439412976], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00039972030768179335], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114275748772583], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0782465762175488], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014954946257950577], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377537452654], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950251741224288], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492040543199]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335087992426206], ["'alubox production - APOS' (kilogram, GLO, None)", 0.043447984894690574], ["'market for polysulfone' (kilogram, GLO, None)", 0.0040551693948009575], ["'autoclave - APOS' (unit, GLO, None)", 3.8355687531506444], ["'cabinet washer - APOS' (unit, GLO, None)", 0.4952092520090144], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845207910368908], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214412236994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.06968333592804896], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986015384089667], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010398561372614169], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0011344203197554614], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008935999183338038]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335087992426206], ["'alubox production - APOS' (kilogram, GLO, None)", 0.043447984894690574], ["'market for polysulfone' (kilogram, GLO, None)", 0.0040551693948009575], ["'autoclave - APOS' (unit, GLO, None)", 3.8355687531506444], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845207910368908], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214412236994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.06968333592804896], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986015384089667], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114275748772583], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0782465762175488], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008935999183338038], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377537452654], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492040543199], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950251741224288]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803058763403], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988014980387738], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160431140417], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403666534148656], ["'autoclave - APOS' (unit, GLO, None)", 0.10636760103410942], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764245758446363e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10336682599948893], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007781138943556539], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007559090706613607], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004941384264108583], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00034926329769095706], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004242032934049003], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011895099672746094], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.459679357126132e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.641132397749145e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803058763403], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988014980387738], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160431140417], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403666534148656], ["'autoclave - APOS' (unit, GLO, None)", 0.10636760103410942], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764245758446363e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00030940882651660966], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6397862380840875e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007641609733197824], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0249766351481342], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00034926329769095706]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.34598341096763485], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.039796887690680606], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461435401259835], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328518114835077], ["'autoclave - APOS' (unit, GLO, None)", 0.15955140155116412], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.055883642713854e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29408589932248963], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023466926497254033], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.02161713929166689], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.014131143027205225], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00099367867801865], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0012793432399082502], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.03384239625203818], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6465699314924862e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00013204348511906017]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.34598341096763485], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.039796887690680606], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461435401259835], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328518114835077], ["'autoclave - APOS' (unit, GLO, None)", 0.15955140155116412], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.055883642713854e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0008802899007937344], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010977132876616576], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.021740917842557533], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07106028591046797], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00099367867801865]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.022981548017313596], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016176610851363], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730290763646838], ["'autoclave - APOS' (unit, GLO, None)", 0.21273520206821883], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02382221213379867], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426787932715], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836719032986809], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.021832470616447913], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958305952331467e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019646347313353115], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.000128428345710953], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937601249561383]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.022981548017313596], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016176610851363], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730290763646838], ["'autoclave - APOS' (unit, GLO, None)", 0.21273520206821883], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426787932715], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836719032986809], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.021832470616447913], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958305952331467e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0067206187103655965], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0044291688742546485], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937601249561383], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611850605476], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.3834557465988844e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.435543373133895e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118494702253], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00299730599342876], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145381823419], ["'autoclave - APOS' (unit, GLO, None)", 0.1418234680454792], ["'cabinet washer - APOS' (unit, GLO, None)", 0.011911106066899334], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180857833875], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475243083827962], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.01304551256996714], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479152976165733e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.823173656676558e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.42141728554765e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535523040197917e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118494702253], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00299730599342876], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145381823419], ["'autoclave - APOS' (unit, GLO, None)", 0.1418234680454792], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180857833875], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475243083827962], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.01304551256996714], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479152976165733e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0067206187103655965], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0044291688742546485], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535523040197917e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611850605476], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.435543373133895e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.3834557465988844e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.782079104485241e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.0308531345952168e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.77166971370512e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.5167003153652747e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0003750446382829105], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558931432530533e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3647672388124548e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.04548359285505e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3859086919734058e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.345226359826264e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1357420330204737e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.325876399283291e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.5737747798061122e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8978773529524346e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.5711217096903842e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.782079104485241e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.0308531345952168e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.77166971370512e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.5167003153652747e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0003750446382829105], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558931432530533e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7140811397935896e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.931918235301623e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.4119545314033008e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.7017888396836567e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1357420330204737e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.915210973324207e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920185749772e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.740662259348346e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175553451478e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005625669574243658], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422534879111293e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.727929327325576e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8232410466255008e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.823111738355313e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.528603204412371e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.2312660660399484e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.99867477397896e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.322570500293445e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.739629935037381e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.315022328978276e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.915210973324207e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920185749772e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.740662259348346e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175553451478e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005625669574243658], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422534879111293e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.876681552652184e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.8264199566915875e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.862180500976652e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.68677951529328e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.2312660660399484e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.40108889269853e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.2873970323183946e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334392437748e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000750089276565821], ["'cabinet washer - APOS' (unit, GLO, None)", 8.249623770437787e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.173679953651734e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509727835335e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 3.231034448063603e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535750271187984e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.201062090635608e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.389243463272545e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.556713104889678e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.40108889269853e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.2873970323183946e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334392437748e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000750089276565821], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.173679953651734e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509727835335e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 3.231034448063603e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535750271187984e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581273130126e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.7911493932477805e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.556713104889678e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.02950457220137e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523606816024262e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850665051302023e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.0322458543857188e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692557779051976e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167196218874e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0005000595177105474], ["'cabinet washer - APOS' (unit, GLO, None)", 4.124811885218894e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066389722792e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901695485763e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.9306335616664327e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267875135593992e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.100531045317804e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.946217316362725e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252356813896947e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.0322458543857188e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692557779051976e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167196218874e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0005000595177105474], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066389722792e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901695485763e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.9306335616664327e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267875135593992e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581273130126e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.7911493932477805e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252356813896947e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.02950457220137e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850665051302023e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523606816024262e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509678611878e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.7124696967525143e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423549464345e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.602602004842971e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00014257293852277256], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299125260542131e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3940332268200968e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.517197652465976e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.066275739129188e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.798750800317943e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456705942085e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.4573709380226425e-07], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 8.8066686304477e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.163672327078059e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.276535217695364e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509678611878e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.7124696967525143e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423549464345e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.602602004842971e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00014257293852277256], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299125260542131e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8510234784635757e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.442448218052039e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.088832296427587e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.931026516324169e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456705942085e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.01316838140281e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167306253632e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730165779579975e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.8332441407184535e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021385940778415887], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0108473018119834e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.811193124192388e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6639167186245324e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.909040147999222e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6583000341341795e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989503504387e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.042699150662327e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.5055592441555432e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5572979718578263e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2167043858795257e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.01316838140281e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167306253632e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730165779579975e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.8332441407184535e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021385940778415887], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0108473018119834e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.111362572530173e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0381986479052176e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.942874986957582e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.338976848797712e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989503504387e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.746685995878618e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.7296373902469753e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.200900983791171e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002851458770455451], ["'cabinet washer - APOS' (unit, GLO, None)", 1.8943372609846313e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.6404613553620764e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070315471469e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.609351696084687e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.775843882615118e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.370324605388083e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5071160886720578e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8245516087570046e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.746685995878618e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.7296373902469753e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.200900983791171e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002851458770455451], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.6404613553620764e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070315471469e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.609351696084687e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.775843882615118e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.83707960813546e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662270647302e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8245516087570046e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196816937305e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060291276654e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.1408449219366115e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412217982326079e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310347789540637e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004504918955855e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00019009725136369675], ["'cabinet washer - APOS' (unit, GLO, None)", 9.471686304923156e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.7728056070857962e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074742286729866e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.5591607083209774e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.387921941307559e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.6851623026940416e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.535580443360289e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.687748684200731e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412217982326079e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310347789540637e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004504918955855e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00019009725136369675], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.7728056070857962e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074742286729866e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.5591607083209774e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.387921941307559e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.83707960813546e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662270647302e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.687748684200731e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196816937305e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.1408449219366115e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060291276654e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163220527682369], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00272841190092413], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057105250972869], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781360968035476], ["'autoclave - APOS' (unit, GLO, None)", 0.036791347631837064], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.5570885157371988e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005238737448530014], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048528131812153807], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023784768910273], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007868474265074378], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096559226242217e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00013601855660060622], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0027811737348863792], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0728234508971176e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.16004759908385e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163220527682369], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00272841190092413], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057105250972869], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781360968035476], ["'autoclave - APOS' (unit, GLO, None)", 0.036791347631837064], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.5570885157371988e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0006106698399389233], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.152156339314118e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002404441600992866], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.003977185347003152], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096559226242217e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534796430870966], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762523999812313], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027315078775000863], ["'market for corrugated board box' (kilogram, RER, None)", 0.00047594580688668293], ["'autoclave - APOS' (unit, GLO, None)", 0.0551870214477556], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.072772727239457e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014904576966240321], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014635468027825143], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006801858616455433], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0022501900136217825], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035281180763974], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004102146861999188], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.007912635133057023], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.235499230813876e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00026060980493168134]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534796430870966], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762523999812313], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027315078775000863], ["'market for corrugated board box' (kilogram, RER, None)", 0.00047594580688668293], ["'autoclave - APOS' (unit, GLO, None)", 0.0551870214477556], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.072772727239457e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017373986995445423], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00021569994872092509], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00684080568486945], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.011315372395071396], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035281180763974]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.021747164322668756], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690718710799545], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911039432960226], ["'autoclave - APOS' (unit, GLO, None)", 0.07358269526367413], ["'cabinet washer - APOS' (unit, GLO, None)", 0.008536999075581257], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884891929145e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548138520159953], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.020659806106535315], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165010887532e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.18174657396597e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.045044625395082e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355351362585352e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.021747164322668756], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690718710799545], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911039432960226], ["'autoclave - APOS' (unit, GLO, None)", 0.07358269526367413], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884891929145e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548138520159953], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.020659806106535315], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165010887532e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146506790856202], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052841762555816], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355351362585352e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002103202958101216], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977038972073566e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680807457044487]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.01299453967059427], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0009375643818310891], ["'market for polysulfone' (kilogram, GLO, None)", 5.955519716480113e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.04905513017578275], ["'cabinet washer - APOS' (unit, GLO, None)", 0.004268499537790628], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108198118120655e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315168130817863], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.012344812687064556], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.788082505443766e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.090873286982985e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.022522312697541e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150532483448828e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.01299453967059427], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0009375643818310891], ["'market for polysulfone' (kilogram, GLO, None)", 5.955519716480113e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.04905513017578275], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108198118120655e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315168130817863], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.012344812687064556], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.788082505443766e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146506790856202], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052841762555816], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150532483448828e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002103202958101216], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680807457044487], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977038972073566e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227177814460916], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05617292199407332], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01368810351734366], ["'market for corrugated board box' (kilogram, RER, None)", 0.0032036551111896757], ["'autoclave - APOS' (unit, GLO, None)", 0.9360230995046066], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.9531856113316716e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06993101142291779], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00717409322052872], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04244911237517676], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.021817524708357978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0037009005913798553], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00671540152155031], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.167887854397655], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0020925783452171976], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.01724876208838291]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227177814460916], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05617292199407332], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01368810351734366], ["'market for corrugated board box' (kilogram, RER, None)", 0.0032036551111896757], ["'autoclave - APOS' (unit, GLO, None)", 0.9360230995046066], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.9531856113316716e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.11499174725588605], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.013950522301447985], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04291250930590798], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.11027848176757091], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0037009005913798553]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.23406900260860633], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981591891271563], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.04128158120017948], ["'market for corrugated board box' (kilogram, RER, None)", 0.009661817000258532], ["'autoclave - APOS' (unit, GLO, None)", 1.40403464925691], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.8905597816952055e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1989586522173154], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021636153718859838], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12139401558165777], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.06239275184339634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.010529322810136172], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.020252797829328973], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.4776527688496663], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.006310950437097877], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04907394284300489]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.23406900260860633], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981591891271563], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.04128158120017948], ["'market for corrugated board box' (kilogram, RER, None)", 0.009661817000258532], ["'autoclave - APOS' (unit, GLO, None)", 1.40403464925691], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.8905597816952055e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.3271596189533659], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04207300291398585], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12208911103960703], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.3137500467015995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.010529322810136172]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217217541913], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03384245112393933], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105985891212206], ["'autoclave - APOS' (unit, GLO, None)", 1.8720461990092132], ["'cabinet washer - APOS' (unit, GLO, None)", 0.2601011881963342], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710251427273], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671645015278402], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09171506356664817], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007420885097417328], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011032676246848323], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005670452763923494], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589816393647028]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217217541913], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03384245112393933], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105985891212206], ["'autoclave - APOS' (unit, GLO, None)", 1.8720461990092132], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710251427273], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671645015278402], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09171506356664817], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007420885097417328], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0377405576860486], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595763993339], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589816393647028], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333607325523], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0008694938340354233], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275386882864]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.057686651353948785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022181223975826], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552992945606103], ["'autoclave - APOS' (unit, GLO, None)", 1.2480307993394755], ["'cabinet washer - APOS' (unit, GLO, None)", 0.1300505940981671], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0007695987546913084], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966720214635], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.054802318786251344], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003710442548708664], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005516338123424161], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002835226381961747], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692523985324307]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.057686651353948785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022181223975826], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552992945606103], ["'autoclave - APOS' (unit, GLO, None)", 1.2480307993394755], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0007695987546913084], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966720214635], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.054802318786251344], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003710442548708664], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0377405576860486], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595763993339], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692523985324307], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333607325523], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275386882864], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0008694938340354233]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003351809471663464], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00569922237444791], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001789459606871323], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043326745202], ["'autoclave - APOS' (unit, GLO, None)", 0.11735935832640883], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197166823708625e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002849038050913944], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007156527797729704], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.008695912252588362], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0014502532449536124], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00013698684870210468], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0007560189027764487], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.014340789909710048], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.6742195748649e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.01900589873868e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003351809471663464], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00569922237444791], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001789459606871323], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043326745202], ["'autoclave - APOS' (unit, GLO, None)", 0.11735935832640883], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197166823708625e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.6793372658257865e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.1161463832432665e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.008790841423595337], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.007330424884116665], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00013698684870210468]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536133989803094], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214689008992644], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0053967828320336565], ["'market for corrugated board box' (kilogram, RER, None)", 0.000775092431735784], ["'autoclave - APOS' (unit, GLO, None)", 0.17603903748961325], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5673995186574218e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00810571389133263], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002158317863530102], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.024868169165882224], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004147367404507048], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372315504326], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0022800569621855967], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.04080055720790746], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.4096852400536185e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1434354810495962e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536133989803094], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214689008992644], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0053967828320336565], ["'market for corrugated board box' (kilogram, RER, None)", 0.000775092431735784], ["'autoclave - APOS' (unit, GLO, None)", 0.17603903748961325], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5673995186574218e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.622903206997308e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.397901600357457e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025010562935063464], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.020855575021259478], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372315504326]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0017135079703790217], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0067605254781003005], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822071726382], ["'autoclave - APOS' (unit, GLO, None)", 0.23471871665281765], ["'cabinet washer - APOS' (unit, GLO, None)", 0.025367516255230982], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6629610276569214e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003865100377740685], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016278325718600704], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040689137778e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00022600987202246395], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.769260093050743e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908322584133e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0017135079703790217], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0067605254781003005], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822071726382], ["'autoclave - APOS' (unit, GLO, None)", 0.23471871665281765], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6629610276569214e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003865100377740685], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016278325718600704], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040689137778e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341355291679], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224891274703], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908322584133e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002953396717129012], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543047859019162e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653555927523066e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868995819369], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004039603288768314], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911035863191e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.15647914443521177], ["'cabinet washer - APOS' (unit, GLO, None)", 0.012683758127615491], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.591193785162323e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095057104537814], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009726755460284007], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.649520344568889e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011300493601123197], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.8846300465253717e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5633403561598778e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868995819369], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004039603288768314], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911035863191e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.15647914443521177], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.591193785162323e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095057104537814], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009726755460284007], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.649520344568889e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341355291679], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224891274703], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5633403561598778e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002953396717129012], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653555927523066e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543047859019162e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207939284471924], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0011482944635294572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957475436277027], ["'market for corrugated board box' (kilogram, RER, None)", 0.0011380431842973597], ["'autoclave - APOS' (unit, GLO, None)", 0.08483344789083641], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0199917351352493e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011226748391801136], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019331252218210795], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0063295226449707085], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.011240756834042232], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478383793044509e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.739855880858081e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0012874985723014107], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.410802364119764e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.952765693458081e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207939284471924], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0011482944635294572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957475436277027], ["'market for corrugated board box' (kilogram, RER, None)", 0.0011380431842973597], ["'autoclave - APOS' (unit, GLO, None)", 0.08483344789083641], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0199917351352493e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.968510462305387e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.2738682427465093e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006398619057181872], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.05681733442024001], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478383793044509e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003757751740089195], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0032669786145485967], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966989047031347], ["'market for corrugated board box' (kilogram, RER, None)", 0.003432193729801767], ["'autoclave - APOS' (unit, GLO, None)", 0.12725017183625462], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761655511852588e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003194088979075816], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005830060074692399], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.01810087720555854], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.03214579843742241], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00015586387694157685], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00023342422024971284], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0036630241071110557], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0286546604046923e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.400826339134257e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003757751740089195], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0032669786145485967], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966989047031347], ["'market for corrugated board box' (kilogram, RER, None)", 0.003432193729801767], ["'autoclave - APOS' (unit, GLO, None)", 0.12725017183625462], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761655511852588e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.600550892756172e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.8576977360312825e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.018204521833098005], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.16164931763734924], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00015586387694157685]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523177097128366], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001149013134952949], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532681070699055e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.16966689578167282], ["'cabinet washer - APOS' (unit, GLO, None)", 0.018476349441015918], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230212649303694e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002647637426387372], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0011897018242271946], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578599628084994e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0001645065591050916], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002921512935597536], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.71562193383974e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523177097128366], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001149013134952949], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532681070699055e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.16966689578167282], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230212649303694e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002647637426387372], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0011897018242271946], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578599628084994e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437209908756], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559323331961], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.71562193383974e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919563042243199], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968322088535981e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957239930513917e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482949003189487], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865675240526119], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766340535349527e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.11311126385444854], ["'cabinet washer - APOS' (unit, GLO, None)", 0.009238174720507959], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726523164467e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0001582037504295583], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007108801553030013], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789299814042497e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.22532795525458e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001460756467798768], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251321492752505e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482949003189487], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865675240526119], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766340535349527e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.11311126385444854], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726523164467e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0001582037504295583], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007108801553030013], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789299814042497e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437209908756], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559323331961], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251321492752505e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919563042243199], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957239930513917e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968322088535981e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989509300062438], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892081420717658], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014519208920155325], ["'market for corrugated board box' (kilogram, RER, None)", 3.0438586409005422e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004607013317436454], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993527600339818e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011041082905053072], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.452751756424855e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019478824450357322], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010148298470446394], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3580586865853035e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.531672096594357e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0005254173082950224], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.821608671228268e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.214068562586413e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989509300062438], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892081420717658], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014519208920155325], ["'market for corrugated board box' (kilogram, RER, None)", 3.0438586409005422e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004607013317436454], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993527600339818e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.1427123750576086e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.547739114152179e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019691465586048684], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005129541333422964], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3580586865853035e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0036956068712853695], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763386577253055], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00043788089507090344], ["'market for corrugated board box' (kilogram, RER, None)", 9.179891137568676e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006910519976154681], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.807571816432284e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003141265840592564], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00028508298370446547], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005570464460929041], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002902163634799132], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.86377260158581e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010651074361268488], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0014948492433182325], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.057310509964695e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7679462671020495e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0036956068712853695], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763386577253055], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00043788089507090344], ["'market for corrugated board box' (kilogram, RER, None)", 9.179891137568676e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006910519976154681], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.807571816432284e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011786308447346999], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3715403399764634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005602360634120997], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0014593906328083917], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.86377260158581e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016993364161860733], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00020228347366983872], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988138978461e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.009214026634872908], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0011715073830221882], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556449931126627e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946384365462222], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016143695953767696], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.9970197670700276e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.062616196320187e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.6375790966249485e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.2529245086944314e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016993364161860733], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00020228347366983872], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988138978461e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.009214026634872908], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556449931126627e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946384365462222], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016143695953767696], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.9970197670700276e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318187747431392], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096343313841807e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.2529245086944314e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565119020138], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312371738102e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791451911660479e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001015401095341775], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012087004008004654], ["'market for polysulfone' (kilogram, GLO, None)", 3.0849940694892305e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006142684423248605], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0005857536915110941], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.108799847178558e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918523218760162], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009646310405746863], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985098835350138e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.5313080981600936e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3187895483124742e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412414916762027e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001015401095341775], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012087004008004654], ["'market for polysulfone' (kilogram, GLO, None)", 3.0849940694892305e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006142684423248605], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.108799847178558e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918523218760162], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009646310405746863], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985098835350138e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318187747431392], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096343313841807e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412414916762027e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565119020138], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791451911660479e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312371738102e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.9425867471676198e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.136517229442035e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025179167004649e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.501179425951712e-09], ["'autoclave - APOS' (unit, GLO, None)", 4.779042136711563e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5753967504808618e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.651198735092477e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5110475135256815e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.275842549885878e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.658582127252539e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6158711328477217e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0466989842589196e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.1804800743524646e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.4060659390981684e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9838529624758247e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.9425867471676198e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.136517229442035e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025179167004649e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.501179425951712e-09], ["'autoclave - APOS' (unit, GLO, None)", 4.779042136711563e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5753967504808618e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3225686416505497e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.604043959398779e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.31160337733874e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.383440437226569e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6158711328477217e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.526796097575481e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.07854197672241e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139428987911372e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543239537224441e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.168563205067345e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.767069566905062e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.697776682939159e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.557127329428979e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.368103578449628e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.743136742635018e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.597267167068254e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.1567111584216945e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 6.203619366467575e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.256389193142409e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.6442013861988245e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.526796097575481e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.07854197672241e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139428987911372e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543239537224441e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.168563205067345e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.767069566905062e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.76280092413255e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.837592795428273e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.421744824402138e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.385147842571583e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.597267167068254e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.2538925036764886e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066373287159751e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.16907126116323e-10], ["'autoclave - APOS' (unit, GLO, None)", 9.558084273423127e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 1.0106675315374575e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958923661003e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.8816418062541806e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.141197878492664e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349917599118e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.514032041262553e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.310714314933436e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295266811542e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.2538925036764886e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066373287159751e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.16907126116323e-10], ["'autoclave - APOS' (unit, GLO, None)", 9.558084273423127e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958923661003e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.8816418062541806e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.141197878492664e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349917599118e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784431694658e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563579724432e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295266811542e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149194773491e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771687558e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.395429276174998e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.3467638869013241e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417411925545051e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.584535630581615e-10], ["'autoclave - APOS' (unit, GLO, None)", 6.372056182282084e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 5.0533376576872875e-08], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677271109911e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.124333671021714e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2794256925562579e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174958799559e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.2570160206312765e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.155357157466718e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.023668129040409e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.3467638869013241e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417411925545051e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.584535630581615e-10], ["'autoclave - APOS' (unit, GLO, None)", 6.372056182282084e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677271109911e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.124333671021714e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2794256925562579e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174958799559e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784431694658e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563579724432e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.023668129040409e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149194773491e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.395429276174998e-09], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771687558e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998807372734683], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083893367323691], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.5638468413066294e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.2210725903512072e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004193194513743909], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.375223912043385e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014448986266824481], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.365158654099885e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3682579584879738e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.4065515370043368e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1879346323428496e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.447475455423968e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 4.8908364747229964e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.955406184088267e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.915349141794892e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998807372734683], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083893367323691], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.5638468413066294e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.2210725903512072e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004193194513743909], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.375223912043385e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.943566094529928e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.6369374560588444e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.39411111318868e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001216411363542928], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1879346323428496e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00048362804074540927], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00031534457185906835], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.732236348893623e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714345905656856e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006289791770615864], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.16337370479821e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00041108383463359793], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3164763928221713e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.772634984051936e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.882145195377495e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069898532193617e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.38127503349989e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00013914774195690778], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0976621400098185e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6829584882289693e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00048362804074540927], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00031534457185906835], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.732236348893623e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714345905656856e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006289791770615864], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.16337370479821e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1219723254859795e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3984414266732126e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.811414719553775e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0003460775991859727], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069898532193617e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600071817875], ["'alubox production - APOS' (kilogram, GLO, None)", 2.597174910555849e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.868790428250959e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0008386389027487818], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00010628747866919875], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.3138137759316142e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084091311710893e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020519620068226978], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984141856237954e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.155187202524154e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.254713583206302e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983401648198991e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600071817875], ["'alubox production - APOS' (kilogram, GLO, None)", 2.597174910555849e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.868790428250959e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0008386389027487818], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.3138137759316142e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084091311710893e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020519620068226978], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984141856237954e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1055652544109734e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570925457893247e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983401648198991e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.000958840261498e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607735566558e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924657936556193e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012906365898455871], ["'alubox production - APOS' (kilogram, GLO, None)", 1.551884737979876e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343952141254793e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005590926018325212], ["'cabinet washer - APOS' (unit, GLO, None)", 5.314373933459938e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405219645444e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222966093764e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001226104760353308], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492070928118977e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.077593601262077e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.127356791603151e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965362057240007e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012906365898455871], ["'alubox production - APOS' (kilogram, GLO, None)", 1.551884737979876e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343952141254793e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005590926018325212], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405219645444e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222966093764e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001226104760353308], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492070928118977e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1055652544109734e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570925457893247e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965362057240007e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.000958840261498e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924657936556193e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607735566558e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00035046373570782156], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0001720237778415439], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.042777990360273e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.20584262541714e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0008518222420445375], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002853714612607e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029789417535164834], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.278562252702233e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.7846741538891545e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.31637571528563e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6356301204877177e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.9836827008012955e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.111015817899998e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.070526772125949e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.194737771208399e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00035046373570782156], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0001720237778415439], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.042777990360273e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.20584262541714e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0008518222420445375], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002853714612607e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.7964918474722658e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3803511814172998e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.847822712202944e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00031926643075527803], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6356301204877177e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009970940086335206], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894197623097447], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00015208377758085082], ["'market for corrugated board box' (kilogram, RER, None)", 2.474777934203398e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0012777333630668063], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.413559057397848e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008475299073384925], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1951219047603932e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016542744596531952], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00018063280221816314], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343623723920869e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.99840796299021e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0002023134077768732], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5292064558540266e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1934324363156287e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009970940086335206], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894197623097447], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00015208377758085082], ["'market for corrugated board box' (kilogram, RER, None)", 2.474777934203398e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0012777333630668063], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.413559057397848e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.956216242104192e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0194709705693512e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0001663746744243146], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009083354789998384], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343623723920869e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581828927413895], ["'alubox production - APOS' (kilogram, GLO, None)", 3.6650867968944077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830554350025091e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.001703644484089075], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00019426649327169507], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.053026902232086e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499992290530702e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00027152737481043196], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9033009307178925e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5034575180114008e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.641648656824932e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1385414044843407e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581828927413895], ["'alubox production - APOS' (kilogram, GLO, None)", 3.6650867968944077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830554350025091e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.001703644484089075], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.053026902232086e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499992290530702e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00027152737481043196], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9033009307178925e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.143024586010296e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661631077640534e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1385414044843407e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0008455988116125288], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669392780844e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.048111142013074e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001707844316365751], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899919948998257e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.9152771750125456e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0011357629893927166], ["'cabinet washer - APOS' (unit, GLO, None)", 9.713324663584753e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690682707736e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.469095432001157e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00016224521005474637], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.516504653589462e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.517287590057004e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.20824328412466e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803103725805601e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001707844316365751], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899919948998257e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.9152771750125456e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0011357629893927166], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690682707736e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.469095432001157e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00016224521005474637], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.516504653589462e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.143024586010296e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661631077640534e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803103725805601e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0008455988116125288], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.048111142013074e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669392780844e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528483519468146], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017648306685899573], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431822934906e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.53351156639229e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00087233852454082], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621129443131e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003189921099154792], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.58774767401659e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.915239453518599e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.543745239358199e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489376570465143e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.093261364137511e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.47165999130259e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.097637022504508e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.218714826552581e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528483519468146], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017648306685899573], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431822934906e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.53351156639229e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00087233852454082], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621129443131e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8124765510350534e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3984246816696723e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.979813331602883e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00033075901126113744], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489376570465143e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677117846383895], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021067535988329], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00016715270238498866], ["'market for corrugated board box' (kilogram, RER, None)", 2.5735987259082445e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.00130850778681123], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.45390161108709e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000907555016942631], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2883682997758018e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016916129224166926], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00018713501109925422], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665991644860905e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 9.328883290166796e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0002125739884849469], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5373825629454264e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.200254077413551e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677117846383895], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021067535988329], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00016715270238498866], ["'market for corrugated board box' (kilogram, RER, None)", 2.5735987259082445e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.00130850778681123], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.45390161108709e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.001693849423673e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0249217086302843e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017012990049912423], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00094103267987385], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665991644860905e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002902557978149707], ["'alubox production - APOS' (kilogram, GLO, None)", 3.8604674221381475e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.298037713360109e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00174467704908164], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00019914265661813156], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.3998082325125145e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.3025156687973451e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00027574300792422216], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9162916232559362e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5373919067249505e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.700742809962999e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740250256275738e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002902557978149707], ["'alubox production - APOS' (kilogram, GLO, None)", 3.8604674221381475e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.298037713360109e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00174467704908164], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.3998082325125145e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.3025156687973451e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00027574300792422216], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9162916232559362e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107277655524e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.865431868097373e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740250256275738e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183864422896], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024597720214e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.07510154422357e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343596725367312], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3067373897441923e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490188566800544e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0011631180327210933], ["'cabinet washer - APOS' (unit, GLO, None)", 9.957132830906578e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.0314806240621303e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895865699084e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00016476416889098946], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458116279681e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.686959533624752e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.503714049814995e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.015128298872345e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343596725367312], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3067373897441923e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490188566800544e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0011631180327210933], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.0314806240621303e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895865699084e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00016476416889098946], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458116279681e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107277655524e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.865431868097373e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.015128298872345e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183864422896], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.07510154422357e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024597720214e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763056519752], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0003639805546634787], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00035118661611284376], ["'market for corrugated board box' (kilogram, RER, None)", 4.2225109144718074e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.007513954551731883], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204156206315073e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010562748598041789], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.991378438877522e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005190758696868841], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00011653425917982014], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830856077964308e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.934073115005374e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00042452294358182876], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.66695482310839e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5435373807845904e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763056519752], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0003639805546634787], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00035118661611284376], ["'market for corrugated board box' (kilogram, RER, None)", 4.2225109144718074e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.007513954551731883], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204156206315073e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010290249205230602], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1113032154055934e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005247423760369721], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005890320441042545], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830856077964308e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00353550160199576], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.001035550310451024], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342176152713], ["'market for corrugated board box' (kilogram, RER, None)", 0.00012734556723888708], ["'autoclave - APOS' (unit, GLO, None)", 0.011270931827597825], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726820310250227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0030051763616963964], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.02161733132137e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014844292539242941], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0003332593046852458], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.365961870343087e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.8329188001109326e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0012077976704722453], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0273239678519105e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.391472548147707e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00353550160199576], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.001035550310451024], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342176152713], ["'market for corrugated board box' (kilogram, RER, None)", 0.00012734556723888708], ["'autoclave - APOS' (unit, GLO, None)", 0.011270931827597825], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726820310250227e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002927648365431805], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.351549311901274e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014929290142057694], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0016758376465135045], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.365961870343087e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367618972586057], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762028203923808], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918681591971e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.015027909103463766], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0016460763074098493], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6740040848348816e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925782405278e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006049238023956753], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.175813784930649e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.3490967648961999e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.028767107594219e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049752171847996e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367618972586057], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762028203923808], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918681591971e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.015027909103463766], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6740040848348816e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925782405278e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006049238023956753], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.175813784930649e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987618636188], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010445451840137268], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049752171847996e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.009536292855496871], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960063055924e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6595856000653165e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306491273196], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004040501209528826], ["'market for polysulfone' (kilogram, GLO, None)", 2.1204593407959854e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.010018606068975843], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0008230381537049247], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.597792321065878e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.0984739997608977e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0003614589116670954], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068924653245e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.745483824480999e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5143835537971095e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2138264453775514e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306491273196], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004040501209528826], ["'market for polysulfone' (kilogram, GLO, None)", 2.1204593407959854e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.010018606068975843], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.597792321065878e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.0984739997608977e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0003614589116670954], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068924653245e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987618636188], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010445451840137268], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2138264453775514e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.009536292855496871], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6595856000653165e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960063055924e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.543911975548873e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.4686035388849833e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.11426689359967e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.151038186625731e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.602311966938434e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.36453704837424e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.562325179216542e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7021266828840974e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.7728370521810857e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7364194005533344e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.173780817539108e-12], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.324782922085327e-12], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.9564142734312148e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.600898405014979e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.914807112022986e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.543911975548873e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.4686035388849833e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.11426689359967e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.151038186625731e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.602311966938434e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.36453704837424e-13], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.27653807468199e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.400598936676653e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.7921902777893485e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.776875368057695e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.173780817539108e-12]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8617890409308062e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350913447418e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.7487471027049803e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.48725802198728e-11], ["'autoclave - APOS' (unit, GLO, None)", 3.903467950407651e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3162889514296264e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5825206847911854e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.133397828518765e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.069877712261935e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.965732190200282e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409911623394653e-11], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.5106487669127755e-11], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 5.566136383564865e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8955089841270728e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.2518183614487928e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8617890409308062e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350913447418e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.7487471027049803e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.48725802198728e-11], ["'autoclave - APOS' (unit, GLO, None)", 3.903467950407651e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3162889514296264e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5012122409658619e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.930339322751382e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.098907553257523e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.4970828510553554e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409911623394653e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294878087652e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.179124599718619e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.0737678679629263e-11], ["'autoclave - APOS' (unit, GLO, None)", 5.204623933876868e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 5.945234278124664e-10], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892046309977e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.610817729378239e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 4.607780134183269e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834738078318e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.607666954790929e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.513016174298665e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465559522782567e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294878087652e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.179124599718619e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.0737678679629263e-11], ["'autoclave - APOS' (unit, GLO, None)", 5.204623933876868e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892046309977e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.610817729378239e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 4.607780134183269e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834738078318e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898257012968e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251534625726e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465559522782567e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049683162368e-10], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.7095919135462425e-12], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455046155071e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.898187012901351e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.4847839921841265e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.3688393398146315e-12], ["'autoclave - APOS' (unit, GLO, None)", 3.469749289251245e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 2.972617139062332e-10], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044803260535e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.1575647073573333e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.7532776622562833e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917369039159e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3038334773954644e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.2565080871493325e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.342380093422871e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.898187012901351e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.4847839921841265e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.3688393398146315e-12], ["'autoclave - APOS' (unit, GLO, None)", 3.469749289251245e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044803260535e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.1575647073573333e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.7532776622562833e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917369039159e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898257012968e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251534625726e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.342380093422871e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049683162368e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455046155071e-11], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.7095919135462425e-12]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.059413247332237e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.4288747150626986e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3297919163189075e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.801341943495299e-09], ["'autoclave - APOS' (unit, GLO, None)", 9.98119726542395e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.208637222151554e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.6005012602324013e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.633163354355186e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.039518085816497e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.911832329669085e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453796189245202e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.122996432358099e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.1999457047624876e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6196188072657576e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.9862283816600933e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.059413247332237e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.4288747150626986e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3297919163189075e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.801341943495299e-09], ["'autoclave - APOS' (unit, GLO, None)", 9.98119726542395e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.208637222151554e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9908189211067292e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.4130792048438382e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.1054486550903e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.9772679807253619e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453796189245202e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.704246140297349e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.065249189333311e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058102340249285e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.7496110620085152e-08], ["'autoclave - APOS' (unit, GLO, None)", 1.4971795898135925e-06], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660969401822871e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.398609219252747e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.6036523874593646e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.727153553024697e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1186877845245138e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.267136380705444e-08], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.545030638778088e-08], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 3.4139300332679225e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0916310467444186e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.496030043596322e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.704246140297349e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.065249189333311e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058102340249285e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.7496110620085152e-08], ["'autoclave - APOS' (unit, GLO, None)", 1.4971795898135925e-06], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660969401822871e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.664020029064214e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.277540311629457e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.7370431392957832e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.625466649075581e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.267136380705444e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.32560993568552e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796112423754222e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869956517074035e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.99623945308479e-06], ["'cabinet washer - APOS' (unit, GLO, None)", 2.4373024693967735e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.94886173581894e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.92087007591692e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 3.1593294389012435e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388515089503e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.569692368096803e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0166992242378347e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3947599729727148e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.32560993568552e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796112423754222e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869956517074035e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.99623945308479e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.94886173581894e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.92087007591692e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 3.1593294389012435e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388515089503e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.36960063379281e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.5063385217217e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3947599729727148e-09], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.2908835439634563e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264618821886304e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6036173068340264e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871450639264194e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.8658114791609816e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349782585370176e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.3308263020565267e-06], ["'cabinet washer - APOS' (unit, GLO, None)", 1.2186512346983868e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274643923893e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.745301663747963e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.8877878107300984e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.555194257544751e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.848461840484015e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.083496121189174e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.334081423268697e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871450639264194e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.8658114791609816e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349782585370176e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.3308263020565267e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274643923893e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.745301663747963e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.8877878107300984e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.555194257544751e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.36960063379281e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.5063385217217e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.334081423268697e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.2908835439634563e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6036173068340264e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264618821886304e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04813660151220276], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851064683443804], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179964060613], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002488913871228117], ["'autoclave - APOS' (unit, GLO, None)", 0.020924361968229558], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251220403586959e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04091611128537235], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024680058011924424], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014113698509716271], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0015092673692472746], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894025093193914e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010414944472150632], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003285791988404011], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0041353055816152e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7044172738759577e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04813660151220276], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851064683443804], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179964060613], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002488913871228117], ["'autoclave - APOS' (unit, GLO, None)", 0.020924361968229558], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251220403586959e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011362781825839717], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3360902037210769e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014267771096979436], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.007628716652634964], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894025093193914e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1369520212037318], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199880374726265], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303082121294638], ["'market for corrugated board box' (kilogram, RER, None)", 0.000750624818171551], ["'autoclave - APOS' (unit, GLO, None)", 0.03138654295234434], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868759952852103e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11640921802317203], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007443191948055306], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.004036170466087826], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0043161332778831095], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002245905730922747], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.000314101493590898], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009348309600811412], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.044217465822429e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.849187173562583e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1369520212037318], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199880374726265], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303082121294638], ["'market for corrugated board box' (kilogram, RER, None)", 0.000750624818171551], ["'autoclave - APOS' (unit, GLO, None)", 0.03138654295234434], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868759952852103e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0003232791449041722], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.029478310548286e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.004059281356233802], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.021704236109109532], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002245905730922747]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004532630753139638], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001280599322731598], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315760271994], ["'autoclave - APOS' (unit, GLO, None)", 0.041848723936459116], ["'cabinet washer - APOS' (unit, GLO, None)", 0.004837637018760323], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0002250471611644957], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00035513013412983327], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004305999215482655], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422287413278252e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.668200760644924e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.922639914402946e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472109130681846e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004532630753139638], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001280599322731598], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315760271994], ["'autoclave - APOS' (unit, GLO, None)", 0.041848723936459116], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0002250471611644957], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00035513013412983327], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004305999215482655], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422287413278252e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0012548174106955684], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528193108463206], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472109130681846e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670776516], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.939328713390025e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952754853449822e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373802667833], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651939560702133], ["'market for polysulfone' (kilogram, GLO, None)", 0.0002274157880135997], ["'autoclave - APOS' (unit, GLO, None)", 0.027899149290972744], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0024188185093801614], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198081169352], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220019988368177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0025729551125344414], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711143706639126e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.834100380322462e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.961319957201473e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771544338483498e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373802667833], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651939560702133], ["'market for polysulfone' (kilogram, GLO, None)", 0.0002274157880135997], ["'autoclave - APOS' (unit, GLO, None)", 0.027899149290972744], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198081169352], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220019988368177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0025729551125344414], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711143706639126e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0012548174106955684], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528193108463206], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771544338483498e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670776516], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952754853449822e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.939328713390025e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682459148671], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169124340773333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.043945022951503e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278811031533383e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554615486601501], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.11940186309278e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000380603009027637], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.108087852528014e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.958633569451112e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.521149146316139e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.191064259521485e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.878980481865356e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00011844523338526872], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1102744972331485e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7531191519336432e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682459148671], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169124340773333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.043945022951503e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278811031533383e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554615486601501], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.11940186309278e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1687461012890955e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.406849664822099e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00046390890463007416], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00036807660975440924], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.191064259521485e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739321926028611], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825791103692], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227770334893864], ["'market for corrugated board box' (kilogram, RER, None)", 2.4967842789011543e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331923229902252], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121197348348e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001082842363712432], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7468835824195326e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019899979638937683], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00015789127922679388], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7614013810215203e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.7730258236934533e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00033698503019470816], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.364319783366451e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.9877474463464205e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739321926028611], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825791103692], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227770334893864], ["'market for corrugated board box' (kilogram, RER, None)", 2.4967842789011543e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331923229902252], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121197348348e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3251649642309474e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.242879855577634e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0013266653092625122], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0010526085281786259], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7614013810215203e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365752726549], ["'alubox production - APOS' (kilogram, GLO, None)", 6.61205506754601e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940019618573925e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109230973203002], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0007504178226866037], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710539049703e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610610028552e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975124869198], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567281444578e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8085737721361473e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4349664251677814e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806414207726e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365752726549], ["'alubox production - APOS' (kilogram, GLO, None)", 6.61205506754601e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940019618573925e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109230973203002], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710539049703e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610610028552e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975124869198], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567281444578e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765681289476e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836326411976e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806414207726e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418851469926], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795134904408e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.100945460095104e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029257156506249407], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950888060831857e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.9700098092869625e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072820648802001], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00037520891134330185], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918193862438e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360199357721785e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471589616907166], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283640722289e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.042868860680736e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.174832125838907e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584911262920866e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029257156506249407], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950888060831857e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.9700098092869625e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072820648802001], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918193862438e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360199357721785e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471589616907166], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283640722289e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765681289476e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836326411976e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584911262920866e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418851469926], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.100945460095104e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795134904408e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1689911532139847], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.054241524393867466], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788073733604512], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605164550949507], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641149440566], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868353414746495e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.143642480231887], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00276163916048031], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.028709446394469065], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01731494410311957], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001407379984730259], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0016698446283675188], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.043751041590199845], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0032959625177096143], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027168737652736714]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1689911532139847], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.054241524393867466], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788073733604512], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605164550949507], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641149440566], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868353414746495e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.1811249176849114], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.021973083451397427], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.19139630929646045], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.1154329606874638], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001407379984730259]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.48079173167922407], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432095672621446], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0657100623099204], ["'market for corrugated board box' (kilogram, RER, None)", 0.00785684546970093], ["'autoclave - APOS' (unit, GLO, None)", 0.3299946172416085], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698208715612656], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4086729719273405], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008328752854952649], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08210195191240283], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.049516479300438725], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004004095168150502], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.005036039253377497], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.12447479438338548], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009940204217127517], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.07729697191341993]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.48079173167922407], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432095672621446], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0657100623099204], ["'market for corrugated board box' (kilogram, RER, None)", 0.00785684546970093], ["'autoclave - APOS' (unit, GLO, None)", 0.3299946172416085], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698208715612656], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.5153131460894662], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06626802811418345], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.5473463460826855], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.33010986200292486], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004004095168150502]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393226132636], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01845135552768377], ["'market for polysulfone' (kilogram, GLO, None)", 0.0026035160905398484], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928229888113], ["'cabinet washer - APOS' (unit, GLO, None)", 0.2242201874629483], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778812867996], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942488347111933], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.044790718842170806], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007493636036368886], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0007461687879288787], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0004500215948379445], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00044073801001598677]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393226132636], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01845135552768377], ["'market for polysulfone' (kilogram, GLO, None)", 0.0026035160905398484], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928229888113], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778812867996], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942488347111933], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.044790718842170806], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007493636036368886], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.02552492754639061], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520106792348633], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00044073801001598677], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245826665506], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277267657743], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391827131857]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742109241865], ["'alubox production - APOS' (kilogram, GLO, None)", 0.011025201622760444], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017580452699242], ["'autoclave - APOS' (unit, GLO, None)", 0.29332854865920754], ["'cabinet washer - APOS' (unit, GLO, None)", 0.11211009373147415], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000989194392564958], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002326922729740524], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763708786727788], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818018184443], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00037308439396443934], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00022501079741897226], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00026335330329088137]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742109241865], ["'alubox production - APOS' (kilogram, GLO, None)", 0.011025201622760444], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017580452699242], ["'autoclave - APOS' (unit, GLO, None)", 0.29332854865920754], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000989194392564958], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002326922729740524], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763708786727788], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818018184443], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.02552492754639061], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520106792348633], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00026335330329088137], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245826665506], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391827131857], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277267657743]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0038893173217078845], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864249171935], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233226506936], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299713156951], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409862648861], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499576977025344e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003305919723451702], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00038064710380856], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0017801468868960577], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009076479046767767], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328905296777156], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0003753471888385468], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009077476158917418], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00017305319408709115], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0014264324648783433]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0038893173217078845], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864249171935], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233226506936], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299713156951], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409862648861], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499576977025344e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009509549765855621], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0011536879605806077], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.011867645912640385], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0060509860311785115], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328905296777156]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381675844966], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095303920179307], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607781990384], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004248249119075004], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114793973292], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633644857824036e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009405574424468223], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011479833056913973], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005090782040754032], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.002595649654792526], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766744650491823], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0011319994354707034], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.025826058931004484], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0005219064477854733], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.004058300815569371]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381675844966], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095303920179307], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607781990384], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004248249119075004], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114793973292], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633644857824036e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027055338770462473], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0034793763185698226], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.033938546938360216], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017304331031950174], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766744650491823]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540663711540981], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763594352357315], ["'market for polysulfone' (kilogram, GLO, None)", 9.050919211391432e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819725297722], ["'cabinet washer - APOS' (unit, GLO, None)", 0.04698624392504162], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.096811988459967e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.003880676110290316], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867359852148], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7932612060208704e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.6266654768602436e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.3590093920105162e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.4872694472910934e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540663711540981], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763594352357315], ["'market for polysulfone' (kilogram, GLO, None)", 9.050919211391432e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819725297722], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.096811988459967e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.003880676110290316], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867359852148], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7932612060208704e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888364767779], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135626847271821], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.4872694472910934e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643511794676], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.667830929939876e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816580446135]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713173720260293], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614245061064801], ["'market for polysulfone' (kilogram, GLO, None)", 4.525459605695716e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213150198481], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02349312196252081], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447959886499638e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812646820826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0028537144865551462], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.8966306030104352e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3133327384301218e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1795046960052581e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812691550190827e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713173720260293], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614245061064801], ["'market for polysulfone' (kilogram, GLO, None)", 4.525459605695716e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213150198481], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447959886499638e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812646820826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0028537144865551462], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.8966306030104352e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888364767779], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135626847271821], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812691550190827e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643511794676], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816580446135], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.667830929939876e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093485909406], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161632658257488], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.000786600213596519], ["'market for corrugated board box' (kilogram, RER, None)", 0.000184843082873479], ["'autoclave - APOS' (unit, GLO, None)", 0.057837414179936514], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359446704750407e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004409029463022995], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004990237540764418], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023212738151782717], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0011868970786272726], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00018998561266646204], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004849103528648191], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011771130940156868], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00025058124208359665], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.002065455646647646]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093485909406], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161632658257488], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.000786600213596519], ["'market for corrugated board box' (kilogram, RER, None)", 0.000184843082873479], ["'autoclave - APOS' (unit, GLO, None)", 0.057837414179936514], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359446704750407e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.013769704310984307], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0016705416138906443], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.015475158767855145], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.007912647190848483], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00018998561266646204]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646255685914], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.011840137985464965], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0023722863104095535], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632657083915], ["'autoclave - APOS' (unit, GLO, None)", 0.08675612126990477], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.029039483403203e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012543999317333028], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015049922437116985], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006638271895970874], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0033942335750890462], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405224473486416], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.001462428018697613], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0334896964776294], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0007557211909749846], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005876366769335555]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646255685914], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.011840137985464965], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0023722863104095535], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632657083915], ["'autoclave - APOS' (unit, GLO, None)", 0.08675612126990477], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.029039483403203e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.039175778462237035], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005038141273166564], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.044255145973139155], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.022628223833926975], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405224473486416]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985808916159022], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002297626375927171], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759898793410398], ["'autoclave - APOS' (unit, GLO, None)", 0.11567482835987303], ["'cabinet washer - APOS' (unit, GLO, None)", 0.05926074007393353], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.273796420063401e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173848615622], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295102141253], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402372668352e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.0330737323318794e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.084787990370181e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949628513036806e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985808916159022], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002297626375927171], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759898793410398], ["'autoclave - APOS' (unit, GLO, None)", 0.11567482835987303], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.273796420063401e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173848615622], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295102141253], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402372668352e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927020137107], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0010638653698283138], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949628513036806e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024342224114], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017221148958e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348017084064]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766884485507948], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728961002546674], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949396705199e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655223991534], ["'cabinet washer - APOS' (unit, GLO, None)", 0.029630370036966766], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297049763643e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002965037830748693], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035793690703022477], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.525701186334176e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0165368661659397e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5423939951850906e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555069648304269e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766884485507948], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728961002546674], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949396705199e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655223991534], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297049763643e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002965037830748693], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035793690703022477], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.525701186334176e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927020137107], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0010638653698283138], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555069648304269e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024342224114], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348017084064], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017221148958e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023431191253], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111786414071003], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566966787039836], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345663806941362], ["'autoclave - APOS' (unit, GLO, None)", 2.3473687664019125], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206382889402073], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30416419916512566], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025550711264960925], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08001861943886018], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0872954723721113], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775465499971607], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.01026085337599663], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.19042231181149782], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009639104410298922], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0794592953457299]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023431191253], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111786414071003], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566966787039836], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345663806941362], ["'autoclave - APOS' (unit, GLO, None)", 2.3473687664019125], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206382889402073], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.5297286356381993], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06426069606865949], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.5334574629257346], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.5819698158140753], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775465499971607]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.018080666633892], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428987120623017], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1344083098095916], ["'market for corrugated board box' (kilogram, RER, None)", 0.034217081316352045], ["'autoclave - APOS' (unit, GLO, None)", 3.521053149602869], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919385318610808], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8653685666388082], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07705769907937667], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.2288335607381069], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.24964356945032753], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01358653564891402], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.030945430189626606], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.5417648871256698], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.029070314299316734], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.22606729098362588]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.018080666633892], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428987120623017], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1344083098095916], ["'market for corrugated board box' (kilogram, RER, None)", 0.034217081316352045], ["'autoclave - APOS' (unit, GLO, None)", 3.521053149602869], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919385318610808], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5071152732241726], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.19380209532877826], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5255570715873792], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6642904630021838], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01358653564891402]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275720493938524], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271287994929722], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110339210473261], ["'autoclave - APOS' (unit, GLO, None)", 4.694737532803825], ["'cabinet washer - APOS' (unit, GLO, None)", 2.3912573888211086], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861877925814], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910214893276], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209306004514138], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00039972035656359224], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020797125607388677], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0022688405729217134], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495494595768947]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275720493938524], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271287994929722], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110339210473261], ["'autoclave - APOS' (unit, GLO, None)", 4.694737532803825], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861877925814], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910214893276], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209306004514138], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00039972035656359224], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114276727859842], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657392105536], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495494595768947], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377537401342], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950254707999148], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492151496064]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335086753234027], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04344798195502619], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055169605236631], ["'autoclave - APOS' (unit, GLO, None)", 3.1298250218692165], ["'cabinet washer - APOS' (unit, GLO, None)", 1.1956286944105543], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845207899386755], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.203362144080494], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502818226722045], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986017828179612], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010398562803694339], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0011344202864608567], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008935999003923618]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335086753234027], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04344798195502619], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055169605236631], ["'autoclave - APOS' (unit, GLO, None)", 3.1298250218692165], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845207899386755], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.203362144080494], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502818226722045], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986017828179612], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114276727859842], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657392105536], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008935999003923618], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377537401342], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492151496064], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950254707999148]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803069690425], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988014962293897], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160431886166], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403666475850858], ["'autoclave - APOS' (unit, GLO, None)", 0.056365655575281205], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764245998777105e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10336682609236862], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007781138972252729], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0075590907942719035], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004941384260053419], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00034926329739843877], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00042420329533623713], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011895099694857369], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.459679792198489e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.64113276641598e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803069690425], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988014962293897], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160431886166], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403666475850858], ["'autoclave - APOS' (unit, GLO, None)", 0.056365655575281205], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764245998777105e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0003094088510943987], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6397865281323254e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.05039393862847936], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.03294256173368946], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00034926329739843877]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834112785163], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.039796887639202354], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461435403508925], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328517939016325], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848336292181], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.0558837151945536e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29408589958673886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023466926583798095], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.021617139542348045], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.014131143015608453], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936786771864148], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0012793432457329167], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.033842396314946316], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6465700627047815e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00013204349560789127]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834112785163], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.039796887639202354], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461435403508925], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328517939016325], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848336292181], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.0558837151945536e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0008802899707192751], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010977133751365212], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.14411426361565363], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.09420762010405635], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936786771864148]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.022981547934342282], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016176608815725], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730290783123349], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131115056241], ["'cabinet washer - APOS' (unit, GLO, None)", 0.057753131829730256], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426787437775], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836719010859708], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591415750451], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958307840527835e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019646347541180166], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00012842834560555786], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937601240400819]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.022981547934342282], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016176608815725], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730290783123349], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131115056241], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426787437775], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836719010859708], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591415750451], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958307840527835e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00672061878830063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004429168870619836], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937601240400819], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611850905682], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.38345585276859e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.435543806282897e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.01373211844512457], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002997305992212409], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145391561674], ["'autoclave - APOS' (unit, GLO, None)", 0.07515420743370828], ["'cabinet washer - APOS' (unit, GLO, None)", 0.028876565914865128], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00031121808575381354], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00064752430706064], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387377429876], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479153920263917e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.823173770590083e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.421417280277893e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535523034724224e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.01373211844512457], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002997305992212409], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145391561674], ["'autoclave - APOS' (unit, GLO, None)", 0.07515420743370828], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00031121808575381354], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00064752430706064], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387377429876], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479153920263917e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00672061878830063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004429168870619836], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535523034724224e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611850905682], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.435543806282897e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.38345585276859e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820791632588195e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.030853126288288e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.77166971516853e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.51670027073785e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132016531516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558940511420393e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3647672887699965e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.045483600032756e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3859087102377868e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.345226343687765e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1357420316434216e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.3258764064590667e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.5737747912135118e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.89787914126181e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.571123260330493e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820791632588195e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.030853126288288e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.77166971516853e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.51670027073785e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132016531516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558940511420393e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7140821735536618e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9319194275078735e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00015906058068251912], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.5634842291251765e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1357420316434216e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.915211140539177e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920162115974e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406622597896916e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175418860832e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198024797275], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422537617189189e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.7279294694583e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8232410487902056e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.823111790586948e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5286031997971576e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266062122138e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.998674795620189e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.322570532748302e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.73963532835126e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.315026740658584e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.915211140539177e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920162115974e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406622597896916e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175418860832e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198024797275], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422537617189189e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.876684493772389e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.826423552234174e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00045487411937246316], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010190687998647717], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266062122138e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.40108885699913e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.287397025702591e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334470227158e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426403306303], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000213816580036565], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799509082545e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.4675097248927624e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677619901018963e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535758050358366e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.201062138105387e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.389243459078091e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567131005772736e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.40108885699913e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.287397025702591e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334470227158e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426403306303], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799509082545e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.4675097248927624e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677619901018963e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535758050358366e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581435514657e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.79114937878217e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567131005772736e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504573312916e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523611480560776e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.885068285533874e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.0322458330543277e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692557739520697e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167235113579e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002896284268870869], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0001069082900182825], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066373329735e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901677903065e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770288909569849e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267879025179183e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.1005310690526937e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.946217295390456e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252356788129122e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.0322458330543277e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692557739520697e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167235113579e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002896284268870869], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066373329735e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901677903065e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770288909569849e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267879025179183e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581435514657e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.79114937878217e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252356788129122e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504573312916e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.885068285533874e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523611480560776e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509710857888e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.7124696920168585e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423555609654e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026020039319343e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491776367517], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299126024657632e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.394033254229205e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.517197658370845e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.0662757576766134e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.798750841852096e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456705863917e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.457370942028246e-07], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 8.806668634530969e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.163672425530102e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.2765353010087e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509710857888e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.7124696920168585e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423555609654e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026020039319343e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491776367517], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299126024657632e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8510235340058003e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.442448283686735e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.3775171717844089e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.865833894568064e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456705863917e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013168473144977e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167292780358e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730165798113446e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.833244137970883e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00019335737664551275], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010847532259515e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.811193202173231e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6639167204053658e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.909040201040294e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6583000460119252e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989503282e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.042699151870366e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.5055592453172614e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.557298001549712e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2167044095827568e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013168473144977e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167292780358e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730165798113446e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.833244137970883e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00019335737664551275], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010847532259515e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.111362730551712e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0381986676998081e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.939360134026862e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.10553336400795e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989503282e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.746685975193056e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.729637388756698e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009009882933485e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.00025780983552735033], ["'cabinet washer - APOS' (unit, GLO, None)", 9.540578545935444e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.6404613543635007e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.6860703104492404e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.3722314728022804e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.775843923576373e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.370324653593506e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.507116099466933e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8245516087325258e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.746685975193056e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.729637388756698e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009009882933485e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.00025780983552735033], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.6404613543635007e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.6860703104492404e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.3722314728022804e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.775843923576373e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796246255617e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662307876095e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8245516087325258e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817116943e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060293713778e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845019953421e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412217858724054e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310347780635811e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004504941466743e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.0001718732236849002], ["'cabinet washer - APOS' (unit, GLO, None)", 4.770289272967722e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805606489119e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074742256720645e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467317207911e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219617881863e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.685162326796753e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.535580497334664e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486841861043e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412217858724054e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310347780635811e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004504941466743e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.0001718732236849002], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805606489119e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074742256720645e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467317207911e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219617881863e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796246255617e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662307876095e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486841861043e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817116943e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845019953421e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060293713778e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163220728734657], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.002728411878069912], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057105343307861], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781360193158718], ["'autoclave - APOS' (unit, GLO, None)", 0.02105817607719986], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557089351287983e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005238737619424459], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048528132440573915], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002378476986305546], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007868475005120573], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096559172142104e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00013601855978445017], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0027811737556826597], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0728235075012114e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.160048080446133e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163220728734657], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.002728411878069912], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057105343307861], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781360193158718], ["'autoclave - APOS' (unit, GLO, None)", 0.02105817607719986], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557089351287983e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0006106698720297422], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.152156716674743e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.015856513242036973], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.005245650003413716], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096559172142104e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534797002878882], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762523934790453], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002731507905347147], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759457835173839], ["'autoclave - APOS' (unit, GLO, None)", 0.03158726411579979], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727729792309635e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01490457745244705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014635468217348664], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00680185888892777], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0022501902252567833], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035281026845345], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004102146958019877], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.007912635192223905], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.2354994015246317e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002606098186267773]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534797002878882], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762523934790453], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002731507905347147], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759457835173839], ["'autoclave - APOS' (unit, GLO, None)", 0.03158726411579979], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727729792309635e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.001737398790845182], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00021569996010164215], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04534572592618513], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015001268168378556], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035281026845345]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.021747164173507888], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690718708186208], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911039716781188], ["'autoclave - APOS' (unit, GLO, None)", 0.04211635215439972], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02119684914817869], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884882741101e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548138468239966], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009156975908706433], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165237105617e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.181746821597541e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.0450448177357374e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355351193164326e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.021747164173507888], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690718708186208], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911039716781188], ["'autoclave - APOS' (unit, GLO, None)", 0.04211635215439972], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884882741101e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548138468239966], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009156975908706433], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165237105617e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146507637953807], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052842425890096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355351193164326e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002103202973722244], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977040392237026e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808020583088]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994539581466475], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0009375643816749348], ["'market for polysulfone' (kilogram, GLO, None)", 5.955519858390594e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077568102933145], ["'cabinet washer - APOS' (unit, GLO, None)", 0.010598424574089344], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108198112630542e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00033151680997942166], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0054715495290725575], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826185528085e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0908734107987706e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0225224088678687e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150532382215021e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994539581466475], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0009375643816749348], ["'market for polysulfone' (kilogram, GLO, None)", 5.955519858390594e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077568102933145], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108198112630542e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00033151680997942166], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0054715495290725575], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826185528085e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146507637953807], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052842425890096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150532382215021e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002103202973722244], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808020583088], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977040392237026e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178428349473], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.056172920967090624], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013688103474466057], ["'market for corrugated board box' (kilogram, RER, None)", 0.003203654635496696], ["'autoclave - APOS' (unit, GLO, None)", 0.655230310892542], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318617386557e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06993101664097053], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007174093258099431], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.042449114114902604], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.02181752419710749], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.003700900574662578], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.006715401583031114], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.16788785545863813], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.002092578363726279], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.017248762248893202]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178428349473], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.056172920967090624], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013688103474466057], ["'market for corrugated board box' (kilogram, RER, None)", 0.003203654635496696], ["'autoclave - APOS' (unit, GLO, None)", 0.655230310892542], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318617386557e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.11499174832595467], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.013950522424841861], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.28299409409935067], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.14545016131404995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.003700900574662578]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.2340690200741681], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981591599087755], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.041281581070866075], ["'market for corrugated board box' (kilogram, RER, None)", 0.009661815565628912], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454663388131], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.8905614782260106e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1989586670630429], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021636153832168332], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12139402055684557], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.062392750381345764], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.010529322762574341], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.02025279801474727], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.47765277186823807], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.006310950492918915], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04907394329966798]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.2340690200741681], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981591599087755], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.041281581070866075], ["'market for corrugated board box' (kilogram, RER, None)", 0.009661815565628912], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454663388131], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.8905614782260106e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.32715962199778653], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0420730032861261], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.8092934703789705], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.4159516692089718], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.010529322762574341]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654216863354821], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03384245027176591], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105986614015183], ["'autoclave - APOS' (unit, GLO, None)", 1.310460621785084], ["'cabinet washer - APOS' (unit, GLO, None)", 0.6530817117568094], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710219970799], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671645013785132], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0512041074435976], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007420885178461744], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011032676699009297], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005670452631047663], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001158981634129486]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654216863354821], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03384245027176591], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105986614015183], ["'autoclave - APOS' (unit, GLO, None)", 1.310460621785084], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710219970799], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671645013785132], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0512041074435976], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007420885178461744], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.03774055923279999], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595718167825], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001158981634129486], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.04163336072864478], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0008694938828117306], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275571155434]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.057686649237581725], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022181173056078], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552993307007591], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404145233894], ["'cabinet washer - APOS' (unit, GLO, None)", 0.3265408558784047], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598752811696], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966719322364], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.03059588807077849], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003710442589230872], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005516338349504648], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00028352263155238317], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006925239821961183]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.057686649237581725], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022181173056078], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552993307007591], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404145233894], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598752811696], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966719322364], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.03059588807077849], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003710442589230872], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.03774055923279999], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595718167825], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006925239821961183], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.04163336072864478], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275571155434], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0008694938828117306]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518094647435287], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992223678799525], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894596061079505], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043300465905], ["'autoclave - APOS' (unit, GLO, None)", 0.0598375537093028], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197167438871473e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028490380450319997], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007156527807334466], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00869591226054585], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0014502532622539944], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868485577613], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.000756018903187416], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.014340789914206004], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.67421993757328e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.019006236444375e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518094647435287], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992223678799525], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894596061079505], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043300465905], ["'autoclave - APOS' (unit, GLO, None)", 0.0598375537093028], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197167438871473e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.6793374909629162e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.1161466250488536e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.057972748403639], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.009668355081693294], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868485577613]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536133970115391], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214688990306342], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782829731423], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750924238102817], ["'autoclave - APOS' (unit, GLO, None)", 0.0897563305639542], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5673997041827251e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008105713874598084], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002158317866426776], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.024868169188638687], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004147367453981884], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372311397655], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.002280056963425022], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.04080055722069877], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.409685349441858e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1434355771292444e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536133970115391], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214688990306342], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782829731423], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750924238102817], ["'autoclave - APOS' (unit, GLO, None)", 0.0897563305639542], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5673997041827251e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.622903847528297e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.397902329612388e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.16578779459092455], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.02764911635987923], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372311397655]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507935643535], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006760525477120413], ["'market for polysulfone' (kilogram, GLO, None)", 0.0001246382207909284], ["'autoclave - APOS' (unit, GLO, None)", 0.1196751074186056], ["'cabinet washer - APOS' (unit, GLO, None)", 0.062308700244930085], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662961023545705e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003865100371090765], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068041823834], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040821484881e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00022600987222928196], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.769260138015055e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908318063846e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507935643535], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006760525477120413], ["'market for polysulfone' (kilogram, GLO, None)", 0.0001246382207909284], ["'autoclave - APOS' (unit, GLO, None)", 0.1196751074186056], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662961023545705e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003865100371090765], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068041823834], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040821484881e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341362366505], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999225046345243], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908318063846e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002953396716688924], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.654304863204176e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556288627997e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868975063943], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004039603288182804], ["'market for polysulfone' (kilogram, GLO, None)", 6.23191103954642e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340494573706], ["'cabinet washer - APOS' (unit, GLO, None)", 0.031154350122465042], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.591193782705756e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002309505706480268], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607284936838], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204107424405e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011300493611464098], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.8846300690075275e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5633403534588798e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868975063943], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004039603288182804], ["'market for polysulfone' (kilogram, GLO, None)", 6.23191103954642e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340494573706], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.591193782705756e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002309505706480268], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607284936838], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204107424405e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341362366505], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999225046345243], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5633403534588798e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002953396716688924], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556288627997e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.654304863204176e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207939452857828], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0011482944616796162], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957475531458801], ["'market for corrugated board box' (kilogram, RER, None)", 0.0011380431901143477], ["'autoclave - APOS' (unit, GLO, None)", 0.042964859896705704], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0199917364706772e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011226748534929154], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019331252481708054], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0063295226946014005], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.011240756881446816], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478383721951741e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.73985615025746e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0012874985979541495], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.410807106335187e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.95276887714031e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207939452857828], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0011482944616796162], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957475531458801], ["'market for corrugated board box' (kilogram, RER, None)", 0.0011380431901143477], ["'autoclave - APOS' (unit, GLO, None)", 0.042964859896705704], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0199917364706772e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9685125847602066e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.2738714042234583e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.042196817964009335], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07493837920964544], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478383721951741e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577517879961706], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0032669786092856686], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966989334087485], ["'market for corrugated board box' (kilogram, RER, None)", 0.0034321937473450635], ["'autoclave - APOS' (unit, GLO, None)", 0.06444728984505856], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761655552127395e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003194089019796745], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005830060154159825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.018100877347490104], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.03214579857298785], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00015586387491893752], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00023342422837445585], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003663024180094904], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0286560905966165e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.400835396934403e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577517879961706], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0032669786092856686], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966989334087485], ["'market for corrugated board box' (kilogram, RER, None)", 0.0034321937473450635], ["'autoclave - APOS' (unit, GLO, None)", 0.06444728984505856], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761655552127395e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.6005569312896024e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.85770727064411e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12067251564993402], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.21430532381991899], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00015586387491893752]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001252317689335758], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0011490131076587345], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532682441016665e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592971979341141], ["'cabinet washer - APOS' (unit, GLO, None)", 0.04429418923593623], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230212646047938e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002647637396751779], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842438375345795], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.757861654286242e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016450656039501102], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002921512947918157], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156219115761823e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001252317689335758], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0011490131076587345], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532682441016665e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592971979341141], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230212646047938e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002647637396751779], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842438375345795], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.757861654286242e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437254034295], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559365822667], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156219115761823e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919563035210052], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968338944144757e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.395728714302574e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948881430736], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865675077435544], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766341220508332e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.05728647986227427], ["'cabinet washer - APOS' (unit, GLO, None)", 0.022147094617968113], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726521219062e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820374865874862], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283604544866723], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.78930827143121e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.225328019750551e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00014607564739590784], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251321359721515e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948881430736], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865675077435544], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766341220508332e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.05728647986227427], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726521219062e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820374865874862], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283604544866723], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.78930827143121e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437254034295], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559365822667], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251321359721515e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919563035210052], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.395728714302574e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968338944144757e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989509842231263], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892081343496842], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001451920908391264], ["'market for corrugated board box' (kilogram, RER, None)", 3.0438585047632606e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0033185262545594573], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993528993836375e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011041083365896573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.45275185394169e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019478827225348364], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010148299212905488], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3580586735760226e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.531672157380054e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0005254173137467706], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.821610037510249e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.214069734850964e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989509842231263], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892081343496842], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001451920908391264], ["'market for corrugated board box' (kilogram, RER, None)", 3.0438585047632606e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0033185262545594573], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993528993836375e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.142713156567309e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.547740025006833e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001298588481689891], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0006765532808603659], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3580586735760226e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003695607025536218], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763386357554395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00043788090000961607], ["'market for corrugated board box' (kilogram, RER, None)", 9.179890726995921e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789381839186], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.8075722366931503e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031412659717057856], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002850829866454493], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005570465254508193], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00029021638471241626], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.86377256457349e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010651074544590427], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0014948492588288402], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0573109220179827e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7679466006195696e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003695607025536218], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763386357554395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00043788090000961607], ["'market for corrugated board box' (kilogram, RER, None)", 9.179890726995921e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789381839186], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.8075722366931503e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011786310670797132], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3715406146786551e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.003713643503005462], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0019347758980827752], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.86377256457349e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016993363827104572], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0002022834715659335], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988215353359e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052509118915], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0028827838847431055], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.855644992923259e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946384289954263], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008374705223915146], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020343676151e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.062616917550292e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.6375792895927245e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252924467954301e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016993363827104572], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0002022834715659335], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988215353359e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052509118915], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.855644992923259e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946384289954263], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008374705223915146], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020343676151e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190214613946], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.09634397933887e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252924467954301e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000325356514933272], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312723405448e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453271902443e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001015401075339157], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012087003882290427], ["'market for polysulfone' (kilogram, GLO, None)", 3.0849941076766796e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701672745943], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0014413919423715527], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998470653841e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918523173642042], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004120888913376], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985101718380754e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.531308458775146e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3187896447963623e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412414673328332e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001015401075339157], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012087003882290427], ["'market for polysulfone' (kilogram, GLO, None)", 3.0849941076766796e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701672745943], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998470653841e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918523173642042], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004120888913376], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985101718380754e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190214613946], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.09634397933887e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412414673328332e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000325356514933272], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453271902443e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312723405448e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942586768110513e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365172256266574e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025179171897751e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.50117941502373e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134635624258e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5753967821537917e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6511987528939364e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5110475172036444e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.2758425685598686e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6585821302060022e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6158711323385202e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0466989872236532e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.1804800780668328e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.406065944993705e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.983852967612992e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942586768110513e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365172256266574e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025179171897751e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.50117941502373e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134635624258e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5753967821537917e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3225686450753278e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6040439633291367e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.183895045706579e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1057214201373348e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6158711323385202e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.526796157159488e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078541965867391e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139429002668346e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543239504267038e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019534363877e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.767069662426597e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.697776733585565e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.557127340521247e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.368103631852645e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.7431367510811965e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.59726716561954e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.1567111673629544e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 6.203619377035214e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.256389210922599e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.644201400814427e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.526796157159488e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078541965867391e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139429002668346e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543239504267038e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019534363877e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.767069662426597e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.7628009338762844e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.837592807281733e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.245402421235097e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.162091167387464e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.59726716561954e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.2538924888651997e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066373275168503e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071291137944e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269271248516e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 2.5831384521828935e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.56395892329651e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.8816418030923455e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404785489907034e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349920153801e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.514032089796922e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.3107143226095934e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295265216917e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.2538924888651997e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066373275168503e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071291137944e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269271248516e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.56395892329651e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.8816418030923455e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404785489907034e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349920153801e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784597720934e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563606197556e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295265216917e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149196276772e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.3347517718376623e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.395429282044472e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763878051164e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417411918379943e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.584535645568972e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828461808323445e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 1.2915692260914468e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.5196772708921167e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.124333669132429e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217150696363918e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6061749600769005e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.257016044898461e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1553571613047967e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236681280875755e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763878051164e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417411918379943e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.584535645568972e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828461808323445e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.5196772708921167e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.124333669132429e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217150696363918e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6061749600769005e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784597720934e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563606197556e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236681280875755e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149196276772e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.395429282044472e-09], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.3347517718376623e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998807617477128], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083893330725647], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.5638468436776796e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.2210724714549987e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000262663700152142], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752239512693057e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001444898647485556], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.365158682038709e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3682580662124074e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.406551533238742e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1879346256817054e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.4474754826762314e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 4.890836513850106e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.955406881676066e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.915349737581965e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998807617477128], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083893330725647], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.5638468436776796e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.2210724714549987e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000262663700152142], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752239512693057e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.94356649172131e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.636937921117377e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00015788387108082717], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001604367688825828], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1879346256817054e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004836280477085042], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00031534457081782823], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.73223635604441e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714345547080989e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000393995550228213], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163373823098605e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004110838405522286], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3164764012481659e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.772635292117309e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.882145184608821e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069898513242193e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.381275115689255e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0001391477430701016], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0976623503934363e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.682958657734587e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004836280477085042], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00031534457081782823], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.73223635604441e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714345547080989e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000393995550228213], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163373823098605e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1219724384897247e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3984415669289576e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004515090194744872], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00045880967897392143], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069898513242193e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599599925572495], ["'alubox production - APOS' (kilogram, GLO, None)", 2.5971748873881234e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.86879045811745e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000525327400304284], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002606433403487751], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.3138137750690206e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.708409129253589e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150624744228026e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984144865070285e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.155187482503814e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.254713573419386e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983401627338817e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599599925572495], ["'alubox production - APOS' (kilogram, GLO, None)", 2.5971748873881234e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.86879045811745e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000525327400304284], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.3138137750690206e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.708409129253589e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150624744228026e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984144865070285e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1055653501863617e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.157092542414065e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983401627338817e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.000958847075855e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607916272456e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658631060118e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012906365811070163], ["'alubox production - APOS' (kilogram, GLO, None)", 1.551884724136511e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.934395229058725e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021826686952264], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00013032167017438756], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405214491206e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.020822295463616e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.46775453044448e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492072432535143e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.077593741251907e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.127356786709693e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965362044775469e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012906365811070163], ["'alubox production - APOS' (kilogram, GLO, None)", 1.551884724136511e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.934395229058725e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021826686952264], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405214491206e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.020822295463616e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.46775453044448e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492072432535143e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1055653501863617e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.157092542414065e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965362044775469e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.000958847075855e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658631060118e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607916272456e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637380715993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202377745017053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.042777993528649e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205842538382305e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004691770713784023], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002853741572603e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002978941773608594], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.27856228205399e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.7846743923152567e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.316375734740514e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6356301135433486e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.983682727034653e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.11101584427478e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.070526839768801e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.194737828808101e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637380715993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202377745017053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.042777993528649e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205842538382305e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004691770713784023], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002853741572603e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.7964918858720674e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.380351226512534e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0003856449594876838], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0004210917156493676], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6356301135433486e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009970940153586345], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894197611962598], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00015208377767640503], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747779079547974e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0007037656070676035], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.413559065528641e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008475299130548394], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1951219136125102e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016542745278371935], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00018063280277452496], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343623704163651e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.998408042106684e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0002023134085272543], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5292064762542512e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1934324527031499e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009970940153586345], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894197611962598], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00015208377767640503], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747779079547974e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0007037656070676035], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.413559065528641e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.956216351354332e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0194709841695009e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011028496852247955], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012042186851634997], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343623704163651e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002858182878467651], ["'alubox production - APOS' (kilogram, GLO, None)", 3.6650867755068264e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830554380233828e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383541427568046], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0004757408038342574], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.053026901692042e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.249999224895504e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112526398498955], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9033009598144142e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5034575799791983e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6416486618813258e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1385414023096278e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002858182878467651], ["'alubox production - APOS' (kilogram, GLO, None)", 3.6650867755068264e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830554380233828e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383541427568046], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.053026901692042e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.249999224895504e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112526398498955], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9033009598144142e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.143024797989619e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661631095078758e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1385414023096278e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0008455988117250182], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669409624466e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.048111209356892e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001707844307836793], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899919821201474e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277190116914e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255694285045364], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002378704019171287], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690679480823e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.469095407158536e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237573711269945e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.516504799072071e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.517287899895992e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.208243309406629e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803103712811083e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001707844307836793], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899919821201474e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277190116914e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255694285045364], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690679480823e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.469095407158536e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237573711269945e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.516504799072071e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.143024797989619e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661631095078758e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803103712811083e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0008455988117250182], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.048111209356892e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669409624466e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528483756337584], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0001764830664614504], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431825772331e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533511475008978e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004810567092463743], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621156399785e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003189921119288695], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.587747705150784e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.915239697325547e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.543745257358176e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489376501098286e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.0932613914120857e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.471660018644279e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.097637093366656e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.218714886796838e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528483756337584], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0001764830664614504], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431825772331e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533511475008978e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004810567092463743], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621156399785e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8124765911978917e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3984247289111036e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00039434931315503646], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00043624968382387837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489376501098286e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677117913774918], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021067524677884], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001671527024705618], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598698348198e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0007215850638695615], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.453901619216875e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009075550226708681], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2883683091654792e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016916129921394803], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00018713501161400926], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665991625125548e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 9.328883372423448e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0002125739892628372], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5373825843165498e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2002540945534663e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677117913774918], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021067524677884], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001671527024705618], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598698348198e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0007215850638695615], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.453901619216875e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.001693963689776e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0249217228776999e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011277419947596536], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012475667440933953], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665991625125548e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025579636037354], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860467401606795e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.298037744657103e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621134184927486], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0004877279161788288], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808231940998e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.3025156644701306e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010077031353], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9162916538300373e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5373919700912491e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7007428146412575e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.174025023455267e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025579636037354], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860467401606795e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.298037744657103e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621134184927486], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808231940998e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.3025156644701306e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010077031353], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9162916538300373e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107494418836e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.865431884231503e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.174025023455267e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183865498247], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.33802461531902e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101614772452e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343596638451058], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3067373774761347e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490188723285515e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414089456618324], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002438639580894144], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.0314806237206333e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895839842767e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.391427419531676e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458269150186e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.686959850456246e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.503714073206287e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.015128285892205e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343596638451058], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3067373774761347e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490188723285515e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414089456618324], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.0314806237206333e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895839842767e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.391427419531676e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458269150186e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107494418836e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.865431884231503e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.015128285892205e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183865498247], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101614772452e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.33802461531902e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763101848757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398055392681427], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003511866162381022], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510901408009e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366458251413], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204157856354503e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010562748636571443], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.991378449005926e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005190758717104511], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001165342605128416], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830856063550578e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.9340731223434834e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00042452294452765616], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.666954837133727e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5435373928608895e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763101848757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398055392681427], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003511866162381022], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510901408009e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366458251413], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204157856354503e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010290249285739262], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.111303224755818e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0034605058114030073], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007768950700856106], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830856063550578e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355016148921814], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503083551616], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342179930349], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001273455668448995], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549687377119], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726825286559623e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0030051763726583543], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.021617361867349e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014844292597111979], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00033325930849735914], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659618662422795e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.832918822241738e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0012077976731631906], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0273240101505455e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.391472582505629e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355016148921814], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503083551616], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342179930349], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001273455668448995], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549687377119], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726825286559623e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002927648388337086], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.351549340100364e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00989619506474132], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0022217287233157277], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659618662422795e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367618935191444], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762028201936969], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918687662824e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732916502825], ["'cabinet washer - APOS' (unit, GLO, None)", 0.004000202595970036], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6740040818574333e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925775789981e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002991100551553708], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137908606722e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.349096770155523e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.0287671422399235e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.704975212670966e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367618935191444], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762028201936969], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918687662824e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732916502825], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6740040818574333e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925775789981e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002991100551553708], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137908606722e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00046149876366272704], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010445451959621542], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.704975212670966e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.009536292855734216], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.24396009892068e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6595856140286506e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306267829917], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004040501208341634], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459343831412e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488611001883], ["'cabinet washer - APOS' (unit, GLO, None)", 0.002000101297985018], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923192867693e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.0984739958080728e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663396112734], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068954303361e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.745483850777615e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5143835711199618e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2138264426804096e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306267829917], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004040501208341634], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459343831412e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488611001883], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923192867693e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.0984739958080728e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663396112734], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068954303361e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00046149876366272704], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010445451959621542], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2138264426804096e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.009536292855734216], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6595856140286506e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.24396009892068e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.54391201920105e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.4686035320316213e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.11426690455334e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.151038166818956e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.4296140104193693e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645371223555297e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.562325216320893e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7021266912823866e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.772837077669038e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7364194041230245e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.173780799083517e-12], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.324783001153059e-12], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.9564142832627675e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.60089842300115e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.914807126683145e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.54391201920105e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.4686035320316213e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.11426690455334e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.151038166818956e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.4296140104193693e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645371223555297e-13], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.27653808445543e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.400598948667434e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.1818913851126918e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1576129360820164e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.173780799083517e-12]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.861789053350158e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350893949119e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.7487471060084683e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487257962252562e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.144421015629054e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316288973741444e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5825206953476344e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.133397853846938e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.069877785151206e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.965732200408718e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409911570887195e-11], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.510648790758599e-11], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 5.566136411536324e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8955089895514735e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.2518183656197115e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.861789053350158e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350893949119e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.7487471060084683e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487257962252562e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.144421015629054e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316288973741444e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5012122437464744e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.930339326367649e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.379918523434137e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.310488133605812e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409911570887195e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294848395597e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.17912453687448e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.0737678749584304e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.8592280208387385e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 1.4521274463601994e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892044155221e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.610817722313815e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885606849526e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.179983481271438e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.607667021035029e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.513016183576418e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465559464986658e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294848395597e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.17912453687448e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.0737678749584304e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.8592280208387385e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892044155221e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.610817722313815e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885606849526e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.179983481271438e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898483620658e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.556425156662235e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465559464986658e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.88104968354694e-10], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591963758275e-12], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.55845506406173e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.898186995159517e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.484783954632994e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839374792152e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152013892492e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 7.260637231800997e-10], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.9860448019730085e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564703136142e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635007260032e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.089991740635719e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3038335105175145e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.256508091788209e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423800899694036e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.898186995159517e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.484783954632994e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839374792152e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152013892492e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.9860448019730085e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564703136142e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635007260032e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.089991740635719e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898483620658e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.556425156662235e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423800899694036e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.88104968354694e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.55845506406173e-11], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591963758275e-12]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.059413287758062e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.428874708928391e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.329791920438041e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.801341707016838e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.98617109935547e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086372997362625e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.600501294594353e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.633163413496252e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.039518256829811e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.911832341998681e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453796177901133e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.122996482347554e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.199945711295412e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6196188195100643e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.986228392174938e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.059413287758062e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.428874708928391e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.329791920438041e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.801341707016838e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.98617109935547e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086372997362625e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.990818928116625e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.4130792130067093e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.0263455045532075e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.6078882279991204e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453796177901133e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.70424625531167e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.065249171880774e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058102352672066e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.7496109906896142e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256649033207e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660969635808499e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.39860931701492e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.6036524052955587e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.7271536019302965e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1186877880504747e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671363774779763e-08], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.5450306538542725e-08], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 3.4139300518545523e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0916310504371459e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.496030073511794e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.70424625531167e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.065249171880774e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058102352672066e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.7496109906896142e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256649033207e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660969635808499e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.664020049007862e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.27754033624764e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.1514357346201977e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.457918587003164e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671363774779763e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256099096494216e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796112387718626e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869956569303191e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.197234219871094e-06], ["'cabinet washer - APOS' (unit, GLO, None)", 6.010847784750187e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861734008381e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920870071728919e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4191266545386049e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388567549958e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5696924125437756e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0166992274423407e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3947599694201827e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256099096494216e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796112387718626e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869956569303191e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.197234219871094e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861734008381e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920870071728919e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4191266545386049e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388567549958e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600785836927e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338532773231e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3947599694201827e-09], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.2908835450760007e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.226461913764064e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6036173190242036e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871450483691214e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.865811457628704e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349782846515955e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561465807294e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 3.0054238923750936e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274633105299e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016612455146e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679160182395e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.555194283774979e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.848462062718878e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.083496137211703e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.334081402041324e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871450483691214e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.865811457628704e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349782846515955e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561465807294e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274633105299e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016612455146e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679160182395e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.555194283774979e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600785836927e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338532773231e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.334081402041324e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.2908835450760007e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6036173190242036e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.226461913764064e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.048136601546078225], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851064611859148], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179963827965], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002488913854244575], ["'autoclave - APOS' (unit, GLO, None)", 0.011588419428421516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251220468934611e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040916111314166496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024680058102105], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014113698869817992], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0015092673689294902], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894025081994843e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010414944532368637], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003285791994461672], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0041354584102597e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7044174029485665e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.048136601546078225], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851064611859148], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179963827965], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002488913854244575], ["'autoclave - APOS' (unit, GLO, None)", 0.011588419428421516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251220468934611e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011362782686323777], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3360903056068398e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.009409132579878661], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010061782459529935], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894025081994843e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1369520213001099], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199880354359927], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303082120593002], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506248130495301], ["'autoclave - APOS' (unit, GLO, None)", 0.017382629142632274], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868760149932323e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1164092181050934], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007443191975252621], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.004036170569068057], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004316133276974324], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459057277365323], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0003141014954069965], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009348309618045884], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.0442179267342044e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.849187540783245e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1369520213001099], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199880354359927], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303082120593002], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506248130495301], ["'autoclave - APOS' (unit, GLO, None)", 0.017382629142632274], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868760149932323e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0003232791693855497], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.029478617822803e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.026907803793787047], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.028774221846495494], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459057277365323]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004532630724759403], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0012805993219401543], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315766808397], ["'autoclave - APOS' (unit, GLO, None)", 0.023176838856843032], ["'cabinet washer - APOS' (unit, GLO, None)", 0.011721162498707225], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716114692336], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301332916542], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335945815537454], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422288080495667e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.6682008542366506e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.922639913577013e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472109127174722e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004532630724759403], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0012805993219401543], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315766808397], ["'autoclave - APOS' (unit, GLO, None)", 0.023176838856843032], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716114692336], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301332916542], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335945815537454], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422288080495667e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817442711408], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001352819310561477], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472109127174722e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.01046952867094671], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287505400718e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952756374980062e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373785709848], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651939555973035], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741578834041984], ["'autoclave - APOS' (unit, GLO, None)", 0.015451225904562021], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0058605812493536125], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198080119357], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002122001993828463], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.001215129709410446], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.7111440402478337e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8341004271183253e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.9613199567885065e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.477154431752745e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373785709848], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651939555973035], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741578834041984], ["'autoclave - APOS' (unit, GLO, None)", 0.015451225904562021], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198080119357], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002122001993828463], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.001215129709410446], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.7111440402478337e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817442711408], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001352819310561477], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.477154431752745e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.01046952867094671], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952756374980062e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287505400718e-05]]</t>
   </si>
 </sst>
 </file>

--- a/results/sterilization_APOS/data_sterilization_APOS_recipe.xlsx
+++ b/results/sterilization_APOS/data_sterilization_APOS_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682459148671], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169124340773333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.043945022951503e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278811031533383e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554615486601501], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.11940186309278e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000380603009027637], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.108087852528014e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.958633569451112e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.521149146316139e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.191064259521485e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.878980481865356e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00011844523338526872], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1102744972331485e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7531191519336432e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682459148671], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169124340773333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.043945022951503e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278811031533383e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554615486601501], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.11940186309278e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1687461012890955e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.406849664822099e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00046390890463007416], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00036807660975440924], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.191064259521485e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739321926028611], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825791103692], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227770334893864], ["'market for corrugated board box' (kilogram, RER, None)", 2.4967842789011543e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331923229902252], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121197348348e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001082842363712432], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7468835824195326e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019899979638937683], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00015789127922679388], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7614013810215203e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.7730258236934533e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00033698503019470816], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.364319783366451e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.9877474463464205e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739321926028611], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825791103692], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227770334893864], ["'market for corrugated board box' (kilogram, RER, None)", 2.4967842789011543e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331923229902252], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121197348348e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3251649642309474e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.242879855577634e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0013266653092625122], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0010526085281786259], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7614013810215203e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365752726549], ["'alubox production - APOS' (kilogram, GLO, None)", 6.61205506754601e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940019618573925e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109230973203002], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0007504178226866037], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710539049703e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610610028552e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975124869198], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567281444578e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8085737721361473e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4349664251677814e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806414207726e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365752726549], ["'alubox production - APOS' (kilogram, GLO, None)", 6.61205506754601e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940019618573925e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109230973203002], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710539049703e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610610028552e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975124869198], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567281444578e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765681289476e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836326411976e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806414207726e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418851469926], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795134904408e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.100945460095104e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029257156506249407], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950888060831857e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.9700098092869625e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072820648802001], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00037520891134330185], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918193862438e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360199357721785e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471589616907166], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283640722289e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.042868860680736e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.174832125838907e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584911262920866e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029257156506249407], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950888060831857e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.9700098092869625e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072820648802001], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918193862438e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360199357721785e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471589616907166], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283640722289e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765681289476e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836326411976e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584911262920866e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418851469926], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.100945460095104e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795134904408e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1689911532139847], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.054241524393867466], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788073733604512], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605164550949507], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641149440566], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868353414746495e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.143642480231887], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00276163916048031], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.028709446394469065], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01731494410311957], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001407379984730259], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0016698446283675188], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.043751041590199845], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0032959625177096143], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027168737652736714]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1689911532139847], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.054241524393867466], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788073733604512], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605164550949507], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641149440566], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868353414746495e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.1811249176849114], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.021973083451397427], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.19139630929646045], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.1154329606874638], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001407379984730259]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.48079173167922407], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432095672621446], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0657100623099204], ["'market for corrugated board box' (kilogram, RER, None)", 0.00785684546970093], ["'autoclave - APOS' (unit, GLO, None)", 0.3299946172416085], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698208715612656], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4086729719273405], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008328752854952649], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08210195191240283], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.049516479300438725], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004004095168150502], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.005036039253377497], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.12447479438338548], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009940204217127517], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.07729697191341993]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.48079173167922407], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432095672621446], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0657100623099204], ["'market for corrugated board box' (kilogram, RER, None)", 0.00785684546970093], ["'autoclave - APOS' (unit, GLO, None)", 0.3299946172416085], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698208715612656], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.5153131460894662], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06626802811418345], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.5473463460826855], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.33010986200292486], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004004095168150502]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393226132636], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01845135552768377], ["'market for polysulfone' (kilogram, GLO, None)", 0.0026035160905398484], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928229888113], ["'cabinet washer - APOS' (unit, GLO, None)", 0.2242201874629483], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778812867996], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942488347111933], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.044790718842170806], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007493636036368886], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0007461687879288787], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0004500215948379445], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00044073801001598677]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393226132636], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01845135552768377], ["'market for polysulfone' (kilogram, GLO, None)", 0.0026035160905398484], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928229888113], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778812867996], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942488347111933], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.044790718842170806], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007493636036368886], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.02552492754639061], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520106792348633], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00044073801001598677], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245826665506], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277267657743], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391827131857]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742109241865], ["'alubox production - APOS' (kilogram, GLO, None)", 0.011025201622760444], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017580452699242], ["'autoclave - APOS' (unit, GLO, None)", 0.29332854865920754], ["'cabinet washer - APOS' (unit, GLO, None)", 0.11211009373147415], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000989194392564958], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002326922729740524], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763708786727788], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818018184443], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00037308439396443934], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00022501079741897226], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00026335330329088137]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742109241865], ["'alubox production - APOS' (kilogram, GLO, None)", 0.011025201622760444], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017580452699242], ["'autoclave - APOS' (unit, GLO, None)", 0.29332854865920754], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000989194392564958], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002326922729740524], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763708786727788], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818018184443], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.02552492754639061], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520106792348633], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00026335330329088137], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245826665506], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391827131857], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277267657743]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0038893173217078845], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864249171935], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233226506936], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299713156951], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409862648861], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499576977025344e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003305919723451702], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00038064710380856], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0017801468868960577], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009076479046767767], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328905296777156], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0003753471888385468], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009077476158917418], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00017305319408709115], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0014264324648783433]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0038893173217078845], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864249171935], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233226506936], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299713156951], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409862648861], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499576977025344e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009509549765855621], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0011536879605806077], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.011867645912640385], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0060509860311785115], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328905296777156]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381675844966], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095303920179307], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607781990384], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004248249119075004], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114793973292], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633644857824036e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009405574424468223], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011479833056913973], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005090782040754032], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.002595649654792526], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766744650491823], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0011319994354707034], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.025826058931004484], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0005219064477854733], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.004058300815569371]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381675844966], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095303920179307], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607781990384], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004248249119075004], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114793973292], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633644857824036e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027055338770462473], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0034793763185698226], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.033938546938360216], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017304331031950174], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766744650491823]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540663711540981], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763594352357315], ["'market for polysulfone' (kilogram, GLO, None)", 9.050919211391432e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819725297722], ["'cabinet washer - APOS' (unit, GLO, None)", 0.04698624392504162], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.096811988459967e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.003880676110290316], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867359852148], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7932612060208704e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.6266654768602436e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.3590093920105162e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.4872694472910934e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540663711540981], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763594352357315], ["'market for polysulfone' (kilogram, GLO, None)", 9.050919211391432e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819725297722], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.096811988459967e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.003880676110290316], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867359852148], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7932612060208704e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888364767779], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135626847271821], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.4872694472910934e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643511794676], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.667830929939876e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816580446135]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713173720260293], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614245061064801], ["'market for polysulfone' (kilogram, GLO, None)", 4.525459605695716e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213150198481], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02349312196252081], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447959886499638e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812646820826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0028537144865551462], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.8966306030104352e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3133327384301218e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1795046960052581e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812691550190827e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713173720260293], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614245061064801], ["'market for polysulfone' (kilogram, GLO, None)", 4.525459605695716e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213150198481], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447959886499638e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812646820826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0028537144865551462], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.8966306030104352e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888364767779], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135626847271821], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812691550190827e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643511794676], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816580446135], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.667830929939876e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093485909406], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161632658257488], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.000786600213596519], ["'market for corrugated board box' (kilogram, RER, None)", 0.000184843082873479], ["'autoclave - APOS' (unit, GLO, None)", 0.057837414179936514], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359446704750407e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004409029463022995], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004990237540764418], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023212738151782717], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0011868970786272726], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00018998561266646204], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004849103528648191], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011771130940156868], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00025058124208359665], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.002065455646647646]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093485909406], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161632658257488], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.000786600213596519], ["'market for corrugated board box' (kilogram, RER, None)", 0.000184843082873479], ["'autoclave - APOS' (unit, GLO, None)", 0.057837414179936514], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359446704750407e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.013769704310984307], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0016705416138906443], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.015475158767855145], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.007912647190848483], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00018998561266646204]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646255685914], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.011840137985464965], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0023722863104095535], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632657083915], ["'autoclave - APOS' (unit, GLO, None)", 0.08675612126990477], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.029039483403203e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012543999317333028], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015049922437116985], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006638271895970874], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0033942335750890462], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405224473486416], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.001462428018697613], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0334896964776294], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0007557211909749846], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005876366769335555]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646255685914], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.011840137985464965], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0023722863104095535], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632657083915], ["'autoclave - APOS' (unit, GLO, None)", 0.08675612126990477], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.029039483403203e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.039175778462237035], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005038141273166564], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.044255145973139155], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.022628223833926975], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405224473486416]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985808916159022], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002297626375927171], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759898793410398], ["'autoclave - APOS' (unit, GLO, None)", 0.11567482835987303], ["'cabinet washer - APOS' (unit, GLO, None)", 0.05926074007393353], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.273796420063401e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173848615622], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295102141253], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402372668352e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.0330737323318794e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.084787990370181e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949628513036806e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985808916159022], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002297626375927171], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759898793410398], ["'autoclave - APOS' (unit, GLO, None)", 0.11567482835987303], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.273796420063401e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173848615622], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295102141253], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402372668352e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927020137107], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0010638653698283138], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949628513036806e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024342224114], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017221148958e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348017084064]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766884485507948], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728961002546674], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949396705199e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655223991534], ["'cabinet washer - APOS' (unit, GLO, None)", 0.029630370036966766], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297049763643e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002965037830748693], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035793690703022477], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.525701186334176e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0165368661659397e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5423939951850906e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555069648304269e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766884485507948], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728961002546674], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949396705199e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655223991534], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297049763643e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002965037830748693], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035793690703022477], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.525701186334176e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927020137107], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0010638653698283138], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555069648304269e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024342224114], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348017084064], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017221148958e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023431191253], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111786414071003], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566966787039836], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345663806941362], ["'autoclave - APOS' (unit, GLO, None)", 2.3473687664019125], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206382889402073], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30416419916512566], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025550711264960925], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08001861943886018], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0872954723721113], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775465499971607], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.01026085337599663], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.19042231181149782], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009639104410298922], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0794592953457299]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023431191253], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111786414071003], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566966787039836], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345663806941362], ["'autoclave - APOS' (unit, GLO, None)", 2.3473687664019125], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206382889402073], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.5297286356381993], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06426069606865949], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.5334574629257346], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.5819698158140753], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775465499971607]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.018080666633892], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428987120623017], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1344083098095916], ["'market for corrugated board box' (kilogram, RER, None)", 0.034217081316352045], ["'autoclave - APOS' (unit, GLO, None)", 3.521053149602869], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919385318610808], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8653685666388082], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07705769907937667], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.2288335607381069], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.24964356945032753], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01358653564891402], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.030945430189626606], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.5417648871256698], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.029070314299316734], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.22606729098362588]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.018080666633892], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428987120623017], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1344083098095916], ["'market for corrugated board box' (kilogram, RER, None)", 0.034217081316352045], ["'autoclave - APOS' (unit, GLO, None)", 3.521053149602869], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919385318610808], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5071152732241726], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.19380209532877826], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5255570715873792], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6642904630021838], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01358653564891402]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275720493938524], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271287994929722], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110339210473261], ["'autoclave - APOS' (unit, GLO, None)", 4.694737532803825], ["'cabinet washer - APOS' (unit, GLO, None)", 2.3912573888211086], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861877925814], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910214893276], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209306004514138], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00039972035656359224], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020797125607388677], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0022688405729217134], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495494595768947]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275720493938524], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271287994929722], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110339210473261], ["'autoclave - APOS' (unit, GLO, None)", 4.694737532803825], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861877925814], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910214893276], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209306004514138], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00039972035656359224], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114276727859842], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657392105536], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495494595768947], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377537401342], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950254707999148], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492151496064]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335086753234027], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04344798195502619], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055169605236631], ["'autoclave - APOS' (unit, GLO, None)", 3.1298250218692165], ["'cabinet washer - APOS' (unit, GLO, None)", 1.1956286944105543], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845207899386755], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.203362144080494], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502818226722045], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986017828179612], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010398562803694339], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0011344202864608567], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008935999003923618]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335086753234027], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04344798195502619], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055169605236631], ["'autoclave - APOS' (unit, GLO, None)", 3.1298250218692165], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845207899386755], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.203362144080494], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502818226722045], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986017828179612], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114276727859842], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657392105536], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008935999003923618], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377537401342], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492151496064], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950254707999148]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803069690425], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988014962293897], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160431886166], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403666475850858], ["'autoclave - APOS' (unit, GLO, None)", 0.056365655575281205], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764245998777105e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10336682609236862], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007781138972252729], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0075590907942719035], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004941384260053419], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00034926329739843877], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00042420329533623713], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011895099694857369], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.459679792198489e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.64113276641598e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803069690425], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988014962293897], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160431886166], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403666475850858], ["'autoclave - APOS' (unit, GLO, None)", 0.056365655575281205], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764245998777105e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0003094088510943987], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6397865281323254e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.05039393862847936], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.03294256173368946], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00034926329739843877]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834112785163], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.039796887639202354], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461435403508925], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328517939016325], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848336292181], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.0558837151945536e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29408589958673886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023466926583798095], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.021617139542348045], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.014131143015608453], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936786771864148], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0012793432457329167], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.033842396314946316], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6465700627047815e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00013204349560789127]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834112785163], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.039796887639202354], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461435403508925], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328517939016325], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848336292181], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.0558837151945536e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0008802899707192751], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010977133751365212], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.14411426361565363], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.09420762010405635], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936786771864148]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.022981547934342282], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016176608815725], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730290783123349], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131115056241], ["'cabinet washer - APOS' (unit, GLO, None)", 0.057753131829730256], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426787437775], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836719010859708], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591415750451], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958307840527835e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019646347541180166], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00012842834560555786], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937601240400819]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.022981547934342282], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016176608815725], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730290783123349], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131115056241], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426787437775], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836719010859708], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591415750451], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958307840527835e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00672061878830063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004429168870619836], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937601240400819], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611850905682], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.38345585276859e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.435543806282897e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.01373211844512457], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002997305992212409], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145391561674], ["'autoclave - APOS' (unit, GLO, None)", 0.07515420743370828], ["'cabinet washer - APOS' (unit, GLO, None)", 0.028876565914865128], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00031121808575381354], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00064752430706064], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387377429876], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479153920263917e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.823173770590083e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.421417280277893e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535523034724224e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.01373211844512457], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002997305992212409], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145391561674], ["'autoclave - APOS' (unit, GLO, None)", 0.07515420743370828], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00031121808575381354], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00064752430706064], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387377429876], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479153920263917e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00672061878830063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004429168870619836], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535523034724224e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611850905682], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.435543806282897e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.38345585276859e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820791632588195e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.030853126288288e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.77166971516853e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.51670027073785e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132016531516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558940511420393e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3647672887699965e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.045483600032756e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3859087102377868e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.345226343687765e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1357420316434216e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.3258764064590667e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.5737747912135118e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.89787914126181e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.571123260330493e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820791632588195e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.030853126288288e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.77166971516853e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.51670027073785e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132016531516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558940511420393e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7140821735536618e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9319194275078735e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00015906058068251912], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.5634842291251765e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1357420316434216e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.915211140539177e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920162115974e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406622597896916e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175418860832e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198024797275], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422537617189189e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.7279294694583e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8232410487902056e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.823111790586948e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5286031997971576e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266062122138e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.998674795620189e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.322570532748302e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.73963532835126e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.315026740658584e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.915211140539177e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920162115974e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406622597896916e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175418860832e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198024797275], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422537617189189e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.876684493772389e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.826423552234174e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00045487411937246316], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010190687998647717], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266062122138e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.40108885699913e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.287397025702591e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334470227158e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426403306303], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000213816580036565], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799509082545e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.4675097248927624e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677619901018963e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535758050358366e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.201062138105387e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.389243459078091e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567131005772736e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.40108885699913e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.287397025702591e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334470227158e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426403306303], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799509082545e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.4675097248927624e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677619901018963e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535758050358366e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581435514657e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.79114937878217e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567131005772736e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504573312916e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523611480560776e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.885068285533874e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.0322458330543277e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692557739520697e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167235113579e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002896284268870869], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0001069082900182825], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066373329735e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901677903065e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770288909569849e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267879025179183e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.1005310690526937e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.946217295390456e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252356788129122e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.0322458330543277e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692557739520697e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167235113579e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002896284268870869], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066373329735e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901677903065e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770288909569849e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267879025179183e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581435514657e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.79114937878217e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252356788129122e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504573312916e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.885068285533874e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523611480560776e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509710857888e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.7124696920168585e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423555609654e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026020039319343e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491776367517], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299126024657632e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.394033254229205e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.517197658370845e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.0662757576766134e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.798750841852096e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456705863917e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.457370942028246e-07], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 8.806668634530969e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.163672425530102e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.2765353010087e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509710857888e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.7124696920168585e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423555609654e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026020039319343e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491776367517], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299126024657632e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8510235340058003e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.442448283686735e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.3775171717844089e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.865833894568064e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456705863917e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013168473144977e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167292780358e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730165798113446e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.833244137970883e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00019335737664551275], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010847532259515e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.811193202173231e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6639167204053658e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.909040201040294e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6583000460119252e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989503282e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.042699151870366e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.5055592453172614e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.557298001549712e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2167044095827568e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013168473144977e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167292780358e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730165798113446e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.833244137970883e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00019335737664551275], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010847532259515e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.111362730551712e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0381986676998081e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.939360134026862e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.10553336400795e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989503282e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.746685975193056e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.729637388756698e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009009882933485e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.00025780983552735033], ["'cabinet washer - APOS' (unit, GLO, None)", 9.540578545935444e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.6404613543635007e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.6860703104492404e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.3722314728022804e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.775843923576373e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.370324653593506e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.507116099466933e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8245516087325258e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.746685975193056e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.729637388756698e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009009882933485e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.00025780983552735033], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.6404613543635007e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.6860703104492404e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.3722314728022804e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.775843923576373e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796246255617e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662307876095e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8245516087325258e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817116943e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060293713778e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845019953421e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412217858724054e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310347780635811e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004504941466743e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.0001718732236849002], ["'cabinet washer - APOS' (unit, GLO, None)", 4.770289272967722e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805606489119e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074742256720645e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467317207911e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219617881863e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.685162326796753e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.535580497334664e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486841861043e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412217858724054e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310347780635811e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004504941466743e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.0001718732236849002], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805606489119e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074742256720645e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467317207911e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219617881863e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796246255617e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662307876095e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486841861043e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817116943e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845019953421e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060293713778e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163220728734657], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.002728411878069912], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057105343307861], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781360193158718], ["'autoclave - APOS' (unit, GLO, None)", 0.02105817607719986], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557089351287983e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005238737619424459], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048528132440573915], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002378476986305546], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007868475005120573], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096559172142104e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00013601855978445017], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0027811737556826597], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0728235075012114e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.160048080446133e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163220728734657], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.002728411878069912], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057105343307861], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781360193158718], ["'autoclave - APOS' (unit, GLO, None)", 0.02105817607719986], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557089351287983e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0006106698720297422], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.152156716674743e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.015856513242036973], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.005245650003413716], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096559172142104e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534797002878882], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762523934790453], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002731507905347147], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759457835173839], ["'autoclave - APOS' (unit, GLO, None)", 0.03158726411579979], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727729792309635e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01490457745244705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014635468217348664], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00680185888892777], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0022501902252567833], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035281026845345], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004102146958019877], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.007912635192223905], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.2354994015246317e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002606098186267773]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534797002878882], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762523934790453], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002731507905347147], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759457835173839], ["'autoclave - APOS' (unit, GLO, None)", 0.03158726411579979], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727729792309635e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.001737398790845182], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00021569996010164215], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04534572592618513], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015001268168378556], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035281026845345]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.021747164173507888], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690718708186208], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911039716781188], ["'autoclave - APOS' (unit, GLO, None)", 0.04211635215439972], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02119684914817869], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884882741101e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548138468239966], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009156975908706433], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165237105617e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.181746821597541e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.0450448177357374e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355351193164326e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.021747164173507888], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690718708186208], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911039716781188], ["'autoclave - APOS' (unit, GLO, None)", 0.04211635215439972], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884882741101e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548138468239966], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009156975908706433], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165237105617e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146507637953807], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052842425890096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355351193164326e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002103202973722244], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977040392237026e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808020583088]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994539581466475], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0009375643816749348], ["'market for polysulfone' (kilogram, GLO, None)", 5.955519858390594e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077568102933145], ["'cabinet washer - APOS' (unit, GLO, None)", 0.010598424574089344], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108198112630542e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00033151680997942166], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0054715495290725575], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826185528085e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0908734107987706e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0225224088678687e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150532382215021e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994539581466475], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0009375643816749348], ["'market for polysulfone' (kilogram, GLO, None)", 5.955519858390594e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077568102933145], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108198112630542e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00033151680997942166], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0054715495290725575], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826185528085e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146507637953807], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052842425890096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150532382215021e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002103202973722244], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808020583088], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977040392237026e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178428349473], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.056172920967090624], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013688103474466057], ["'market for corrugated board box' (kilogram, RER, None)", 0.003203654635496696], ["'autoclave - APOS' (unit, GLO, None)", 0.655230310892542], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318617386557e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06993101664097053], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007174093258099431], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.042449114114902604], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.02181752419710749], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.003700900574662578], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.006715401583031114], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.16788785545863813], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.002092578363726279], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.017248762248893202]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178428349473], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.056172920967090624], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013688103474466057], ["'market for corrugated board box' (kilogram, RER, None)", 0.003203654635496696], ["'autoclave - APOS' (unit, GLO, None)", 0.655230310892542], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318617386557e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.11499174832595467], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.013950522424841861], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.28299409409935067], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.14545016131404995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.003700900574662578]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.2340690200741681], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981591599087755], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.041281581070866075], ["'market for corrugated board box' (kilogram, RER, None)", 0.009661815565628912], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454663388131], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.8905614782260106e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1989586670630429], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021636153832168332], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12139402055684557], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.062392750381345764], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.010529322762574341], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.02025279801474727], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.47765277186823807], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.006310950492918915], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04907394329966798]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.2340690200741681], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981591599087755], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.041281581070866075], ["'market for corrugated board box' (kilogram, RER, None)", 0.009661815565628912], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454663388131], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.8905614782260106e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.32715962199778653], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0420730032861261], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.8092934703789705], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.4159516692089718], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.010529322762574341]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654216863354821], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03384245027176591], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105986614015183], ["'autoclave - APOS' (unit, GLO, None)", 1.310460621785084], ["'cabinet washer - APOS' (unit, GLO, None)", 0.6530817117568094], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710219970799], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671645013785132], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0512041074435976], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007420885178461744], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011032676699009297], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005670452631047663], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001158981634129486]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654216863354821], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03384245027176591], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105986614015183], ["'autoclave - APOS' (unit, GLO, None)", 1.310460621785084], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710219970799], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671645013785132], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0512041074435976], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0007420885178461744], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.03774055923279999], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595718167825], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001158981634129486], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.04163336072864478], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0008694938828117306], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275571155434]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.057686649237581725], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022181173056078], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552993307007591], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404145233894], ["'cabinet washer - APOS' (unit, GLO, None)", 0.3265408558784047], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598752811696], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966719322364], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.03059588807077849], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003710442589230872], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005516338349504648], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00028352263155238317], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006925239821961183]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.057686649237581725], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022181173056078], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552993307007591], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404145233894], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598752811696], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966719322364], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.03059588807077849], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003710442589230872], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.03774055923279999], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595718167825], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006925239821961183], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.04163336072864478], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275571155434], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0008694938828117306]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518094647435287], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992223678799525], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894596061079505], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043300465905], ["'autoclave - APOS' (unit, GLO, None)", 0.0598375537093028], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197167438871473e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028490380450319997], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007156527807334466], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00869591226054585], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0014502532622539944], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868485577613], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.000756018903187416], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.014340789914206004], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.67421993757328e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.019006236444375e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518094647435287], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992223678799525], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894596061079505], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043300465905], ["'autoclave - APOS' (unit, GLO, None)", 0.0598375537093028], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197167438871473e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.6793374909629162e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.1161466250488536e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.057972748403639], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.009668355081693294], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868485577613]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536133970115391], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214688990306342], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782829731423], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750924238102817], ["'autoclave - APOS' (unit, GLO, None)", 0.0897563305639542], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5673997041827251e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008105713874598084], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002158317866426776], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.024868169188638687], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004147367453981884], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372311397655], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.002280056963425022], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.04080055722069877], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.409685349441858e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1434355771292444e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536133970115391], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214688990306342], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782829731423], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750924238102817], ["'autoclave - APOS' (unit, GLO, None)", 0.0897563305639542], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5673997041827251e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.622903847528297e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.397902329612388e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.16578779459092455], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.02764911635987923], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372311397655]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507935643535], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006760525477120413], ["'market for polysulfone' (kilogram, GLO, None)", 0.0001246382207909284], ["'autoclave - APOS' (unit, GLO, None)", 0.1196751074186056], ["'cabinet washer - APOS' (unit, GLO, None)", 0.062308700244930085], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662961023545705e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003865100371090765], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068041823834], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040821484881e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00022600987222928196], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.769260138015055e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908318063846e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507935643535], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006760525477120413], ["'market for polysulfone' (kilogram, GLO, None)", 0.0001246382207909284], ["'autoclave - APOS' (unit, GLO, None)", 0.1196751074186056], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662961023545705e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003865100371090765], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068041823834], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040821484881e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341362366505], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999225046345243], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908318063846e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002953396716688924], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.654304863204176e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556288627997e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868975063943], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004039603288182804], ["'market for polysulfone' (kilogram, GLO, None)", 6.23191103954642e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340494573706], ["'cabinet washer - APOS' (unit, GLO, None)", 0.031154350122465042], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.591193782705756e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002309505706480268], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607284936838], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204107424405e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011300493611464098], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.8846300690075275e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5633403534588798e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868975063943], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004039603288182804], ["'market for polysulfone' (kilogram, GLO, None)", 6.23191103954642e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340494573706], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.591193782705756e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002309505706480268], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607284936838], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204107424405e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341362366505], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999225046345243], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5633403534588798e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002953396716688924], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556288627997e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.654304863204176e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207939452857828], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0011482944616796162], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957475531458801], ["'market for corrugated board box' (kilogram, RER, None)", 0.0011380431901143477], ["'autoclave - APOS' (unit, GLO, None)", 0.042964859896705704], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0199917364706772e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011226748534929154], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019331252481708054], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0063295226946014005], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.011240756881446816], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478383721951741e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.73985615025746e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0012874985979541495], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.410807106335187e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.95276887714031e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207939452857828], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0011482944616796162], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957475531458801], ["'market for corrugated board box' (kilogram, RER, None)", 0.0011380431901143477], ["'autoclave - APOS' (unit, GLO, None)", 0.042964859896705704], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0199917364706772e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9685125847602066e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.2738714042234583e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.042196817964009335], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07493837920964544], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478383721951741e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577517879961706], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0032669786092856686], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966989334087485], ["'market for corrugated board box' (kilogram, RER, None)", 0.0034321937473450635], ["'autoclave - APOS' (unit, GLO, None)", 0.06444728984505856], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761655552127395e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003194089019796745], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005830060154159825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.018100877347490104], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.03214579857298785], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00015586387491893752], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00023342422837445585], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003663024180094904], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0286560905966165e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.400835396934403e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577517879961706], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0032669786092856686], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966989334087485], ["'market for corrugated board box' (kilogram, RER, None)", 0.0034321937473450635], ["'autoclave - APOS' (unit, GLO, None)", 0.06444728984505856], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761655552127395e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.6005569312896024e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.85770727064411e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12067251564993402], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.21430532381991899], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00015586387491893752]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001252317689335758], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0011490131076587345], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532682441016665e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592971979341141], ["'cabinet washer - APOS' (unit, GLO, None)", 0.04429418923593623], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230212646047938e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002647637396751779], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842438375345795], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.757861654286242e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016450656039501102], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002921512947918157], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156219115761823e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001252317689335758], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0011490131076587345], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532682441016665e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592971979341141], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230212646047938e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002647637396751779], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842438375345795], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.757861654286242e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437254034295], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559365822667], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156219115761823e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919563035210052], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968338944144757e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.395728714302574e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948881430736], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865675077435544], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766341220508332e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.05728647986227427], ["'cabinet washer - APOS' (unit, GLO, None)", 0.022147094617968113], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726521219062e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820374865874862], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283604544866723], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.78930827143121e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.225328019750551e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00014607564739590784], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251321359721515e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948881430736], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865675077435544], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766341220508332e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.05728647986227427], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726521219062e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820374865874862], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283604544866723], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.78930827143121e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437254034295], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559365822667], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251321359721515e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919563035210052], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.395728714302574e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968338944144757e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989509842231263], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892081343496842], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001451920908391264], ["'market for corrugated board box' (kilogram, RER, None)", 3.0438585047632606e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0033185262545594573], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993528993836375e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011041083365896573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.45275185394169e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019478827225348364], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010148299212905488], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3580586735760226e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.531672157380054e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0005254173137467706], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.821610037510249e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.214069734850964e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989509842231263], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892081343496842], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001451920908391264], ["'market for corrugated board box' (kilogram, RER, None)", 3.0438585047632606e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0033185262545594573], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993528993836375e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.142713156567309e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.547740025006833e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001298588481689891], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0006765532808603659], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3580586735760226e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003695607025536218], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763386357554395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00043788090000961607], ["'market for corrugated board box' (kilogram, RER, None)", 9.179890726995921e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789381839186], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.8075722366931503e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031412659717057856], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002850829866454493], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005570465254508193], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00029021638471241626], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.86377256457349e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010651074544590427], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0014948492588288402], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0573109220179827e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7679466006195696e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003695607025536218], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763386357554395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00043788090000961607], ["'market for corrugated board box' (kilogram, RER, None)", 9.179890726995921e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789381839186], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.8075722366931503e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011786310670797132], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3715406146786551e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.003713643503005462], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0019347758980827752], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.86377256457349e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016993363827104572], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0002022834715659335], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988215353359e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052509118915], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0028827838847431055], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.855644992923259e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946384289954263], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008374705223915146], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020343676151e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.062616917550292e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.6375792895927245e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252924467954301e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0016993363827104572], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0002022834715659335], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988215353359e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052509118915], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.855644992923259e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946384289954263], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008374705223915146], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020343676151e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190214613946], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.09634397933887e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252924467954301e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000325356514933272], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312723405448e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453271902443e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001015401075339157], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012087003882290427], ["'market for polysulfone' (kilogram, GLO, None)", 3.0849941076766796e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701672745943], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0014413919423715527], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998470653841e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918523173642042], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004120888913376], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985101718380754e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.531308458775146e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3187896447963623e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412414673328332e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001015401075339157], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012087003882290427], ["'market for polysulfone' (kilogram, GLO, None)", 3.0849941076766796e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701672745943], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998470653841e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918523173642042], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004120888913376], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985101718380754e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190214613946], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.09634397933887e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412414673328332e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000325356514933272], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453271902443e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312723405448e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942586768110513e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365172256266574e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025179171897751e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.50117941502373e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134635624258e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5753967821537917e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6511987528939364e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5110475172036444e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.2758425685598686e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6585821302060022e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6158711323385202e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0466989872236532e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.1804800780668328e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.406065944993705e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.983852967612992e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942586768110513e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365172256266574e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025179171897751e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.50117941502373e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134635624258e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5753967821537917e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3225686450753278e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6040439633291367e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.183895045706579e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1057214201373348e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6158711323385202e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.526796157159488e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078541965867391e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139429002668346e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543239504267038e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019534363877e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.767069662426597e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.697776733585565e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.557127340521247e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.368103631852645e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.7431367510811965e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.59726716561954e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.1567111673629544e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 6.203619377035214e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.256389210922599e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.644201400814427e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.526796157159488e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078541965867391e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139429002668346e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543239504267038e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019534363877e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.767069662426597e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.7628009338762844e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.837592807281733e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.245402421235097e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.162091167387464e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.59726716561954e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.2538924888651997e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066373275168503e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071291137944e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269271248516e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 2.5831384521828935e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.56395892329651e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.8816418030923455e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404785489907034e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349920153801e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.514032089796922e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.3107143226095934e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295265216917e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.2538924888651997e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066373275168503e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071291137944e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269271248516e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.56395892329651e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.8816418030923455e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404785489907034e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349920153801e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784597720934e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563606197556e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295265216917e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149196276772e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.3347517718376623e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.395429282044472e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763878051164e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417411918379943e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.584535645568972e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828461808323445e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 1.2915692260914468e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.5196772708921167e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.124333669132429e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217150696363918e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6061749600769005e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.257016044898461e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1553571613047967e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236681280875755e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763878051164e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417411918379943e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.584535645568972e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828461808323445e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.5196772708921167e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.124333669132429e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217150696363918e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6061749600769005e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784597720934e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563606197556e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236681280875755e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149196276772e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.395429282044472e-09], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.3347517718376623e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998807617477128], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083893330725647], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.5638468436776796e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.2210724714549987e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000262663700152142], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752239512693057e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001444898647485556], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.365158682038709e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3682580662124074e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.406551533238742e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1879346256817054e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.4474754826762314e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 4.890836513850106e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.955406881676066e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.915349737581965e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998807617477128], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083893330725647], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.5638468436776796e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.2210724714549987e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000262663700152142], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752239512693057e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.94356649172131e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.636937921117377e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00015788387108082717], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001604367688825828], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1879346256817054e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004836280477085042], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00031534457081782823], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.73223635604441e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714345547080989e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000393995550228213], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163373823098605e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004110838405522286], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3164764012481659e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.772635292117309e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.882145184608821e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069898513242193e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.381275115689255e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0001391477430701016], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0976623503934363e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.682958657734587e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004836280477085042], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00031534457081782823], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.73223635604441e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714345547080989e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000393995550228213], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163373823098605e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1219724384897247e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3984415669289576e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004515090194744872], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00045880967897392143], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069898513242193e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599599925572495], ["'alubox production - APOS' (kilogram, GLO, None)", 2.5971748873881234e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.86879045811745e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000525327400304284], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002606433403487751], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.3138137750690206e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.708409129253589e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150624744228026e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984144865070285e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.155187482503814e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.254713573419386e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983401627338817e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599599925572495], ["'alubox production - APOS' (kilogram, GLO, None)", 2.5971748873881234e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.86879045811745e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.000525327400304284], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.3138137750690206e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.708409129253589e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150624744228026e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984144865070285e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1055653501863617e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.157092542414065e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983401627338817e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.000958847075855e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607916272456e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658631060118e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012906365811070163], ["'alubox production - APOS' (kilogram, GLO, None)", 1.551884724136511e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.934395229058725e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021826686952264], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00013032167017438756], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405214491206e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.020822295463616e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.46775453044448e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492072432535143e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.077593741251907e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.127356786709693e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965362044775469e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012906365811070163], ["'alubox production - APOS' (kilogram, GLO, None)", 1.551884724136511e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.934395229058725e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021826686952264], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405214491206e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.020822295463616e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.46775453044448e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492072432535143e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1055653501863617e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.157092542414065e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965362044775469e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.000958847075855e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658631060118e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607916272456e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637380715993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202377745017053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.042777993528649e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205842538382305e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004691770713784023], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002853741572603e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002978941773608594], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.27856228205399e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.7846743923152567e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.316375734740514e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6356301135433486e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.983682727034653e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.11101584427478e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.070526839768801e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.194737828808101e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637380715993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202377745017053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.042777993528649e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205842538382305e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004691770713784023], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002853741572603e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.7964918858720674e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.380351226512534e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0003856449594876838], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0004210917156493676], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6356301135433486e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009970940153586345], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894197611962598], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00015208377767640503], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747779079547974e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0007037656070676035], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.413559065528641e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008475299130548394], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1951219136125102e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016542745278371935], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00018063280277452496], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343623704163651e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.998408042106684e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0002023134085272543], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5292064762542512e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1934324527031499e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009970940153586345], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894197611962598], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00015208377767640503], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747779079547974e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0007037656070676035], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.413559065528641e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.956216351354332e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0194709841695009e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011028496852247955], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012042186851634997], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343623704163651e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002858182878467651], ["'alubox production - APOS' (kilogram, GLO, None)", 3.6650867755068264e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830554380233828e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383541427568046], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0004757408038342574], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.053026901692042e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.249999224895504e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112526398498955], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9033009598144142e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5034575799791983e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6416486618813258e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1385414023096278e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002858182878467651], ["'alubox production - APOS' (kilogram, GLO, None)", 3.6650867755068264e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830554380233828e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383541427568046], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.053026901692042e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.249999224895504e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112526398498955], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9033009598144142e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.143024797989619e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661631095078758e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1385414023096278e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0008455988117250182], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669409624466e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.048111209356892e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001707844307836793], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899919821201474e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277190116914e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255694285045364], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002378704019171287], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690679480823e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.469095407158536e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237573711269945e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.516504799072071e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.517287899895992e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.208243309406629e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803103712811083e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001707844307836793], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899919821201474e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277190116914e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255694285045364], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690679480823e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.469095407158536e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237573711269945e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.516504799072071e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.143024797989619e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661631095078758e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803103712811083e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0008455988117250182], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.048111209356892e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669409624466e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528483756337584], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0001764830664614504], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431825772331e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533511475008978e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004810567092463743], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621156399785e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003189921119288695], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.587747705150784e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.915239697325547e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.543745257358176e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489376501098286e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.0932613914120857e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.471660018644279e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.097637093366656e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.218714886796838e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528483756337584], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0001764830664614504], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431825772331e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533511475008978e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0004810567092463743], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621156399785e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8124765911978917e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3984247289111036e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00039434931315503646], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00043624968382387837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489376501098286e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677117913774918], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021067524677884], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001671527024705618], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598698348198e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0007215850638695615], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.453901619216875e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009075550226708681], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2883683091654792e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016916129921394803], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00018713501161400926], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665991625125548e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 9.328883372423448e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0002125739892628372], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5373825843165498e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2002540945534663e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677117913774918], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021067524677884], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001671527024705618], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598698348198e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0007215850638695615], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.453901619216875e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.001693963689776e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0249217228776999e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011277419947596536], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012475667440933953], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665991625125548e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025579636037354], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860467401606795e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.298037744657103e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621134184927486], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0004877279161788288], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808231940998e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.3025156644701306e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010077031353], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9162916538300373e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5373919700912491e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7007428146412575e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.174025023455267e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025579636037354], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860467401606795e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.298037744657103e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621134184927486], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808231940998e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.3025156644701306e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010077031353], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9162916538300373e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107494418836e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.865431884231503e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.174025023455267e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183865498247], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.33802461531902e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101614772452e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343596638451058], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3067373774761347e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490188723285515e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414089456618324], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002438639580894144], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.0314806237206333e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895839842767e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.391427419531676e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458269150186e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.686959850456246e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.503714073206287e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.015128285892205e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343596638451058], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3067373774761347e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490188723285515e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414089456618324], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.0314806237206333e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895839842767e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.391427419531676e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458269150186e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107494418836e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.865431884231503e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.015128285892205e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183865498247], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101614772452e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.33802461531902e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763101848757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398055392681427], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003511866162381022], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510901408009e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366458251413], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204157856354503e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010562748636571443], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.991378449005926e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005190758717104511], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001165342605128416], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830856063550578e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.9340731223434834e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00042452294452765616], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.666954837133727e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5435373928608895e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763101848757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398055392681427], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003511866162381022], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510901408009e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366458251413], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204157856354503e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010290249285739262], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.111303224755818e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0034605058114030073], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007768950700856106], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830856063550578e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355016148921814], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503083551616], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342179930349], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001273455668448995], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549687377119], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726825286559623e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0030051763726583543], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.021617361867349e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014844292597111979], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00033325930849735914], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659618662422795e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.832918822241738e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0012077976731631906], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0273240101505455e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.391472582505629e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355016148921814], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503083551616], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342179930349], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001273455668448995], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549687377119], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726825286559623e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002927648388337086], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.351549340100364e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00989619506474132], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0022217287233157277], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659618662422795e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367618935191444], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762028201936969], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918687662824e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732916502825], ["'cabinet washer - APOS' (unit, GLO, None)", 0.004000202595970036], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6740040818574333e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925775789981e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002991100551553708], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137908606722e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.349096770155523e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.0287671422399235e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.704975212670966e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367618935191444], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762028201936969], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918687662824e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732916502825], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6740040818574333e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925775789981e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002991100551553708], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137908606722e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00046149876366272704], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010445451959621542], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.704975212670966e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.009536292855734216], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.24396009892068e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6595856140286506e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306267829917], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004040501208341634], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459343831412e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488611001883], ["'cabinet washer - APOS' (unit, GLO, None)", 0.002000101297985018], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923192867693e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.0984739958080728e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663396112734], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068954303361e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.745483850777615e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5143835711199618e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2138264426804096e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306267829917], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004040501208341634], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459343831412e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488611001883], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923192867693e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.0984739958080728e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663396112734], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068954303361e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00046149876366272704], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010445451959621542], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2138264426804096e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.009536292855734216], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6595856140286506e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.24396009892068e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.54391201920105e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.4686035320316213e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.11426690455334e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.151038166818956e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.4296140104193693e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645371223555297e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.562325216320893e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7021266912823866e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.772837077669038e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7364194041230245e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.173780799083517e-12], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.324783001153059e-12], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.9564142832627675e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.60089842300115e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.914807126683145e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.54391201920105e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.4686035320316213e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.11426690455334e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.151038166818956e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.4296140104193693e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645371223555297e-13], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.27653808445543e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.400598948667434e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.1818913851126918e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1576129360820164e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.173780799083517e-12]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.861789053350158e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350893949119e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.7487471060084683e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487257962252562e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.144421015629054e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316288973741444e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5825206953476344e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.133397853846938e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.069877785151206e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.965732200408718e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409911570887195e-11], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.510648790758599e-11], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 5.566136411536324e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8955089895514735e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.2518183656197115e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.861789053350158e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350893949119e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.7487471060084683e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487257962252562e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.144421015629054e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316288973741444e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5012122437464744e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.930339326367649e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.379918523434137e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.310488133605812e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409911570887195e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294848395597e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.17912453687448e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.0737678749584304e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.8592280208387385e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 1.4521274463601994e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892044155221e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.610817722313815e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885606849526e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.179983481271438e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.607667021035029e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.513016183576418e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465559464986658e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294848395597e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.17912453687448e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.0737678749584304e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.8592280208387385e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892044155221e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.610817722313815e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885606849526e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.179983481271438e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898483620658e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.556425156662235e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465559464986658e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.88104968354694e-10], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591963758275e-12], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.55845506406173e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.898186995159517e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.484783954632994e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839374792152e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152013892492e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 7.260637231800997e-10], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.9860448019730085e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564703136142e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635007260032e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.089991740635719e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3038335105175145e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.256508091788209e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423800899694036e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.898186995159517e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.484783954632994e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839374792152e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152013892492e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.9860448019730085e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564703136142e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635007260032e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.089991740635719e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898483620658e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.556425156662235e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423800899694036e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.88104968354694e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.55845506406173e-11], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591963758275e-12]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.059413287758062e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.428874708928391e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.329791920438041e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.801341707016838e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.98617109935547e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086372997362625e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.600501294594353e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.633163413496252e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.039518256829811e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.911832341998681e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453796177901133e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.122996482347554e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.199945711295412e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6196188195100643e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.986228392174938e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.059413287758062e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.428874708928391e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.329791920438041e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.801341707016838e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.98617109935547e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086372997362625e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.990818928116625e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.4130792130067093e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.0263455045532075e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.6078882279991204e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453796177901133e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.70424625531167e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.065249171880774e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058102352672066e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.7496109906896142e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256649033207e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660969635808499e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.39860931701492e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.6036524052955587e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.7271536019302965e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1186877880504747e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671363774779763e-08], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.5450306538542725e-08], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 3.4139300518545523e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0916310504371459e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.496030073511794e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.70424625531167e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.065249171880774e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058102352672066e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.7496109906896142e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256649033207e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660969635808499e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.664020049007862e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.27754033624764e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.1514357346201977e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.457918587003164e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671363774779763e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256099096494216e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796112387718626e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869956569303191e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.197234219871094e-06], ["'cabinet washer - APOS' (unit, GLO, None)", 6.010847784750187e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861734008381e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920870071728919e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4191266545386049e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388567549958e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5696924125437756e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0166992274423407e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3947599694201827e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256099096494216e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796112387718626e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869956569303191e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.197234219871094e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861734008381e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920870071728919e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4191266545386049e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388567549958e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600785836927e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338532773231e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3947599694201827e-09], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.2908835450760007e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.226461913764064e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6036173190242036e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871450483691214e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.865811457628704e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349782846515955e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561465807294e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 3.0054238923750936e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274633105299e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016612455146e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679160182395e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.555194283774979e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.848462062718878e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.083496137211703e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.334081402041324e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871450483691214e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.865811457628704e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349782846515955e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561465807294e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274633105299e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016612455146e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679160182395e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.555194283774979e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600785836927e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338532773231e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.334081402041324e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.2908835450760007e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.6036173190242036e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.226461913764064e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.048136601546078225], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851064611859148], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179963827965], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002488913854244575], ["'autoclave - APOS' (unit, GLO, None)", 0.011588419428421516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251220468934611e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040916111314166496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024680058102105], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014113698869817992], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0015092673689294902], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894025081994843e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010414944532368637], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003285791994461672], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0041354584102597e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7044174029485665e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.048136601546078225], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851064611859148], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179963827965], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002488913854244575], ["'autoclave - APOS' (unit, GLO, None)", 0.011588419428421516], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251220468934611e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011362782686323777], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3360903056068398e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.009409132579878661], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010061782459529935], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894025081994843e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1369520213001099], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199880354359927], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303082120593002], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506248130495301], ["'autoclave - APOS' (unit, GLO, None)", 0.017382629142632274], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868760149932323e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1164092181050934], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007443191975252621], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.004036170569068057], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004316133276974324], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459057277365323], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0003141014954069965], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009348309618045884], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.0442179267342044e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.849187540783245e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.1369520213001099], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199880354359927], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303082120593002], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506248130495301], ["'autoclave - APOS' (unit, GLO, None)", 0.017382629142632274], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868760149932323e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0003232791693855497], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.029478617822803e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.026907803793787047], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.028774221846495494], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459057277365323]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004532630724759403], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0012805993219401543], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315766808397], ["'autoclave - APOS' (unit, GLO, None)", 0.023176838856843032], ["'cabinet washer - APOS' (unit, GLO, None)", 0.011721162498707225], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716114692336], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301332916542], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335945815537454], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422288080495667e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.6682008542366506e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.922639913577013e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472109127174722e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004532630724759403], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0012805993219401543], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315766808397], ["'autoclave - APOS' (unit, GLO, None)", 0.023176838856843032], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716114692336], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301332916542], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335945815537454], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422288080495667e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817442711408], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001352819310561477], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472109127174722e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.01046952867094671], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287505400718e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952756374980062e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373785709848], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651939555973035], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741578834041984], ["'autoclave - APOS' (unit, GLO, None)", 0.015451225904562021], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0058605812493536125], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198080119357], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002122001993828463], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.001215129709410446], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.7111440402478337e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8341004271183253e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.9613199567885065e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.477154431752745e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373785709848], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651939555973035], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741578834041984], ["'autoclave - APOS' (unit, GLO, None)", 0.015451225904562021], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198080119357], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0002122001993828463], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.001215129709410446], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.7111440402478337e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817442711408], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001352819310561477], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.477154431752745e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.01046952867094671], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952756374980062e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287505400718e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682618156178], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169126026910368], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.0439447275544905e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278809539210589e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554616046911828], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038060302254327516], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.10808294258168e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.958633557808987e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.521148852157854e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.1910656638807e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.878974089498388e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0001184451142645619], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1102745719014332e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7531192141695659e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682618156178], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169126026910368], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.0439447275544905e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278809539210589e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554616046911828], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1687461427797105e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.4068497146009556e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004639089038539325], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00036807659014385696], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.1910656638807e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739322378416168], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825839075478], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227769444014003], ["'market for corrugated board box' (kilogram, RER, None)", 2.49678382883555e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331924070367742], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010828424021653742], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7468821016420968e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0001989997960564407], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00015789127081459081], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.761401780571607e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.773023895836788e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0003369846912879085], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.364320008556511e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.987747623412004e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739322378416168], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825839075478], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227769444014003], ["'market for corrugated board box' (kilogram, RER, None)", 2.49678382883555e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331924070367742], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.325165082274669e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.242880005704341e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001326665307042938], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001052608472097272], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.761401780571607e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.612049264814405e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0007504179211765537], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8085737691103175e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4349663487149904e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.612049264814405e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765670938724e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836062745633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950884593537229e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00037520896058827687], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.042868845551588e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.174831743574952e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950884593537229e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765670938724e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836062745633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16899116232056008], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05424153033399585], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788072519810728], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605163929380182], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641479603865], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14364248797247606], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00276163728642703], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0287094467357792], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017314942941912586], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014073805016609426], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0016698422120162298], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.04375099701128569], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00329596251873428], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027168737657134095]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16899116232056008], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05424153033399585], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788072519810728], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605163929380182], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641479603865], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.1811249177142273], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.021973083458228532], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.19139631157186132], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.11543295294608391], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014073805016609426]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4807917575880723], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432097362629804], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.06571005864927255], ["'market for corrugated board box' (kilogram, RER, None)", 0.007856843595126776], ["'autoclave - APOS' (unit, GLO, None)", 0.329994622194058], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40867299394986145], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008328747203046046], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08210195288846582], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0495164759796725], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0040040966388547004], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.005036031965968996], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.12447466755323534], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009940204220217777], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0772969719259308]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4807917575880723], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432097362629804], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.06571005864927255], ["'market for corrugated board box' (kilogram, RER, None)", 0.007856843595126776], ["'autoclave - APOS' (unit, GLO, None)", 0.329994622194058], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.515313146172872], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06626802813478519], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.5473463525897722], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.33010983986448333], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0040040966388547004]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018451334231614352], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.22422020791274494], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0007461687967996512], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0004500215646577594], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018451334231614352], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927849841825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520105751510367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.011025188897762613], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'cabinet washer - APOS' (unit, GLO, None)", 0.11211010395637247], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0003730843983998256], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002250107823288797], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.011025188897762613], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927849841825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520105751510367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003889317270498961], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864545437645], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233154728965], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299884052687], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409959824359], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003305919679924117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003806470498354317], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001780146949767875], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009076479681099679], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328907272153192], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00037534711440839427], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009077474696276835], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00017305319444332158], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.001426432469155925]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003889317270498961], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864545437645], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233154728965], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299884052687], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409959824359], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009509549794372834], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0011536879629554773], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.011867646331785834], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.006050986454066452], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328907272153192]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381530151974], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095304763076116], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607565517143], ["'market for corrugated board box' (kilogram, RER, None)", 0.00042482491706149876], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114939736539], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009405574300629178], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011479831429152994], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005090782220551959], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0025956498361958433], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766750270575757], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0011319992109988192], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.025826054769689022], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.000521906448859819], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.004058300827739393]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381530151974], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095304763076116], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607565517143], ["'market for corrugated board box' (kilogram, RER, None)", 0.00042482491706149876], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114939736539], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027055338851595948], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.003479376325732127], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.03393854813701306], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017304332241305623], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766750270575757]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763586899426068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'cabinet washer - APOS' (unit, GLO, None)", 0.046986248548478576], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.626665640266347e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.3590095568756508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763586899426068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888923747063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627415849978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614240607729674], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'cabinet washer - APOS' (unit, GLO, None)", 0.023493124274239288], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3133328201331736e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1795047784378254e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614240607729674], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888923747063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627415849978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093445325418], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161633058273409], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0007866001997936135], ["'market for corrugated board box' (kilogram, RER, None)", 0.00018484308273024946], ["'autoclave - APOS' (unit, GLO, None)", 0.057837415438496194], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004409029428526606], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004990236779807173], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023212739022431352], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001186897154170356], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001899856398825198], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004849102485373808], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011771128900993836], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002505812425455763], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.002065455652124451]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093445325418], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161633058273409], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0007866001997936135], ["'market for corrugated board box' (kilogram, RER, None)", 0.00018484308273024946], ["'autoclave - APOS' (unit, GLO, None)", 0.057837415438496194], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.01376970434749634], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0016705416169705085], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.015475159348287568], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00791264769446904], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001899856398825198]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646140221613], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.01184013912353843], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002372286268781744], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632652764293], ["'autoclave - APOS' (unit, GLO, None)", 0.0867561231577443], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01254399921918837], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015049920142166612], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006638272144954958], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0033942337911236752], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405225247802426], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0014624277040593133], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.03348969067606697], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0007557211923682564], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005876366784917451]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646140221613], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.01184013912353843], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002372286268781744], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632652764293], ["'autoclave - APOS' (unit, GLO, None)", 0.0867561231577443], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03917577856611634], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005038141282455043], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04425514763303305], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.022628225274157837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405225247802426]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0022976253415553064], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0592607461002075], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.033073958616576e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.084788186709359e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0022976253415553064], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927794211358], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001063865437540731], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728954821885125], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02963037305010375], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.016536979308288e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5423940933546794e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728954821885125], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927794211358], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001063865437540731], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023082047617], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111789863111173], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566963893679645], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345662821830286], ["'autoclave - APOS' (unit, GLO, None)", 2.3473688310973633], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30416419619740476], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02555070317820143], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0800186275108731], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.08729547481863291], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775468112290001], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0102608425353511], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.1904221044034349], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009639104441304714], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.07945929568482765]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023082047617], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111789863111173], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566963893679645], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345662821830286], ["'autoclave - APOS' (unit, GLO, None)", 2.3473688310973633], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.529728637898851], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06426069627536476], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.533457516739154], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.5819698321242194], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775468112290001]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.0180806567005096], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428988101899235], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.13440830108358484], ["'market for corrugated board box' (kilogram, RER, None)", 0.03421707834538214], ["'autoclave - APOS' (unit, GLO, None)", 3.521053246646045], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8653685581954332], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07705767469073742], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.2288335838220775], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.24964357644677732], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.013586543081143817], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.03094539749561694], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.5417642970351246], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.029070314392826264], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.22606729194838288]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.0180806567005096], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428988101899235], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.13440830108358484], ["'market for corrugated board box' (kilogram, RER, None)", 0.03421707834538214], ["'autoclave - APOS' (unit, GLO, None)", 3.521053246646045], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.507115279655886], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.19380209595217512], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5255572254805165], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.664290509645182], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.013586543081143817]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271277791467537], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'cabinet washer - APOS' (unit, GLO, None)", 2.391257837569505], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002079712770533373], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.002268840636507686], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271277791467537], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114277445524482], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657611397474], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04344792098648235], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'cabinet washer - APOS' (unit, GLO, None)", 1.1956289187847524], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010398563852666864], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001134420318253843], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04344792098648235], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114277445524482], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657611397474], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803254142205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988016077573258], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160211213468], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403665335802184], ["'autoclave - APOS' (unit, GLO, None)", 0.056365658284072195], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10336682766020874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007781135532005043], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007559090835768382], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004941384025946101], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003492633924358508], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00042420285281352844], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011895091502925913], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.459679983644953e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.641132976625703e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803254142205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988016077573258], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160211213468], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403665335802184], ["'autoclave - APOS' (unit, GLO, None)", 0.056365658284072195], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00030940886510838017], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.639786655763302e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.050393938905122546], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.03294256017297401], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003492633924358508]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834165262993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.03979689081225067], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461434737988106], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328514500774294], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848742610829], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29408590404735446], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002346691620844814], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.021617139661017762], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.014131142346119133], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936789475745447], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0012793419111406478], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.033842373008324426], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.646570120442603e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0001320435015885059]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834165262993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.03979689081225067], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461434737988106], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328514500774294], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848742610829], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0008802900105900394], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010977134136284022], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.14411426440678507], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.09420761564079422], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936789475745447]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016172683658601], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'cabinet washer - APOS' (unit, GLO, None)", 0.057753136601294705], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019646347649030998], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00012842833952102489], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016172683658601], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006720618825194221], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00442916866077968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002997303646821111], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'cabinet washer - APOS' (unit, GLO, None)", 0.028876568300647353], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.823173824515499e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.421416976051244e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002997303646821111], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006720618825194221], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00442916866077968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820793076343897e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.0308532582936736e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.771669514912249e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.5167001711438661e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132229774676], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3647674114892314e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0454832326406704e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3859087411681314e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.345226265660129e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.135742139638992e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.3258759273290159e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.573773895275813e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8978797228107274e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.5711237746726995e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820793076343897e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.0308532582936736e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.771669514912249e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.5167001711438661e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132229774676], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7140825164484664e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9319198152071517e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0001590605827445421], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.563484177106753e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.135742139638992e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.91521155129784e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920537680592e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406621993949417e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175118498023e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198344662015], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.727929818603166e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8232409379894202e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.823111879040123e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5286031774831737e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266369377141e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.998673350624826e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.322567983742453e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.739637082228912e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.315028203998384e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.91521155129784e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920537680592e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406621993949417e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175118498023e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198344662015], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.876685469332256e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.826424721485942e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00045487412526934147], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010190687849887825], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266369377141e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.2873965839117975e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000213816591514358], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.201062218494461e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3892434387984293e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.2873965839117975e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581710509443e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.791149308842744e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692555099696991e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000106908295757179], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.1005311092472303e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.946217193992147e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692555099696991e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581710509443e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.791149308842744e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509994796639e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.71246984587139e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423274976632e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026019891237803e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491774029565], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.394033495577143e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.517197203000857e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.0662757567277095e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.798750554098277e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456718758605e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.4573703531119156e-07], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 8.806667543890843e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.1636724573406e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.2765353207469765e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509994796639e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.71246984587139e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423274976632e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026019891237803e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491774029565], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.851023547164651e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.442448304893733e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.3775171711518063e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.8658337027321846e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456718758605e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013169280970719e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167730507334e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730164951759908e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.8332440933113705e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0001933573766104435], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.811193888825111e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6639165830715626e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.909040198326662e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.658299963721414e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989539968295e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0426989742606827e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.5055589350224652e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5572980111433537e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2167044151984354e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013169280970719e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167730507334e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730164951759908e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.8332440933113705e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0001933573766104435], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.11136276798957e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0381986740955693e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.939360132217774e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1055333091476093e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989539968295e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.72963684458934e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'cabinet washer - APOS' (unit, GLO, None)", 9.5405786118599e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.37032465112727e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5071160246786852e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.72963684458934e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796237819123e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662049950343e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310344529083465e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'cabinet washer - APOS' (unit, GLO, None)", 4.77028930592995e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.685162325563635e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.535580123393426e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310344529083465e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796237819123e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662049950343e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163223278448111], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0027284135987856333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057102158520291], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781342541652896], ["'autoclave - APOS' (unit, GLO, None)", 0.021058174772081266], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005238739786680894], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048528081645774125], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023784772908140416], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007868471958763344], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096573596587094e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0001360179025014553], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.002781161663206985], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0728235331289484e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.160048043551441e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163223278448111], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0027284135987856333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057102158520291], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781342541652896], ["'autoclave - APOS' (unit, GLO, None)", 0.021058174772081266], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.000610669869570096], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.152156887526323e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.01585651527209361], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0052456479725088954], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096573596587094e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534804256993216], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762528830347858], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027315069448556766], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759452511703831], ["'autoclave - APOS' (unit, GLO, None)", 0.0315872621581219], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014904583618444232], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014635452898282373], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0068018597597471345], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00225018935407358], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035322065407152], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004102127135199798], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.007912600788279028], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.235499478814631e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002606098175770973]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534804256993216], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762528830347858], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027315069448556766], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759452511703831], ["'autoclave - APOS' (unit, GLO, None)", 0.0315872621581219], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017373987838473154], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00021569996525430874], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04534573173164756], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015001262360490533], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035322065407152]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690659476377564], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'cabinet washer - APOS' (unit, GLO, None)", 0.021196857863795212], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.181747613026021e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.0450440259765892e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690659476377564], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146510345270825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052839695313015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000937560842408501], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'cabinet washer - APOS' (unit, GLO, None)", 0.010598428931897606], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0908738065130106e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0225220129882946e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000937560842408501], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146510345270825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052839695313015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178328460674], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05617292625753365], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01368810313351906], ["'market for corrugated board box' (kilogram, RER, None)", 0.0032036545510320813], ["'autoclave - APOS' (unit, GLO, None)", 0.6552303266668471], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06993101579191573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007174092093972467], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04244911545519958], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.021817524952248913], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0037009009636983854], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.006715400009865732], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.1678878250852133], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0020925783694543945], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.017248762312032474]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178328460674], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05617292625753365], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01368810313351906], ["'market for corrugated board box' (kilogram, RER, None)", 0.0032036545510320813], ["'autoclave - APOS' (unit, GLO, None)", 0.6552303266668471], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.11499174874688316], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.013950522463029297], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.2829941030346639], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.14545016634832608], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0037009009636983854]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.23406901723226142], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981593104256053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.04128158004261325], ["'market for corrugated board box' (kilogram, RER, None)", 0.00966181531089436], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454900002708], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1989586646474222], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021636150321309305], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12139402438976511], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.062392752540864405], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01052932386940861], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.02025279327028034], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.47765268545370543], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.006310950510194184], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04907394347930365]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.23406901723226142], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981593104256053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.04128158004261325], ["'market for corrugated board box' (kilogram, RER, None)", 0.00966181531089436], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454900002708], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.3271596231953577], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04207300340129456], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.8092934959317674], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.41595168360576273], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01052932386940861]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.033842435140078946], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'cabinet washer - APOS' (unit, GLO, None)", 0.6530817847874218], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001103267704735728], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005670452827311621], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.033842435140078946], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.037740560424428096], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595785854301], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022180268895409], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'cabinet washer - APOS' (unit, GLO, None)", 0.3265408923937109], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.000551633852367864], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00028352264136558106], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022180268895409], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.037740560424428096], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595785854301], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518096964451757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992225070824545], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894595793664894], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043152966339], ["'autoclave - APOS' (unit, GLO, None)", 0.059837554022526586], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028490382419783995], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007156527375484888], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.008695912331463513], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0014502532308249146], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868606096336], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0007560188476917547], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0143407888787581], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.674220113776982e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.019006253840008e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518096964451757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992225070824545], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894595793664894], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043152966339], ["'autoclave - APOS' (unit, GLO, None)", 0.059837554022526586], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.679337502560005e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.1161467425179882e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.05797274887642342], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.009668354872166097], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868606096336]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536134629322894], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214689386347264], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782749082573], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750923793262855], ["'autoclave - APOS' (unit, GLO, None)", 0.08975633103378988], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008105714434924461], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00215831773618643], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.024868169391445746], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0041473673641024495], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372654281909], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0022800567960571576], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.040800554274776565], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.409685402582656e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1434355820784247e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536134629322894], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214689386347264], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782749082573], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750923793262855], ["'autoclave - APOS' (unit, GLO, None)", 0.08975633103378988], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.622903880522831e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.397902683884373e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.16578779594297163], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.027649115760683], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372654281909]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006760524953108564], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'cabinet washer - APOS' (unit, GLO, None)", 0.06230870168279971], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00022600987407245737], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.7692600563297515e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006760524953108564], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341425417814], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224764633289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00403960297507105], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'cabinet washer - APOS' (unit, GLO, None)", 0.031154350841399853], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011300493703622868], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.8846300281648758e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00403960297507105], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341425417814], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224764633289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207932406008272], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.001148291902275994], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957462723510336], ["'market for corrugated board box' (kilogram, RER, None)", 0.001138043570404791], ["'autoclave - APOS' (unit, GLO, None)", 0.04296488453890233], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011226742545107032], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019331240393995774], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006329522561647591], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.011240756784605052], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478380963292218e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.739842619740273e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.001287499143565877], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.41081613215163e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.9527686049524953e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207932406008272], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.001148291902275994], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957462723510336], ["'market for corrugated board box' (kilogram, RER, None)", 0.001138043570404791], ["'autoclave - APOS' (unit, GLO, None)", 0.04296488453890233], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9685124033016634e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.27387742143442e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.042196817077650606], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07493837856403368], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478380963292218e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577497831178465], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003266971327602124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966950706942103], ["'market for corrugated board box' (kilogram, RER, None)", 0.003432194894252749], ["'autoclave - APOS' (unit, GLO, None)", 0.0644473268083535], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031940873156501696], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005830056508659369], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.018100876967274925], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.032145798296044234], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001558637964331314], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00023342382031124741], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003663025732398692], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.028658812668187e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.4008346225409e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577497831178465], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003266971327602124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966950706942103], ["'market for corrugated board box' (kilogram, RER, None)", 0.003432194894252749], ["'autoclave - APOS' (unit, GLO, None)", 0.0644473268083535], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.600556415027267e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.857725417787913e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12067251311516616], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.21430532197362823], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001558637964331314]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001149010757073869], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'cabinet washer - APOS' (unit, GLO, None)", 0.044294200731273194], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016450655693949393], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00029215129227486353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001149010757073869], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437135828033], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559279019354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865661032032737], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'cabinet washer - APOS' (unit, GLO, None)", 0.022147100365636597], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.225327846974696e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00014607564613743177], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865661032032737], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437135828033], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559279019354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989515327474321], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892083450511886], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014519205921922204], ["'market for corrugated board box' (kilogram, RER, None)", 3.043856745482396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.003318526024295534], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011041088028353172], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.45274644835933e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019478827056114507], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010148296024866491], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.358060276100274e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.531665131525146e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0005254160162484852], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.821610603076094e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.2140700445360995e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989515327474321], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892083450511886], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014519205921922204], ["'market for corrugated board box' (kilogram, RER, None)", 3.043856745482396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.003318526024295534], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.1427133630240664e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.54774040205073e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0012985884704076337], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0006765530683244327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.358060276100274e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0036956085861264967], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763392352160578], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0004378808046480016], ["'market for corrugated board box' (kilogram, RER, None)", 9.179885421228235e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789036443301], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003141267298207522], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002850828236199528], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005570465206111474], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.000290216293542346], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.863777123867839e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010651053355504625], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0014948455673548453], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0573110925854562e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7679466887271718e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0036956085861264967], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763392352160578], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0004378808046480016], ["'market for corrugated board box' (kilogram, RER, None)", 9.179885421228235e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789036443301], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011786311258181146], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3715407283903042e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.003713643470740982], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0019347752902823068], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.863777123867839e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00020228280579720413], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0028827848821244974], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.062616873565806e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.637578461009978e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00020228280579720413], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190064151903], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096341121766508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012086964100744488], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0014413924410622487], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.531308436782903e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.318789230504989e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012086964100744488], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190064151903], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096341121766508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942587028778399e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365173912387527e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025178791257542e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.5011792422494893e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134654874562e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6511989744616393e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.511046967028263e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.275842543897845e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6585820839561398e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.615871280411299e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0466982785052492e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.180478770094741e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.406065949265461e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9838529690177567e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942587028778399e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365173912387527e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025178791257542e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.5011792422494893e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134654874562e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3225686460118377e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.604043966176974e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1838950292652302e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1057213893040932e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.615871280411299e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.5267968987779805e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078542437045465e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139427854705832e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543238983201868e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019823118436e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.697777363961283e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.557125681262195e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.368103561325328e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.743136618817971e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.597267586897023e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.1567090299582873e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 6.203615655762501e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.256389223805671e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.6442014048110814e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.5267968987779805e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078542437045465e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139427854705832e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543238983201868e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019823118436e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.762800936540721e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.837592815870448e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.245402374216884e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.162091079211981e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.597267586897023e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066366888353364e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 2.583138483679973e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.514032025699441e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.3107142024045454e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066366888353364e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784378456397e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563191640742e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417408102079048e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 1.2915692418399865e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.2570160128497207e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1553571012022727e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417408102079048e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784378456397e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563191640742e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998808751290194], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083894329085643], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.563846646430212e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.221071493223657e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00026266372704495083], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014448987438596666], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.365155602597805e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.368258080212193e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.4065513148893726e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.187935482516619e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.4474714955504604e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 4.890829126148164e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.955407194765598e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.91534992433645e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998808751290194], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083894329085643], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.563846646430212e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.221071493223657e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00026266372704495083], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.9435666162243e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.6369381298437325e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00015788387201414621], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00016043675432595816], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.187935482516619e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00048362807996628435], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0003153445992218732], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.732235761171105e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714342596859484e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00039399559056742625], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00041108386797134174], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.316475472527912e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.77263533215325e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.882144560183356e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069900950997864e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.381263091024474e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00013914753288477873], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0976624448172618e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6829587108675533e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00048362807996628435], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0003153445992218732], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.732235761171105e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714342596859484e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00039399559056742625], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1219724739117022e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3984416298781747e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00045150902214354996], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00045880963734555705], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069900950997864e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.5971713166304412e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00026064339086917884], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.155187518889757e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.254713005921559e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.5971713166304412e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.105565362633258e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570923466984155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.5518825905088036e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00013032169543458942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0775937594448785e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.1273565029607796e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.5518825905088036e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.105565362633258e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570923466984155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637562412197], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202379605742242], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.0427775671571336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205840572272298e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00046917716330600797], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029789419280503674], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.2785561402377255e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.784673987430295e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.316375083249213e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.635631753193612e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.983674811912533e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.111001240267534e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.070526905349755e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.194737868726268e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637562412197], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202379605742242], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.0427775671571336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205840572272298e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00046917716330600797], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.796491912484178e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3803512702331703e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.000385644932495353], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0004210916722166142], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.635631753193612e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000997094067052484], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894198141352018], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001520837648175818], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747773150009857e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000703765744959012], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008475299569946116], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1951200613187538e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016542744120500577], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00018063278414347694], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343628369084119e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.998384171103948e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00020231299303296362], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.529206496032634e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1934324640601491e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000997094067052484], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894198141352018], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001520837648175818], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747773150009857e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000703765744959012], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.95621642706766e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0194709973550895e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011028496080333718], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001204218560956513], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343628369084119e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.665079759429182e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00047574085355946627], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5034574747481476e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.641648492556405e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.665079759429182e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.1430244380154426e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661630511119925e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899877898172823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00023787042677973313], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.517287373740738e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.208242462782025e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899877898172823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.1430244380154426e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661630511119925e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528485713830205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017648308573057762], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431389542663e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533509457480574e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00048105680387887937], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031899212856755676], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.587741374888064e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.915239288722337e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.543744591887822e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489393409772704e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.0932532365447937e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.471644967036696e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.097637159547919e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.21871493078855e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528485713830205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017648308573057762], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431389542663e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533509457480574e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00048105680387887937], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8124766205256997e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.398424773031946e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00039434928591482247], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00043624963945918806], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489393409772704e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677118470695354], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021068072898124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00016715268931442921], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598089887251e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000721585205818319], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009075550700091052], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2883664000386658e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0001691612875289017], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001871349925831947], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665996435762495e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 9.328858778379732e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00021257356103400175], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.537382604275978e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2002541070694182e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677118470695354], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021068072898124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00016715268931442921], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598089887251e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000721585205818319], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.001694047129455e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0249217361839854e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011277419168593448], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001247566617221298], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665996435762495e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 3.8604601741663786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0004877279684482972], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5373918638938124e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7007426416831302e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 3.8604601741663786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107131138849e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.86543128774266e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.306733058878095e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002438639842241486], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.686959319469062e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.503713208415651e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.306733058878095e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107131138849e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.86543128774266e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763533032125], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398057665380524], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00035118661232934003], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510674406984e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366451036561], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010562749003077308], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9913778002566647e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005190758740718568], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00011653425732174533], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830857929533268e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.9340722831079356e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0004245227892481373], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6669548415299007e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5435373950929782e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763533032125], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398057665380524], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00035118661232934003], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510674406984e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366451036561], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010290249300619854], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1113032276866005e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0034605058271457117], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007768950488116355], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830857929533268e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355017375668864], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503730150515], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342062047048], ["'market for corrugated board box' (kilogram, RER, None)", 0.00012734555999883686], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549676554841], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0030051764769318534], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.021615405321997e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014844292664642372], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0003332592993716091], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659623971274956e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.832916291213947e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0012077972313820245], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.027324023408846e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.391472588856078e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355017375668864], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503730150515], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342062047048], ["'market for corrugated board box' (kilogram, RER, None)", 0.00012734555999883686], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549676554841], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00029276483925707187], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3515493489392315e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00989619510976158], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.002221728662477394], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659623971274956e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762027434745204], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'cabinet washer - APOS' (unit, GLO, None)", 0.004000202721126463], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.349096776292901e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.0287670593021893e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762027434745204], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987657622001], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001044545167359027], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00040405007499230716], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0020001013605632314], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.745483881464505e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5143835296510947e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00040405007499230716], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987657622001], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001044545167359027], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.543912279524103e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.468603547044175e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.114265291456888e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.1510382649802027e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.429614265467404e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.562325437595488e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.702125835040508e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.7728370734278906e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7364193484619323e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.1737826363737226e-12], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.324772118934001e-12], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.9564125406369867e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.600898437357765e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.914807130645023e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.543912279524103e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.468603547044175e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.114265291456888e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.1510382649802027e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.429614265467404e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.276538087096682e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.40059895823851e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.1818913822852604e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1576128989746215e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.1737826363737226e-12]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8617891274138997e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350936660892e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.748746619519072e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487258258294417e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.1444213982011063e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5825207583018149e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.133395271530214e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.069877773022569e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.965732041231691e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409916798107218e-11], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.5106455088195845e-11], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 5.566131453643258e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.895508993881246e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.2518183667468934e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8617891274138997e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350936660892e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.748746619519072e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487258258294417e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.1444213982011063e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.501212244497929e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9303393292541643e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.379918515348379e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.3104880274877937e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409916798107218e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.179113849150513e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 1.45212764993342e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.607667010012136e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.513016038911247e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.179113849150513e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898445913565e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251067708756e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.484777568418635e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 7.2606382496671e-10], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.303833505006068e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.2565080194556233e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.484777568418635e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898445913565e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251067708756e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.05941352707176e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.4288748966945053e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3297915689772735e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.8013399028552125e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.986171292453461e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.600501498010996e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.633157766004504e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.03951842911072e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.91183201164358e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453797769651666e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.122989165913842e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.1999443575216568e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.619618824601427e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.9862283950816507e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.05941352707176e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.4288748966945053e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3297915689772735e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.8013399028552125e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.986171292453461e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9908189300544337e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.4130792164009513e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.0263456194071466e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.6078880077623866e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453797769651666e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.704246936175993e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.0652497060885924e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058101292711045e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.749610446577378e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256938680193e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.398609895749594e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.6036507020837965e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.727153651198397e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1186876935770452e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671368303422127e-08], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.545028447310817e-08], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 3.4139262002728827e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0916310519726363e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.496030081781597e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.704246936175993e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.0652497060885924e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058101292711045e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.749610446577378e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256938680193e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.664020054521064e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.277540346484242e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.151435767465598e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.457917957180302e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671368303422127e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796105831014602e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'cabinet washer - APOS' (unit, GLO, None)", 6.010848751222249e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5696924573202003e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0166991415818674e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796105831014602e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600939008036e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338236662172e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.8658075398144417e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 3.0054243756111244e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.848462286601002e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.083495707909337e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.8658075398144417e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600939008036e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338236662172e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04813660219961103], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851068186335973], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179892206146], ["'market for corrugated board box' (kilogram, RER, None)", 0.00024889134897911904], ["'autoclave - APOS' (unit, GLO, None)", 0.011588420484181525], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040916111869669376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024680047090066366], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014113698664313403], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0015092672845465785], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894028101073202e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010414930389103977], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003285789373452846], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.004135528595501e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7044175018506254e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04813660219961103], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851068186335973], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179892206146], ["'market for corrugated board box' (kilogram, RER, None)", 0.00024889134897911904], ["'autoclave - APOS' (unit, GLO, None)", 0.011588420484181525], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011362783345670837], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3360903523970008e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.009409132442875603], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010061781896977191], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894028101073202e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13695202315945673], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199881371323756], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303081904590694], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506247031350174], ["'autoclave - APOS' (unit, GLO, None)", 0.01738263072627229], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11640921968553822], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007443188654161671], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.004036170510298802], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004316133035659962], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459065866855865], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0003141010688641027], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009348302161091195], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.0442181384039754e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.849187822166568e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13695202315945673], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199881371323756], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303081904590694], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506247031350174], ["'autoclave - APOS' (unit, GLO, None)", 0.01738263072627229], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00032327918814443785], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.029478758935984e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.026907803401992014], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.02877422023773308], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459065866855865]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0012805980642916928], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'cabinet washer - APOS' (unit, GLO, None)", 0.011721163846798993], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.668200800825273e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.922639694262805e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0012805980642916928], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817424440454], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528192349255529], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651932041171297], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'cabinet washer - APOS' (unit, GLO, None)", 0.005860581923399497], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8341004004126365e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.9613198471314026e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651932041171297], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817424440454], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528192349255529], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05]]</t>
   </si>
 </sst>
 </file>

--- a/results/sterilization_APOS/data_sterilization_APOS_recipe.xlsx
+++ b/results/sterilization_APOS/data_sterilization_APOS_recipe.xlsx
@@ -91,16 +91,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739322378416168], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825839075478], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227769444014003], ["'market for corrugated board box' (kilogram, RER, None)", 2.49678382883555e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331924070367742], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.325165082274669e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.242880005704341e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001326665307042938], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001052608472097272], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.761401780571607e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.612049264814405e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0007504179211765537], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8085737691103175e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4349663487149904e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.612049264814405e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765670938724e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836062745633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950884593537229e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00037520896058827687], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.042868845551588e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.174831743574952e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 3.950884593537229e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765670938724e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836062745633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.879317659532859e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0007504179211765537], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.810047909953207e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.2866482269118089e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.879317659532859e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765670938724e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836062745633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 4.110584943722415e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00037520896058827687], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.042868845551588e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.174831743574952e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 4.110584943722415e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765670938724e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836062745633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16899116232056008], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05424153033399585], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788072519810728], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605163929380182], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641479603865], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14364248797247606], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00276163728642703], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0287094467357792], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017314942941912586], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014073805016609426], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0016698422120162298], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.04375099701128569], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00329596251873428], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027168737657134095]]</t>
@@ -115,16 +115,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4807917575880723], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432097362629804], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.06571005864927255], ["'market for corrugated board box' (kilogram, RER, None)", 0.007856843595126776], ["'autoclave - APOS' (unit, GLO, None)", 0.329994622194058], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.515313146172872], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06626802813478519], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.5473463525897722], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.33010983986448333], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0040040966388547004]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018451334231614352], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.22422020791274494], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0007461687967996512], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0004500215646577594], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018451334231614352], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927849841825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520105751510367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.011025188897762613], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'cabinet washer - APOS' (unit, GLO, None)", 0.11211010395637247], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0003730843983998256], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002250107823288797], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.011025188897762613], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927849841825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520105751510367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018929812764116732], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.22422020791274494], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011593500379863478], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00040350733573473336], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018929812764116732], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927849841825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520105751510367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01131109321981019], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'cabinet washer - APOS' (unit, GLO, None)", 0.11211010395637247], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0003730843983998256], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002250107823288797], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01131109321981019], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927849841825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520105751510367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003889317270498961], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864545437645], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233154728965], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299884052687], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409959824359], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003305919679924117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003806470498354317], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001780146949767875], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009076479681099679], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328907272153192], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00037534711440839427], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009077474696276835], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00017305319444332158], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.001426432469155925]]</t>
@@ -139,16 +139,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381530151974], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095304763076116], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607565517143], ["'market for corrugated board box' (kilogram, RER, None)", 0.00042482491706149876], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114939736539], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027055338851595948], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.003479376325732127], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.03393854813701306], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017304332241305623], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766750270575757]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763586899426068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'cabinet washer - APOS' (unit, GLO, None)", 0.046986248548478576], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.626665640266347e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.3590095568756508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0017763586899426068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888923747063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627415849978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614240607729674], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'cabinet washer - APOS' (unit, GLO, None)", 0.023493124274239288], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3133328201331736e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1795047784378254e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0010614240607729674], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888923747063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627415849978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0018013031395995068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'cabinet washer - APOS' (unit, GLO, None)", 0.046986248548478576], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.188621406843888e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1151823290769832e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0018013031395995068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888923747063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627415849978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001076329067964634], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'cabinet washer - APOS' (unit, GLO, None)", 0.023493124274239288], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3133328201331736e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1795047784378254e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001076329067964634], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888923747063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627415849978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093445325418], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161633058273409], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0007866001997936135], ["'market for corrugated board box' (kilogram, RER, None)", 0.00018484308273024946], ["'autoclave - APOS' (unit, GLO, None)", 0.057837415438496194], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004409029428526606], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004990236779807173], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023212739022431352], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001186897154170356], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001899856398825198], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004849102485373808], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011771128900993836], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002505812425455763], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.002065455652124451]]</t>
@@ -163,16 +163,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646140221613], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.01184013912353843], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002372286268781744], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632652764293], ["'autoclave - APOS' (unit, GLO, None)", 0.0867561231577443], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03917577856611634], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005038141282455043], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04425514763303305], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.022628225274157837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405225247802426]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0022976253415553064], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0592607461002075], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.033073958616576e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.084788186709359e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0022976253415553064], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927794211358], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001063865437540731], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728954821885125], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02963037305010375], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.016536979308288e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5423940933546794e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013728954821885125], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927794211358], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001063865437540731], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0023321936635713834], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0592607461002075], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.373809991916084e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.7659444797310797e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0023321936635713834], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927794211358], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001063865437540731], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001393551022612951], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02963037305010375], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.016536979308288e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5423940933546794e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001393551022612951], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927794211358], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001063865437540731], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023082047617], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111789863111173], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566963893679645], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345662821830286], ["'autoclave - APOS' (unit, GLO, None)", 2.3473688310973633], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30416419619740476], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02555070317820143], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0800186275108731], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.08729547481863291], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775468112290001], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0102608425353511], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.1904221044034349], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009639104441304714], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.07945929568482765]]</t>
@@ -187,16 +187,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.0180806567005096], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428988101899235], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.13440830108358484], ["'market for corrugated board box' (kilogram, RER, None)", 0.03421707834538214], ["'autoclave - APOS' (unit, GLO, None)", 3.521053246646045], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.507115279655886], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.19380209595217512], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5255572254805165], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.664290509645182], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.013586543081143817]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271277791467537], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'cabinet washer - APOS' (unit, GLO, None)", 2.391257837569505], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002079712770533373], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.002268840636507686], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07271277791467537], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114277445524482], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657611397474], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04344792098648235], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'cabinet washer - APOS' (unit, GLO, None)", 1.1956289187847524], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010398563852666864], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001134420318253843], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04344792098648235], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114277445524482], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657611397474], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07474299599746123], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'cabinet washer - APOS' (unit, GLO, None)", 2.391257837569505], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00032313265977617], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0020343332683182514], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07474299599746123], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114277445524482], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657611397474], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04466103314332658], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'cabinet washer - APOS' (unit, GLO, None)", 1.1956289187847524], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010398563852666864], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001134420318253843], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04466103314332658], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114277445524482], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657611397474], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803254142205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988016077573258], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160211213468], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403665335802184], ["'autoclave - APOS' (unit, GLO, None)", 0.056365658284072195], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10336682766020874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007781135532005043], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007559090835768382], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004941384025946101], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003492633924358508], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00042420285281352844], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011895091502925913], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.459679983644953e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.641132976625703e-05]]</t>
@@ -211,16 +211,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834165262993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.03979689081225067], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461434737988106], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328514500774294], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848742610829], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0008802900105900394], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010977134136284022], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.14411426440678507], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.09420761564079422], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936789475745447]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016172683658601], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'cabinet washer - APOS' (unit, GLO, None)", 0.057753136601294705], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019646347649030998], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00012842833952102489], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.005016172683658601], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006720618825194221], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00442916866077968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002997303646821111], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'cabinet washer - APOS' (unit, GLO, None)", 0.028876568300647353], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.823173824515499e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.421416976051244e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.002997303646821111], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006720618825194221], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00442916866077968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0051548323432003265], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'cabinet washer - APOS' (unit, GLO, None)", 0.057753136601294705], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.052525647130857e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00011515398634813174], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0051548323432003265], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006720618825194221], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00442916866077968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0030801566762962166], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'cabinet washer - APOS' (unit, GLO, None)", 0.028876568300647353], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.823173824515499e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.421416976051244e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0030801566762962166], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006720618825194221], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00442916866077968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820793076343897e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.0308532582936736e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.771669514912249e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.5167001711438661e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132229774676], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3647674114892314e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0454832326406704e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3859087411681314e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.345226265660129e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.135742139638992e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.3258759273290159e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.573773895275813e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8978797228107274e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.5711237746726995e-08]]</t>
@@ -235,16 +235,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.91521155129784e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920537680592e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406621993949417e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175118498023e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198344662015], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.876685469332256e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.826424721485942e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00045487412526934147], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010190687849887825], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266369377141e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.2873965839117975e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000213816591514358], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.201062218494461e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3892434387984293e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.2873965839117975e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581710509443e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.791149308842744e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692555099696991e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000106908295757179], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.1005311092472303e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.946217193992147e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.692555099696991e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581710509443e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.791149308842744e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.298072450121346e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000213816591514358], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.63481956013444e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.2456512369642236e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.298072450121346e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581710509443e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.791149308842744e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.756346389871466e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000106908295757179], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.1005311092472303e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.946217193992147e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.756346389871466e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581710509443e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.791149308842744e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509994796639e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.71246984587139e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423274976632e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026019891237803e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491774029565], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.394033495577143e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.517197203000857e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.0662757567277095e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.798750554098277e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456718758605e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.4573703531119156e-07], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 8.806667543890843e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.1636724573406e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.2765353207469765e-08]]</t>
@@ -259,16 +259,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013169280970719e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167730507334e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730164951759908e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.8332440933113705e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0001933573766104435], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.11136276798957e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0381986740955693e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.939360132217774e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1055333091476093e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989539968295e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.72963684458934e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'cabinet washer - APOS' (unit, GLO, None)", 9.5405786118599e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.37032465112727e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5071160246786852e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.72963684458934e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796237819123e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662049950343e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310344529083465e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'cabinet washer - APOS' (unit, GLO, None)", 4.77028930592995e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.685162325563635e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.535580123393426e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6310344529083465e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796237819123e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662049950343e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.768984392664894e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'cabinet washer - APOS' (unit, GLO, None)", 9.5405786118599e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.344071897655545e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3513405123678963e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.768984392664894e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796237819123e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662049950343e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6545457147364198e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'cabinet washer - APOS' (unit, GLO, None)", 4.77028930592995e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.685162325563635e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.535580123393426e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6545457147364198e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796237819123e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662049950343e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163223278448111], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0027284135987856333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057102158520291], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781342541652896], ["'autoclave - APOS' (unit, GLO, None)", 0.021058174772081266], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005238739786680894], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048528081645774125], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023784772908140416], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007868471958763344], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096573596587094e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0001360179025014553], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.002781161663206985], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0728235331289484e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.160048043551441e-05]]</t>
@@ -283,16 +283,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534804256993216], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762528830347858], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027315069448556766], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759452511703831], ["'autoclave - APOS' (unit, GLO, None)", 0.0315872621581219], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017373987838473154], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00021569996525430874], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04534573173164756], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015001262360490533], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035322065407152]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690659476377564], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'cabinet washer - APOS' (unit, GLO, None)", 0.021196857863795212], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.181747613026021e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.0450440259765892e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0015690659476377564], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146510345270825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052839695313015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000937560842408501], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'cabinet washer - APOS' (unit, GLO, None)", 0.010598428931897606], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0908738065130106e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0225220129882946e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000937560842408501], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146510345270825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052839695313015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0016569049325327032], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'cabinet washer - APOS' (unit, GLO, None)", 0.021196857863795212], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.604809743750306e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.833668275451649e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0016569049325327032], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146510345270825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052839695313015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000990047095646231], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'cabinet washer - APOS' (unit, GLO, None)", 0.010598428931897606], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0908738065130106e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0225220129882946e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000990047095646231], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146510345270825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052839695313015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178328460674], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05617292625753365], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01368810313351906], ["'market for corrugated board box' (kilogram, RER, None)", 0.0032036545510320813], ["'autoclave - APOS' (unit, GLO, None)", 0.6552303266668471], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06993101579191573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007174092093972467], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04244911545519958], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.021817524952248913], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0037009009636983854], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.006715400009865732], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.1678878250852133], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0020925783694543945], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.017248762312032474]]</t>
@@ -307,16 +307,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.23406901723226142], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981593104256053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.04128158004261325], ["'market for corrugated board box' (kilogram, RER, None)", 0.00966181531089436], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454900002708], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.3271596231953577], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04207300340129456], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.8092934959317674], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.41595168360576273], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01052932386940861]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.033842435140078946], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'cabinet washer - APOS' (unit, GLO, None)", 0.6530817847874218], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001103267704735728], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005670452827311621], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.033842435140078946], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.037740560424428096], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595785854301], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022180268895409], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'cabinet washer - APOS' (unit, GLO, None)", 0.3265408923937109], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.000551633852367864], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00028352264136558106], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02022180268895409], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.037740560424428096], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595785854301], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03451083729224588], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'cabinet washer - APOS' (unit, GLO, None)", 0.6530817847874218], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017141878096222675], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005084354823080692], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03451083729224588], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.037740560424428096], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595785854301], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02062119169219945], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'cabinet washer - APOS' (unit, GLO, None)", 0.3265408923937109], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.000551633852367864], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00028352264136558106], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02062119169219945], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.037740560424428096], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595785854301], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518096964451757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992225070824545], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894595793664894], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043152966339], ["'autoclave - APOS' (unit, GLO, None)", 0.059837554022526586], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028490382419783995], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007156527375484888], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.008695912331463513], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0014502532308249146], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868606096336], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0007560188476917547], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0143407888787581], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.674220113776982e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.019006253840008e-06]]</t>
@@ -331,16 +331,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536134629322894], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214689386347264], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782749082573], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750923793262855], ["'autoclave - APOS' (unit, GLO, None)", 0.08975633103378988], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.622903880522831e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.397902683884373e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.16578779594297163], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.027649115760683], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372654281909]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006760524953108564], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'cabinet washer - APOS' (unit, GLO, None)", 0.06230870168279971], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00022600987407245737], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.7692600563297515e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006760524953108564], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341425417814], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224764633289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00403960297507105], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'cabinet washer - APOS' (unit, GLO, None)", 0.031154350841399853], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011300493703622868], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.8846300281648758e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00403960297507105], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341425417814], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224764633289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006772944159882615], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'cabinet washer - APOS' (unit, GLO, None)", 0.06230870168279971], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.511598946713228e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.3796693369075086e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006772944159882615], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341425417814], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224764633289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004047023798894711], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'cabinet washer - APOS' (unit, GLO, None)", 0.031154350841399853], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011300493703622868], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.8846300281648758e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004047023798894711], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341425417814], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224764633289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207932406008272], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.001148291902275994], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957462723510336], ["'market for corrugated board box' (kilogram, RER, None)", 0.001138043570404791], ["'autoclave - APOS' (unit, GLO, None)", 0.04296488453890233], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011226742545107032], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019331240393995774], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006329522561647591], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.011240756784605052], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478380963292218e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.739842619740273e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.001287499143565877], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.41081613215163e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.9527686049524953e-06]]</t>
@@ -355,16 +355,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577497831178465], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003266971327602124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966950706942103], ["'market for corrugated board box' (kilogram, RER, None)", 0.003432194894252749], ["'autoclave - APOS' (unit, GLO, None)", 0.0644473268083535], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.600556415027267e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.857725417787913e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12067251311516616], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.21430532197362823], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001558637964331314]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001149010757073869], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'cabinet washer - APOS' (unit, GLO, None)", 0.044294200731273194], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016450655693949393], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00029215129227486353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001149010757073869], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437135828033], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559279019354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865661032032737], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'cabinet washer - APOS' (unit, GLO, None)", 0.022147100365636597], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.225327846974696e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00014607564613743177], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006865661032032737], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437135828033], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559279019354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013315670717982462], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'cabinet washer - APOS' (unit, GLO, None)", 0.044294200731273194], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.5559991767923622e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002619545347053336], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013315670717982462], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437135828033], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559279019354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007956486133919996], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'cabinet washer - APOS' (unit, GLO, None)", 0.022147100365636597], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.225327846974696e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00014607564613743177], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007956486133919996], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437135828033], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559279019354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989515327474321], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892083450511886], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014519205921922204], ["'market for corrugated board box' (kilogram, RER, None)", 3.043856745482396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.003318526024295534], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011041088028353172], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.45274644835933e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019478827056114507], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010148296024866491], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.358060276100274e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.531665131525146e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0005254160162484852], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.821610603076094e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.2140700445360995e-06]]</t>
@@ -379,16 +379,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0036956085861264967], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763392352160578], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0004378808046480016], ["'market for corrugated board box' (kilogram, RER, None)", 9.179885421228235e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789036443301], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011786311258181146], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3715407283903042e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.003713643470740982], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0019347752902823068], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.863777123867839e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00020228280579720413], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0028827848821244974], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.062616873565806e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.637578461009978e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00020228280579720413], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190064151903], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096341121766508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012086964100744488], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0014413924410622487], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.531308436782903e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.318789230504989e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00012086964100744488], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190064151903], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096341121766508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00022988608564692464], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0028827848821244974], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.865974950778841e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.3649583512799863e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00022988608564692464], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190064151903], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096341121766508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0001373633736947827], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0014413924410622487], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.531308436782903e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.318789230504989e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0001373633736947827], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190064151903], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096341121766508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942587028778399e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365173912387527e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025178791257542e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.5011792422494893e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134654874562e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6511989744616393e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.511046967028263e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.275842543897845e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6585820839561398e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.615871280411299e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0466982785052492e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.180478770094741e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.406065949265461e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9838529690177567e-09]]</t>
@@ -403,16 +403,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.5267968987779805e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078542437045465e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139427854705832e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543238983201868e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019823118436e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.762800936540721e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.837592815870448e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.245402374216884e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.162091079211981e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.597267586897023e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066366888353364e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 2.583138483679973e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.514032025699441e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.3107142024045454e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.066366888353364e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784378456397e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563191640742e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417408102079048e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 1.2915692418399865e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.2570160128497207e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1553571012022727e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.417408102079048e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784378456397e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563191640742e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.182844241281565e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 2.583138483679973e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.322856623695289e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.8651587824440115e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.182844241281565e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784378456397e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563191640742e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.4870065821794444e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 1.2915692418399865e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.2570160128497207e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1553571012022727e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.4870065821794444e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784378456397e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563191640742e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998808751290194], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083894329085643], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.563846646430212e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.221071493223657e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00026266372704495083], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014448987438596666], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.365155602597805e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.368258080212193e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.4065513148893726e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.187935482516619e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.4474714955504604e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 4.890829126148164e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.955407194765598e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.91534992433645e-07]]</t>
@@ -427,16 +427,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00048362807996628435], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0003153445992218732], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.732235761171105e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714342596859484e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00039399559056742625], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1219724739117022e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3984416298781747e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00045150902214354996], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00045880963734555705], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069900950997864e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.5971713166304412e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00026064339086917884], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.155187518889757e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.254713005921559e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.5971713166304412e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.105565362633258e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570923466984155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.5518825905088036e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00013032169543458942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0775937594448785e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.1273565029607796e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.5518825905088036e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.105565362633258e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570923466984155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.690688853863927e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00026064339086917884], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.563542343829714e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.608225869629506e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.690688853863927e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.105565362633258e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570923466984155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.607761937785823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00013032169543458942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0775937594448785e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.1273565029607796e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.607761937785823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.105565362633258e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570923466984155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637562412197], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202379605742242], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.0427775671571336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205840572272298e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00046917716330600797], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029789419280503674], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.2785561402377255e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.784673987430295e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.316375083249213e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.635631753193612e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.983674811912533e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.111001240267534e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.070526905349755e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.194737868726268e-06]]</t>
@@ -451,16 +451,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000997094067052484], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894198141352018], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001520837648175818], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747773150009857e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000703765744959012], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.95621642706766e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0194709973550895e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011028496080333718], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001204218560956513], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343628369084119e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.665079759429182e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00047574085355946627], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5034574747481476e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.641648492556405e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.665079759429182e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.1430244380154426e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661630511119925e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899877898172823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00023787042677973313], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.517287373740738e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.208242462782025e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.1899877898172823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.1430244380154426e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661630511119925e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860584027478561e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00047574085355946627], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3359774463044635e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4719677043657749e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860584027478561e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.1430244380154426e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661630511119925e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3068070647003994e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00023787042677973313], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.517287373740738e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.208242462782025e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3068070647003994e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.1430244380154426e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661630511119925e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528485713830205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017648308573057762], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431389542663e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533509457480574e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00048105680387887937], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031899212856755676], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.587741374888064e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.915239288722337e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.543744591887822e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489393409772704e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.0932532365447937e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.471644967036696e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.097637159547919e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.21871493078855e-06]]</t>
@@ -475,16 +475,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677118470695354], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021068072898124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00016715268931442921], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598089887251e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000721585205818319], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.001694047129455e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0249217361839854e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011277419168593448], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001247566617221298], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665996435762495e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 3.8604601741663786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0004877279684482972], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5373918638938124e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7007426416831302e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 3.8604601741663786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107131138849e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.86543128774266e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.306733058878095e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002438639842241486], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.686959319469062e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.503713208415651e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.306733058878095e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107131138849e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.86543128774266e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 4.068915599799846e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0004877279684482972], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.388702560935106e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5249538822387619e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 4.068915599799846e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107131138849e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.86543128774266e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.431291013090136e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002438639842241486], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.686959319469062e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.503713208415651e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.431291013090136e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107131138849e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.86543128774266e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763533032125], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398057665380524], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00035118661232934003], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510674406984e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366451036561], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010562749003077308], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9913778002566647e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005190758740718568], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00011653425732174533], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830857929533268e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.9340722831079356e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0004245227892481373], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6669548415299007e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5435373950929782e-05]]</t>
@@ -499,16 +499,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355017375668864], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503730150515], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342062047048], ["'market for corrugated board box' (kilogram, RER, None)", 0.00012734555999883686], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549676554841], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00029276483925707187], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3515493489392315e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00989619510976158], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.002221728662477394], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659623971274956e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762027434745204], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'cabinet washer - APOS' (unit, GLO, None)", 0.004000202721126463], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.349096776292901e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.0287670593021893e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006762027434745204], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987657622001], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001044545167359027], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00040405007499230716], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0020001013605632314], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.745483881464505e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5143835296510947e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00040405007499230716], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987657622001], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001044545167359027], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006790363580791568], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'cabinet washer - APOS' (unit, GLO, None)", 0.004000202721126463], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.096141523943132e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.715713696052715e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006790363580791568], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987657622001], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001044545167359027], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004057432390685421], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0020001013605632314], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.745483881464505e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5143835296510947e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004057432390685421], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987657622001], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001044545167359027], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.543912279524103e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.468603547044175e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.114265291456888e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.1510382649802027e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.429614265467404e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.562325437595488e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.702125835040508e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.7728370734278906e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7364193484619323e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.1737826363737226e-12], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.324772118934001e-12], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.9564125406369867e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.600898437357765e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.914807130645023e-11]]</t>
@@ -523,16 +523,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8617891274138997e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350936660892e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.748746619519072e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487258258294417e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.1444213982011063e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.501212244497929e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9303393292541643e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.379918515348379e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.3104880274877937e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409916798107218e-11]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.179113849150513e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 1.45212764993342e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.607667010012136e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.513016038911247e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.179113849150513e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898445913565e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251067708756e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.484777568418635e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 7.2606382496671e-10], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.303833505006068e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.2565080194556233e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.484777568418635e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898445913565e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251067708756e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.570266185768992e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 1.45212764993342e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.159102532828545e-13], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.046550701129379e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.570266185768992e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898445913565e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251067708756e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.71850204302226e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 7.2606382496671e-10], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.303833505006068e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.2565080194556233e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.71850204302226e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898445913565e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251067708756e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.05941352707176e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.4288748966945053e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3297915689772735e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.8013399028552125e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.986171292453461e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.600501498010996e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.633157766004504e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.03951842911072e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.91183201164358e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453797769651666e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.122989165913842e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.1999443575216568e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.619618824601427e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.9862283950816507e-08]]</t>
@@ -547,16 +547,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.704246936175993e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.0652497060885924e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058101292711045e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.749610446577378e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256938680193e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.664020054521064e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.277540346484242e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.151435767465598e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.457917957180302e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671368303422127e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796105831014602e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'cabinet washer - APOS' (unit, GLO, None)", 6.010848751222249e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5696924573202003e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0166991415818674e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.796105831014602e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600939008036e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338236662172e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.8658075398144417e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 3.0054243756111244e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.848462286601002e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.083495707909337e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.8658075398144417e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600939008036e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338236662172e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.944524581590156e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'cabinet washer - APOS' (unit, GLO, None)", 6.010848751222249e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.438889186771618e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.116131183079656e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.944524581590156e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600939008036e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338236662172e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.9544918994669646e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 3.0054243756111244e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.848462286601002e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.083495707909337e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.9544918994669646e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600939008036e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338236662172e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09]]</t>
   </si>
   <si>
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04813660219961103], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851068186335973], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179892206146], ["'market for corrugated board box' (kilogram, RER, None)", 0.00024889134897911904], ["'autoclave - APOS' (unit, GLO, None)", 0.011588420484181525], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040916111869669376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024680047090066366], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014113698664313403], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0015092672845465785], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894028101073202e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010414930389103977], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003285789373452846], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.004135528595501e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7044175018506254e-05]]</t>
@@ -571,16 +571,16 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13695202315945673], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199881371323756], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303081904590694], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506247031350174], ["'autoclave - APOS' (unit, GLO, None)", 0.01738263072627229], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00032327918814443785], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.029478758935984e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.026907803401992014], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.02877422023773308], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459065866855865]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0012805980642916928], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'cabinet washer - APOS' (unit, GLO, None)", 0.011721163846798993], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.668200800825273e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.922639694262805e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0012805980642916928], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817424440454], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528192349255529], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651932041171297], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'cabinet washer - APOS' (unit, GLO, None)", 0.005860581923399497], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8341004004126365e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.9613198471314026e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007651932041171297], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817424440454], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528192349255529], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05]]</t>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013343587684632348], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'cabinet washer - APOS' (unit, GLO, None)", 0.011721163846798993], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.699419160943825e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.5171956554638015e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013343587684632348], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817424440454], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528192349255529], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007973167303254631], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'cabinet washer - APOS' (unit, GLO, None)", 0.005860581923399497], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8341004004126365e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.9613198471314026e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007973167303254631], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817424440454], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528192349255529], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05]]</t>
   </si>
 </sst>
 </file>

--- a/results/sterilization_APOS/data_sterilization_APOS_recipe.xlsx
+++ b/results/sterilization_APOS/data_sterilization_APOS_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682618156178], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169126026910368], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.0439447275544905e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278809539210589e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554616046911828], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038060302254327516], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.10808294258168e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.958633557808987e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.521148852157854e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.1910656638807e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.878974089498388e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0001184451142645619], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1102745719014332e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7531192141695659e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682618156178], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169126026910368], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.0439447275544905e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278809539210589e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554616046911828], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1687461427797105e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.4068497146009556e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004639089038539325], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00036807659014385696], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.1910656638807e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739322378416168], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825839075478], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227769444014003], ["'market for corrugated board box' (kilogram, RER, None)", 2.49678382883555e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331924070367742], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010828424021653742], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7468821016420968e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0001989997960564407], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00015789127081459081], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.761401780571607e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.773023895836788e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0003369846912879085], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.364320008556511e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.987747623412004e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739322378416168], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825839075478], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227769444014003], ["'market for corrugated board box' (kilogram, RER, None)", 2.49678382883555e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331924070367742], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.325165082274669e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.242880005704341e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001326665307042938], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001052608472097272], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.761401780571607e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.879317659532859e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0007504179211765537], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.810047909953207e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.2866482269118089e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.879317659532859e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765670938724e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836062745633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 4.110584943722415e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00037520896058827687], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.042868845551588e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.174831743574952e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 4.110584943722415e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.186765670938724e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.948836062745633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16899116232056008], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05424153033399585], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788072519810728], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605163929380182], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641479603865], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14364248797247606], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00276163728642703], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0287094467357792], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017314942941912586], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014073805016609426], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0016698422120162298], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.04375099701128569], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00329596251873428], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027168737657134095]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16899116232056008], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05424153033399585], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788072519810728], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605163929380182], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641479603865], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.1811249177142273], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.021973083458228532], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.19139631157186132], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.11543295294608391], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014073805016609426]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4807917575880723], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432097362629804], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.06571005864927255], ["'market for corrugated board box' (kilogram, RER, None)", 0.007856843595126776], ["'autoclave - APOS' (unit, GLO, None)", 0.329994622194058], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40867299394986145], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008328747203046046], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08210195288846582], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0495164759796725], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0040040966388547004], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.005036031965968996], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.12447466755323534], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009940204220217777], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0772969719259308]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4807917575880723], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432097362629804], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.06571005864927255], ["'market for corrugated board box' (kilogram, RER, None)", 0.007856843595126776], ["'autoclave - APOS' (unit, GLO, None)", 0.329994622194058], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.515313146172872], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06626802813478519], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.5473463525897722], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.33010983986448333], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0040040966388547004]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018929812764116732], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.22422020791274494], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011593500379863478], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00040350733573473336], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018929812764116732], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927849841825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520105751510367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01131109321981019], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'cabinet washer - APOS' (unit, GLO, None)", 0.11211010395637247], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0003730843983998256], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002250107823288797], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01131109321981019], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.025524927849841825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015520105751510367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003889317270498961], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864545437645], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233154728965], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299884052687], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409959824359], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003305919679924117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003806470498354317], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001780146949767875], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009076479681099679], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328907272153192], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00037534711440839427], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009077474696276835], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00017305319444332158], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.001426432469155925]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003889317270498961], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864545437645], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233154728965], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299884052687], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409959824359], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009509549794372834], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0011536879629554773], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.011867646331785834], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.006050986454066452], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328907272153192]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381530151974], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095304763076116], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607565517143], ["'market for corrugated board box' (kilogram, RER, None)", 0.00042482491706149876], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114939736539], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009405574300629178], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011479831429152994], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005090782220551959], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0025956498361958433], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766750270575757], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0011319992109988192], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.025826054769689022], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.000521906448859819], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.004058300827739393]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381530151974], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095304763076116], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607565517143], ["'market for corrugated board box' (kilogram, RER, None)", 0.00042482491706149876], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114939736539], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027055338851595948], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.003479376325732127], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.03393854813701306], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017304332241305623], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766750270575757]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0018013031395995068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'cabinet washer - APOS' (unit, GLO, None)", 0.046986248548478576], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.188621406843888e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1151823290769832e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0018013031395995068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888923747063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627415849978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001076329067964634], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'cabinet washer - APOS' (unit, GLO, None)", 0.023493124274239288], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3133328201331736e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1795047784378254e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001076329067964634], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015826888923747063], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008135627415849978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093445325418], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161633058273409], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0007866001997936135], ["'market for corrugated board box' (kilogram, RER, None)", 0.00018484308273024946], ["'autoclave - APOS' (unit, GLO, None)", 0.057837415438496194], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004409029428526606], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004990236779807173], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023212739022431352], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001186897154170356], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001899856398825198], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004849102485373808], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011771128900993836], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002505812425455763], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.002065455652124451]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093445325418], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161633058273409], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0007866001997936135], ["'market for corrugated board box' (kilogram, RER, None)", 0.00018484308273024946], ["'autoclave - APOS' (unit, GLO, None)", 0.057837415438496194], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.01376970434749634], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0016705416169705085], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.015475159348287568], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00791264769446904], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001899856398825198]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646140221613], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.01184013912353843], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002372286268781744], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632652764293], ["'autoclave - APOS' (unit, GLO, None)", 0.0867561231577443], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01254399921918837], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015049920142166612], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006638272144954958], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0033942337911236752], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405225247802426], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0014624277040593133], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.03348969067606697], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0007557211923682564], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005876366784917451]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646140221613], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.01184013912353843], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002372286268781744], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632652764293], ["'autoclave - APOS' (unit, GLO, None)", 0.0867561231577443], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03917577856611634], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005038141282455043], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04425514763303305], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.022628225274157837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405225247802426]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0023321936635713834], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0592607461002075], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.373809991916084e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.7659444797310797e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0023321936635713834], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927794211358], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001063865437540731], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001393551022612951], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02963037305010375], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.016536979308288e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5423940933546794e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001393551022612951], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0020637927794211358], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001063865437540731], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023082047617], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111789863111173], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566963893679645], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345662821830286], ["'autoclave - APOS' (unit, GLO, None)", 2.3473688310973633], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30416419619740476], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02555070317820143], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0800186275108731], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.08729547481863291], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775468112290001], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0102608425353511], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.1904221044034349], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009639104441304714], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.07945929568482765]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023082047617], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111789863111173], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566963893679645], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345662821830286], ["'autoclave - APOS' (unit, GLO, None)", 2.3473688310973633], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.529728637898851], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06426069627536476], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.533457516739154], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.5819698321242194], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775468112290001]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.0180806567005096], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428988101899235], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.13440830108358484], ["'market for corrugated board box' (kilogram, RER, None)", 0.03421707834538214], ["'autoclave - APOS' (unit, GLO, None)", 3.521053246646045], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8653685581954332], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07705767469073742], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.2288335838220775], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.24964357644677732], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.013586543081143817], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.03094539749561694], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.5417642970351246], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.029070314392826264], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.22606729194838288]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.0180806567005096], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428988101899235], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.13440830108358484], ["'market for corrugated board box' (kilogram, RER, None)", 0.03421707834538214], ["'autoclave - APOS' (unit, GLO, None)", 3.521053246646045], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.507115279655886], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.19380209595217512], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5255572254805165], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.664290509645182], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.013586543081143817]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07474299599746123], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'cabinet washer - APOS' (unit, GLO, None)", 2.391257837569505], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00032313265977617], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0020343332683182514], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07474299599746123], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114277445524482], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657611397474], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04466103314332658], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'cabinet washer - APOS' (unit, GLO, None)", 1.1956289187847524], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010398563852666864], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001134420318253843], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04466103314332658], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.07114277445524482], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07824657611397474], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803254142205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988016077573258], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160211213468], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403665335802184], ["'autoclave - APOS' (unit, GLO, None)", 0.056365658284072195], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10336682766020874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007781135532005043], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007559090835768382], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004941384025946101], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003492633924358508], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00042420285281352844], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011895091502925913], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.459679983644953e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.641132976625703e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803254142205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988016077573258], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160211213468], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403665335802184], ["'autoclave - APOS' (unit, GLO, None)", 0.056365658284072195], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00030940886510838017], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.639786655763302e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.050393938905122546], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.03294256017297401], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003492633924358508]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834165262993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.03979689081225067], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461434737988106], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328514500774294], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848742610829], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29408590404735446], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002346691620844814], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.021617139661017762], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.014131142346119133], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936789475745447], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0012793419111406478], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.033842373008324426], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.646570120442603e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0001320435015885059]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834165262993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.03979689081225067], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461434737988106], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328514500774294], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848742610829], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0008802900105900394], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010977134136284022], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.14411426440678507], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.09420761564079422], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936789475745447]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0051548323432003265], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'cabinet washer - APOS' (unit, GLO, None)", 0.057753136601294705], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.052525647130857e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00011515398634813174], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0051548323432003265], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006720618825194221], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00442916866077968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0030801566762962166], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'cabinet washer - APOS' (unit, GLO, None)", 0.028876568300647353], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.823173824515499e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.421416976051244e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0030801566762962166], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006720618825194221], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00442916866077968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820793076343897e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.0308532582936736e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.771669514912249e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.5167001711438661e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132229774676], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3647674114892314e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0454832326406704e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3859087411681314e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.345226265660129e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.135742139638992e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.3258759273290159e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.573773895275813e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8978797228107274e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.5711237746726995e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820793076343897e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.0308532582936736e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.771669514912249e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.5167001711438661e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132229774676], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7140825164484664e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9319198152071517e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0001590605827445421], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.563484177106753e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.135742139638992e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.91521155129784e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920537680592e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406621993949417e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175118498023e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198344662015], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.727929818603166e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8232409379894202e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.823111879040123e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5286031774831737e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266369377141e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.998673350624826e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.322567983742453e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.739637082228912e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.315028203998384e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.91521155129784e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920537680592e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406621993949417e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175118498023e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198344662015], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.876685469332256e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.826424721485942e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00045487412526934147], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010190687849887825], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266369377141e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.298072450121346e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000213816591514358], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.63481956013444e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.2456512369642236e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.298072450121346e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581710509443e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.791149308842744e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.756346389871466e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000106908295757179], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.1005311092472303e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.946217193992147e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.756346389871466e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1212581710509443e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.791149308842744e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509994796639e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.71246984587139e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423274976632e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026019891237803e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491774029565], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.394033495577143e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.517197203000857e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.0662757567277095e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.798750554098277e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456718758605e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.4573703531119156e-07], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 8.806667543890843e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.1636724573406e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.2765353207469765e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509994796639e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.71246984587139e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423274976632e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026019891237803e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491774029565], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.851023547164651e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.442448304893733e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.3775171711518063e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.8658337027321846e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456718758605e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013169280970719e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167730507334e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730164951759908e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.8332440933113705e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0001933573766104435], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.811193888825111e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6639165830715626e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.909040198326662e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.658299963721414e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989539968295e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0426989742606827e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.5055589350224652e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5572980111433537e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2167044151984354e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013169280970719e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167730507334e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730164951759908e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.8332440933113705e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0001933573766104435], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.11136276798957e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0381986740955693e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.939360132217774e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1055333091476093e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989539968295e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.768984392664894e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'cabinet washer - APOS' (unit, GLO, None)", 9.5405786118599e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.344071897655545e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3513405123678963e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.768984392664894e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796237819123e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662049950343e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6545457147364198e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'cabinet washer - APOS' (unit, GLO, None)", 4.77028930592995e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.685162325563635e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.535580123393426e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6545457147364198e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8370796237819123e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.197662049950343e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163223278448111], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0027284135987856333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057102158520291], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781342541652896], ["'autoclave - APOS' (unit, GLO, None)", 0.021058174772081266], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005238739786680894], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048528081645774125], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0023784772908140416], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007868471958763344], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096573596587094e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0001360179025014553], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.002781161663206985], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0728235331289484e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.160048043551441e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163223278448111], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0027284135987856333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057102158520291], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781342541652896], ["'autoclave - APOS' (unit, GLO, None)", 0.021058174772081266], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.000610669869570096], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.152156887526323e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.01585651527209361], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0052456479725088954], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096573596587094e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534804256993216], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762528830347858], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027315069448556766], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759452511703831], ["'autoclave - APOS' (unit, GLO, None)", 0.0315872621581219], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014904583618444232], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014635452898282373], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0068018597597471345], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00225018935407358], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035322065407152], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004102127135199798], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.007912600788279028], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.235499478814631e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002606098175770973]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534804256993216], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762528830347858], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027315069448556766], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759452511703831], ["'autoclave - APOS' (unit, GLO, None)", 0.0315872621581219], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017373987838473154], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00021569996525430874], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04534573173164756], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.015001262360490533], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035322065407152]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0016569049325327032], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'cabinet washer - APOS' (unit, GLO, None)", 0.021196857863795212], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.604809743750306e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.833668275451649e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0016569049325327032], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146510345270825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052839695313015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000990047095646231], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'cabinet washer - APOS' (unit, GLO, None)", 0.010598428931897606], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0908738065130106e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0225220129882946e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000990047095646231], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0021146510345270825], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007052839695313015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178328460674], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05617292625753365], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01368810313351906], ["'market for corrugated board box' (kilogram, RER, None)", 0.0032036545510320813], ["'autoclave - APOS' (unit, GLO, None)", 0.6552303266668471], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06993101579191573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007174092093972467], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04244911545519958], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.021817524952248913], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0037009009636983854], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.006715400009865732], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.1678878250852133], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0020925783694543945], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.017248762312032474]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178328460674], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05617292625753365], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01368810313351906], ["'market for corrugated board box' (kilogram, RER, None)", 0.0032036545510320813], ["'autoclave - APOS' (unit, GLO, None)", 0.6552303266668471], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.11499174874688316], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.013950522463029297], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.2829941030346639], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.14545016634832608], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0037009009636983854]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.23406901723226142], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981593104256053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.04128158004261325], ["'market for corrugated board box' (kilogram, RER, None)", 0.00966181531089436], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454900002708], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1989586646474222], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021636150321309305], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12139402438976511], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.062392752540864405], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01052932386940861], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.02025279327028034], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.47765268545370543], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.006310950510194184], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04907394347930365]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.23406901723226142], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981593104256053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.04128158004261325], ["'market for corrugated board box' (kilogram, RER, None)", 0.00966181531089436], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454900002708], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.3271596231953577], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04207300340129456], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.8092934959317674], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.41595168360576273], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01052932386940861]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03451083729224588], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'cabinet washer - APOS' (unit, GLO, None)", 0.6530817847874218], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017141878096222675], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005084354823080692], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03451083729224588], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.037740560424428096], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595785854301], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02062119169219945], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'cabinet washer - APOS' (unit, GLO, None)", 0.3265408923937109], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.000551633852367864], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00028352264136558106], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02062119169219945], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.037740560424428096], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01955595785854301], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518096964451757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992225070824545], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894595793664894], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043152966339], ["'autoclave - APOS' (unit, GLO, None)", 0.059837554022526586], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028490382419783995], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007156527375484888], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.008695912331463513], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0014502532308249146], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868606096336], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0007560188476917547], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0143407888787581], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.674220113776982e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.019006253840008e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518096964451757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992225070824545], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894595793664894], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043152966339], ["'autoclave - APOS' (unit, GLO, None)", 0.059837554022526586], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.679337502560005e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.1161467425179882e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.05797274887642342], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.009668354872166097], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868606096336]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536134629322894], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214689386347264], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782749082573], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750923793262855], ["'autoclave - APOS' (unit, GLO, None)", 0.08975633103378988], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008105714434924461], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00215831773618643], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.024868169391445746], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0041473673641024495], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372654281909], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0022800567960571576], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.040800554274776565], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.409685402582656e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1434355820784247e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536134629322894], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214689386347264], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782749082573], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750923793262855], ["'autoclave - APOS' (unit, GLO, None)", 0.08975633103378988], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.622903880522831e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.397902683884373e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.16578779594297163], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.027649115760683], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372654281909]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006772944159882615], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'cabinet washer - APOS' (unit, GLO, None)", 0.06230870168279971], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.511598946713228e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.3796693369075086e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006772944159882615], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341425417814], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224764633289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004047023798894711], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'cabinet washer - APOS' (unit, GLO, None)", 0.031154350841399853], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011300493703622868], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.8846300281648758e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004047023798894711], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007731341425417814], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012999224764633289], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207932406008272], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.001148291902275994], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957462723510336], ["'market for corrugated board box' (kilogram, RER, None)", 0.001138043570404791], ["'autoclave - APOS' (unit, GLO, None)", 0.04296488453890233], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011226742545107032], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019331240393995774], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006329522561647591], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.011240756784605052], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478380963292218e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.739842619740273e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.001287499143565877], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.41081613215163e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.9527686049524953e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207932406008272], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.001148291902275994], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957462723510336], ["'market for corrugated board box' (kilogram, RER, None)", 0.001138043570404791], ["'autoclave - APOS' (unit, GLO, None)", 0.04296488453890233], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9685124033016634e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.27387742143442e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.042196817077650606], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07493837856403368], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478380963292218e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577497831178465], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003266971327602124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966950706942103], ["'market for corrugated board box' (kilogram, RER, None)", 0.003432194894252749], ["'autoclave - APOS' (unit, GLO, None)", 0.0644473268083535], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031940873156501696], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005830056508659369], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.018100876967274925], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.032145798296044234], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001558637964331314], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00023342382031124741], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003663025732398692], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.028658812668187e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.4008346225409e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577497831178465], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003266971327602124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966950706942103], ["'market for corrugated board box' (kilogram, RER, None)", 0.003432194894252749], ["'autoclave - APOS' (unit, GLO, None)", 0.0644473268083535], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.600556415027267e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.857725417787913e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.12067251311516616], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.21430532197362823], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001558637964331314]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013315670717982462], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'cabinet washer - APOS' (unit, GLO, None)", 0.044294200731273194], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.5559991767923622e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002619545347053336], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013315670717982462], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437135828033], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559279019354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007956486133919996], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'cabinet washer - APOS' (unit, GLO, None)", 0.022147100365636597], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.225327846974696e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00014607564613743177], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007956486133919996], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005627437135828033], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010075559279019354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989515327474321], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892083450511886], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014519205921922204], ["'market for corrugated board box' (kilogram, RER, None)", 3.043856745482396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.003318526024295534], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011041088028353172], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.45274644835933e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00019478827056114507], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00010148296024866491], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.358060276100274e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.531665131525146e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0005254160162484852], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.821610603076094e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.2140700445360995e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989515327474321], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892083450511886], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014519205921922204], ["'market for corrugated board box' (kilogram, RER, None)", 3.043856745482396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.003318526024295534], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.1427133630240664e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.54774040205073e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0012985884704076337], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0006765530683244327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.358060276100274e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0036956085861264967], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763392352160578], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0004378808046480016], ["'market for corrugated board box' (kilogram, RER, None)", 9.179885421228235e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789036443301], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003141267298207522], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002850828236199528], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005570465206111474], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.000290216293542346], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.863777123867839e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010651053355504625], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0014948455673548453], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0573110925854562e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7679466887271718e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0036956085861264967], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763392352160578], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0004378808046480016], ["'market for corrugated board box' (kilogram, RER, None)", 9.179885421228235e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789036443301], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011786311258181146], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3715407283903042e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.003713643470740982], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0019347752902823068], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.863777123867839e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00022988608564692464], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0028827848821244974], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.865974950778841e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.3649583512799863e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00022988608564692464], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190064151903], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096341121766508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0001373633736947827], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0014413924410622487], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.531308436782903e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.318789230504989e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0001373633736947827], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017318190064151903], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.096341121766508e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942587028778399e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365173912387527e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025178791257542e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.5011792422494893e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134654874562e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6511989744616393e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.511046967028263e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.275842543897845e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6585820839561398e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.615871280411299e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0466982785052492e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.180478770094741e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.406065949265461e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9838529690177567e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942587028778399e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365173912387527e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025178791257542e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.5011792422494893e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134654874562e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3225686460118377e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.604043966176974e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.1838950292652302e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1057213893040932e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.615871280411299e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.5267968987779805e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078542437045465e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139427854705832e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543238983201868e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019823118436e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.697777363961283e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.557125681262195e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.368103561325328e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.743136618817971e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.597267586897023e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.1567090299582873e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 6.203615655762501e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.256389223805671e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.6442014048110814e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.5267968987779805e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078542437045465e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139427854705832e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543238983201868e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019823118436e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.762800936540721e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.837592815870448e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.245402374216884e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.162091079211981e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.597267586897023e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.182844241281565e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 2.583138483679973e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.322856623695289e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.8651587824440115e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.182844241281565e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784378456397e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563191640742e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.4870065821794444e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 1.2915692418399865e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.2570160128497207e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1553571012022727e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.4870065821794444e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.9124784378456397e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4866563191640742e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998808751290194], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083894329085643], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.563846646430212e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.221071493223657e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00026266372704495083], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014448987438596666], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.365155602597805e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.368258080212193e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.4065513148893726e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.187935482516619e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.4474714955504604e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 4.890829126148164e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.955407194765598e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.91534992433645e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998808751290194], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083894329085643], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.563846646430212e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.221071493223657e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00026266372704495083], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.9435666162243e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.6369381298437325e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00015788387201414621], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00016043675432595816], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.187935482516619e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00048362807996628435], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0003153445992218732], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.732235761171105e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714342596859484e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00039399559056742625], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00041108386797134174], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.316475472527912e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.77263533215325e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.882144560183356e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069900950997864e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.381263091024474e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00013914753288477873], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0976624448172618e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6829587108675533e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00048362807996628435], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0003153445992218732], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.732235761171105e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714342596859484e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00039399559056742625], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1219724739117022e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3984416298781747e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00045150902214354996], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00045880963734555705], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069900950997864e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.690688853863927e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00026064339086917884], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.563542343829714e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.608225869629506e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.690688853863927e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.105565362633258e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570923466984155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.607761937785823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00013032169543458942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.0775937594448785e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.1273565029607796e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.607761937785823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.105565362633258e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.1570923466984155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637562412197], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202379605742242], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.0427775671571336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205840572272298e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00046917716330600797], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029789419280503674], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.2785561402377255e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.784673987430295e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.316375083249213e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.635631753193612e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.983674811912533e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.111001240267534e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.070526905349755e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.194737868726268e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637562412197], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202379605742242], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.0427775671571336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205840572272298e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00046917716330600797], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.796491912484178e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3803512702331703e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.000385644932495353], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0004210916722166142], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.635631753193612e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000997094067052484], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894198141352018], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001520837648175818], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747773150009857e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000703765744959012], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008475299569946116], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1951200613187538e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00016542744120500577], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00018063278414347694], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343628369084119e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.998384171103948e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00020231299303296362], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.529206496032634e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1934324640601491e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000997094067052484], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894198141352018], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001520837648175818], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747773150009857e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000703765744959012], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.95621642706766e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0194709973550895e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011028496080333718], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001204218560956513], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343628369084119e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860584027478561e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00047574085355946627], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3359774463044635e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4719677043657749e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860584027478561e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.1430244380154426e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661630511119925e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3068070647003994e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00023787042677973313], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.517287373740738e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.208242462782025e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3068070647003994e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.1430244380154426e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.661630511119925e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528485713830205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017648308573057762], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431389542663e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533509457480574e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00048105680387887937], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031899212856755676], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.587741374888064e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.915239288722337e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.543744591887822e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489393409772704e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.0932532365447937e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.471644967036696e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.097637159547919e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.21871493078855e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528485713830205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017648308573057762], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431389542663e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533509457480574e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00048105680387887937], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8124766205256997e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.398424773031946e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00039434928591482247], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00043624963945918806], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489393409772704e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677118470695354], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021068072898124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00016715268931442921], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598089887251e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000721585205818319], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009075550700091052], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2883664000386658e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0001691612875289017], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001871349925831947], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665996435762495e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 9.328858778379732e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00021257356103400175], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.537382604275978e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2002541070694182e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677118470695354], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021068072898124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00016715268931442921], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598089887251e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000721585205818319], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.001694047129455e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0249217361839854e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0011277419168593448], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001247566617221298], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665996435762495e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 4.068915599799846e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0004877279684482972], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.388702560935106e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5249538822387619e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 4.068915599799846e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107131138849e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.86543128774266e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.431291013090136e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002438639842241486], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.686959319469062e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.503713208415651e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.431291013090136e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.259107131138849e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.86543128774266e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763533032125], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398057665380524], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00035118661232934003], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510674406984e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366451036561], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010562749003077308], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9913778002566647e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005190758740718568], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00011653425732174533], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830857929533268e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.9340722831079356e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0004245227892481373], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6669548415299007e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5435373950929782e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763533032125], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398057665380524], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00035118661232934003], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510674406984e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366451036561], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010290249300619854], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1113032276866005e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0034605058271457117], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007768950488116355], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830857929533268e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355017375668864], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503730150515], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342062047048], ["'market for corrugated board box' (kilogram, RER, None)", 0.00012734555999883686], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549676554841], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0030051764769318534], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.021615405321997e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014844292664642372], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0003332592993716091], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659623971274956e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.832916291213947e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0012077972313820245], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.027324023408846e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.391472588856078e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355017375668864], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503730150515], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342062047048], ["'market for corrugated board box' (kilogram, RER, None)", 0.00012734555999883686], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549676554841], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00029276483925707187], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3515493489392315e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00989619510976158], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.002221728662477394], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659623971274956e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006790363580791568], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'cabinet washer - APOS' (unit, GLO, None)", 0.004000202721126463], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.096141523943132e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.715713696052715e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006790363580791568], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987657622001], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001044545167359027], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004057432390685421], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0020001013605632314], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.745483881464505e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5143835296510947e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004057432390685421], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0004614987657622001], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0001044545167359027], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.543912279524103e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.468603547044175e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.114265291456888e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.1510382649802027e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.429614265467404e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.562325437595488e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.702125835040508e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.7728370734278906e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.7364193484619323e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.1737826363737226e-12], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.324772118934001e-12], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.9564125406369867e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.600898437357765e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.914807130645023e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.543912279524103e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.468603547044175e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.114265291456888e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.1510382649802027e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.429614265467404e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.276538087096682e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.40059895823851e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.1818913822852604e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1576128989746215e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.1737826363737226e-12]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8617891274138997e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350936660892e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.748746619519072e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487258258294417e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.1444213982011063e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5825207583018149e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.133395271530214e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.069877773022569e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.965732041231691e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409916798107218e-11], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.5106455088195845e-11], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 5.566131453643258e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.895508993881246e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.2518183667468934e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8617891274138997e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350936660892e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.748746619519072e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487258258294417e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.1444213982011063e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.501212244497929e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9303393292541643e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.379918515348379e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.3104880274877937e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409916798107218e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.570266185768992e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 1.45212764993342e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.159102532828545e-13], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.046550701129379e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.570266185768992e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898445913565e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251067708756e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.71850204302226e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 7.2606382496671e-10], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.303833505006068e-12], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.2565080194556233e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.71850204302226e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5761898445913565e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5564251067708756e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.05941352707176e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.4288748966945053e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3297915689772735e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.8013399028552125e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.986171292453461e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.600501498010996e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.633157766004504e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.03951842911072e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.91183201164358e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453797769651666e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.122989165913842e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.1999443575216568e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.619618824601427e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.9862283950816507e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.05941352707176e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.4288748966945053e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3297915689772735e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.8013399028552125e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.986171292453461e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9908189300544337e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.4130792164009513e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.0263456194071466e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.6078880077623866e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453797769651666e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.704246936175993e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.0652497060885924e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058101292711045e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.749610446577378e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256938680193e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.398609895749594e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.6036507020837965e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.727153651198397e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.1186876935770452e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671368303422127e-08], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.545028447310817e-08], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 3.4139262002728827e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0916310519726363e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.496030081781597e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.704246936175993e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.0652497060885924e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058101292711045e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.749610446577378e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256938680193e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.664020054521064e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.277540346484242e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.151435767465598e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.457917957180302e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671368303422127e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.944524581590156e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'cabinet washer - APOS' (unit, GLO, None)", 6.010848751222249e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.438889186771618e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.116131183079656e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.944524581590156e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600939008036e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338236662172e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.9544918994669646e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 3.0054243756111244e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.848462286601002e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.083495707909337e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.9544918994669646e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.369600939008036e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.506338236662172e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04813660219961103], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851068186335973], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179892206146], ["'market for corrugated board box' (kilogram, RER, None)", 0.00024889134897911904], ["'autoclave - APOS' (unit, GLO, None)", 0.011588420484181525], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040916111869669376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024680047090066366], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014113698664313403], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0015092672845465785], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894028101073202e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010414930389103977], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003285789373452846], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.004135528595501e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7044175018506254e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04813660219961103], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851068186335973], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179892206146], ["'market for corrugated board box' (kilogram, RER, None)", 0.00024889134897911904], ["'autoclave - APOS' (unit, GLO, None)", 0.011588420484181525], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011362783345670837], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3360903523970008e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.009409132442875603], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.010061781896977191], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894028101073202e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13695202315945673], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199881371323756], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303081904590694], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506247031350174], ["'autoclave - APOS' (unit, GLO, None)", 0.01738263072627229], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11640921968553822], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007443188654161671], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.004036170510298802], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004316133035659962], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459065866855865], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0003141010688641027], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009348302161091195], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.0442181384039754e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.849187822166568e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13695202315945673], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199881371323756], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303081904590694], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506247031350174], ["'autoclave - APOS' (unit, GLO, None)", 0.01738263072627229], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00032327918814443785], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.029478758935984e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.026907803401992014], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.02877422023773308], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459065866855865]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013343587684632348], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'cabinet washer - APOS' (unit, GLO, None)", 0.011721163846798993], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.699419160943825e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.5171956554638015e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013343587684632348], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817424440454], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528192349255529], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007973167303254631], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'cabinet washer - APOS' (unit, GLO, None)", 0.005860581923399497], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8341004004126365e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.9613198471314026e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007973167303254631], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001254817424440454], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0013528192349255529], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682618156178], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169126026910368], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.0439447275544905e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278809539210589e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554616046911828], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038060302254327516], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.10808294258168e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.1180848421726115e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.43557833084262e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.1910656638807e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.878974089498388e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0001184451142645619], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1102745719014332e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7531192141695659e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004477682618156178], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00020169126026910368], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.0439447275544905e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.278809539210589e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0007554616046911828], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1687461427797105e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.4068497146009556e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.45389894781741e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00029570522205617467], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.1910656638807e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739322378416168], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825839075478], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227769444014003], ["'market for corrugated board box' (kilogram, RER, None)", 2.49678382883555e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331924070367742], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010828424021653742], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7468821016420968e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.198778939801833e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00012689944465995752], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.761401780571607e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.773023895836788e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0003369846912879085], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.364320008556511e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.987747623412004e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012739322378416168], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.000573825839075478], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00018227769444014003], ["'market for corrugated board box' (kilogram, RER, None)", 2.49678382883555e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.0011331924070367742], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.325165082274669e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.242880005704341e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00021325192932012237], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0008459962974408049], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.761401780571607e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.879317659532859e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0007504179211765537], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.876985385099525e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.446228933108481e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0004896365869048969], ["'alubox production - APOS' (kilogram, GLO, None)", 6.879317659532859e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.940020184600451e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0015109232093823656], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.6823710672532414e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 4.913610539075635e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00020871975842193786], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.578567764333376e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.1270093255304626e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.470982839966579e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.938806853999746e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 4.110584943722415e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00037520896058827687], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.3849269254976e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.7231144665542407e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0002925715720130844], ["'alubox production - APOS' (kilogram, GLO, None)", 4.110584943722415e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.970010092300226e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0010072821395882437], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.6027918273622095e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.9360198933758237e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012471590045528695], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.289283882166688e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.1176243986049678e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.433751695301036e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1584913890801342e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0002306418858824144], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.1009455344332975e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.796795153191964e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16899116232056008], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05424153033399585], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788072519810728], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605163929380182], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641479603865], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14364248797247606], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00276163728642703], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00461291673943866], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.013910471854586399], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014073805016609426], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0016698422120162298], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.04375099701128569], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00329596251873428], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027168737657134095]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16899116232056008], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05424153033399585], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.021788072519810728], ["'market for corrugated board box' (kilogram, RER, None)", 0.002605163929380182], ["'autoclave - APOS' (unit, GLO, None)", 0.21999641479603865], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.1811249177142273], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.021973083458228532], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.030752778262924402], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.092736479030576], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0014073805016609426]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4807917575880723], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432097362629804], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.06571005864927255], ["'market for corrugated board box' (kilogram, RER, None)", 0.007856843595126776], ["'autoclave - APOS' (unit, GLO, None)", 0.329994622194058], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40867299394986145], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008328747203046046], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.01319729984757071], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.03979709119396039], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0040040966388547004], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.005036031965968996], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.12447466755323534], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009940204220217777], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0772969719259308]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4807917575880723], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15432097362629804], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.06571005864927255], ["'market for corrugated board box' (kilogram, RER, None)", 0.007856843595126776], ["'autoclave - APOS' (unit, GLO, None)", 0.329994622194058], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.515313146172872], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06626802813478519], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08798199898380481], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.2653139412014178], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0040040966388547004]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018929812764116732], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.22422020791274494], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.743935858912777e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00023352210302897617], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.10879393490286905], ["'alubox production - APOS' (kilogram, GLO, None)", 0.018929812764116732], ["'market for polysulfone' (kilogram, GLO, None)", 0.002603516295430551], ["'autoclave - APOS' (unit, GLO, None)", 0.4399928295920773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0016554778717210675], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0038942485727800277], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.04479072079836218], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000749363604196765], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.004649736752660803], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.014021504371872755], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0004407381718990626], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01131109321981019], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'cabinet washer - APOS' (unit, GLO, None)", 0.11211010395637247], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.871967929456378e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00011676105151448809], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.06500742267081439], ["'alubox production - APOS' (kilogram, GLO, None)", 0.01131109321981019], ["'market for polysulfone' (kilogram, GLO, None)", 0.0013017581477152754], ["'autoclave - APOS' (unit, GLO, None)", 0.2933285530613849], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0009891943868491654], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0023269225732293177], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.026763709955606917], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003746818020983825], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.004611017073366251], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.013904743320358267], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0002633534000205525], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.05020245828086812], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03281391828151993], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0015135277294962052]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003889317270498961], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864545437645], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233154728965], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299884052687], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409959824359], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003305919679924117], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003806470498354317], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00028602674718252564], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007291858573616305], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328907272153192], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00037534711440839427], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009077474696276835], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00017305319444332158], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.001426432469155925]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003889317270498961], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003196864545437645], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005916233154728965], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014086299884052687], ["'autoclave - APOS' (unit, GLO, None)", 0.04583409959824359], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009509549794372834], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0011536879629554773], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0019068449812168378], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004861239049077537], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00014328907272153192]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381530151974], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095304763076116], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607565517143], ["'market for corrugated board box' (kilogram, RER, None)", 0.00042482491706149876], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114939736539], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009405574300629178], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011479831429152994], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0008183067157315394], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0020861604384181287], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766750270575757], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0011319992109988192], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.025826054769689022], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.000521906448859819], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.004058300827739393]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.011065381530151974], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.009095304763076116], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017842607565517143], ["'market for corrugated board box' (kilogram, RER, None)", 0.00042482491706149876], ["'autoclave - APOS' (unit, GLO, None)", 0.06875114939736539], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.027055338851595948], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.003479376325732127], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.005455378104876934], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.013907736251316498], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00040766750270575757]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0018013031395995068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'cabinet washer - APOS' (unit, GLO, None)", 0.046986248548478576], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.8016751856320655e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.2241210556342984e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.004540664185606405], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0018013031395995068], ["'market for polysulfone' (kilogram, GLO, None)", 9.050920011858679e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.09166819919648718], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.0968122508731503e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00388067610137694], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.004775867590732636], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.793261230669268e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0002883097948090104], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007350061733191929], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.487270065903915e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001076329067964634], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'cabinet washer - APOS' (unit, GLO, None)", 0.023493124274239288], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.4008375928160264e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.120605278171492e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002713174003527659], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001076329067964634], ["'market for polysulfone' (kilogram, GLO, None)", 4.5254600059293396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.06111213279765812], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.447960043298864e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.002318812641494834], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.002853714624512703], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.896630615334634e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00028590895721619506], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0007288855680410214], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.6812695246575673e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002052643569064222], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017228816615911698], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.66783103476811e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093445325418], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161633058273409], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0007866001997936135], ["'market for corrugated board box' (kilogram, RER, None)", 0.00018484308273024946], ["'autoclave - APOS' (unit, GLO, None)", 0.057837415438496194], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004409029428526606], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004990236779807173], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0003729728175895076], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009535289554671628], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001899856398825198], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004849102485373808], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011771128900993836], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002505812425455763], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.002065455652124451]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.005187093445325418], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.004161633058273409], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0007866001997936135], ["'market for corrugated board box' (kilogram, RER, None)", 0.00018484308273024946], ["'autoclave - APOS' (unit, GLO, None)", 0.057837415438496194], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.01376970434749634], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0016705416169705085], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002486485450596717], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0063568597031144185], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001899856398825198]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646140221613], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.01184013912353843], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002372286268781744], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632652764293], ["'autoclave - APOS' (unit, GLO, None)", 0.0867561231577443], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01254399921918837], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015049920142166612], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010670546178817453], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0027279936434576662], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405225247802426], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0014624277040593133], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.03348969067606697], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0007557211923682564], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005876366784917451]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.014757646140221613], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.01184013912353843], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002372286268781744], ["'market for corrugated board box' (kilogram, RER, None)", 0.0005574632652764293], ["'autoclave - APOS' (unit, GLO, None)", 0.0867561231577443], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.03917577856611634], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.005038141282455043], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007113697452544975], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01818662428343529], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0005405225247802426]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0023321936635713834], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0592607461002075], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.2612826974253875e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6007371231357518e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.005985809529876114], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0023321936635713834], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011759899886528852], ["'autoclave - APOS' (unit, GLO, None)", 0.11567483087699239], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.27379675197399e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.004962173836167474], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005990295404377197], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.051402404247467e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00037594986331802356], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009611399640179649], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.949629365340467e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001393551022612951], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'cabinet washer - APOS' (unit, GLO, None)", 0.02963037305010375], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.1306413487126853e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.003685615678759e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0035766888152639433], ["'alubox production - APOS' (kilogram, GLO, None)", 0.001393551022612951], ["'market for polysulfone' (kilogram, GLO, None)", 5.879949943264426e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07711655391799492], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.346297248089514e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0029650378233105766], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.003579369250896688], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.5257012021237334e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00037281922196931173], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009531362784022861], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.555070157579574e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.002240024414781224], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0024947348063077794], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.869017357398404e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023082047617], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111789863111173], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566963893679645], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345662821830286], ["'autoclave - APOS' (unit, GLO, None)", 2.3473688310973633], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30416419619740476], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02555070317820143], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.01285706651573323], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07013140323771788], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775468112290001], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0102608425353511], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.1904221044034349], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.009639104441304714], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.07945929568482765]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.35784023082047617], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.26111789863111173], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.044566963893679645], ["'market for corrugated board box' (kilogram, RER, None)", 0.011345662821830286], ["'autoclave - APOS' (unit, GLO, None)", 2.3473688310973633], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.529728637898851], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.06426069627536476], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.08571377677155488], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.4675426882514526], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.004775468112290001]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.0180806567005096], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428988101899235], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.13440830108358484], ["'market for corrugated board box' (kilogram, RER, None)", 0.03421707834538214], ["'autoclave - APOS' (unit, GLO, None)", 3.521053246646045], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8653685581954332], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07705767469073742], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.03678335672473911], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.20064206875136611], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.013586543081143817], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.03094539749561694], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.5417642970351246], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.029070314392826264], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.22606729194838288]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.0180806567005096], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.7428988101899235], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.13440830108358484], ["'market for corrugated board box' (kilogram, RER, None)", 0.03421707834538214], ["'autoclave - APOS' (unit, GLO, None)", 3.521053246646045], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.507115279655886], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.19380209595217512], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.2452223781649276], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3376137912137018], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.013586543081143817]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07474299599746123], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'cabinet washer - APOS' (unit, GLO, None)", 2.391257837569505], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00021583805660392032], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0011773312180668636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.12275725088434625], ["'alubox production - APOS' (kilogram, GLO, None)", 0.07474299599746123], ["'market for polysulfone' (kilogram, GLO, None)", 0.008110340206142416], ["'autoclave - APOS' (unit, GLO, None)", 4.6947376621947265], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.03153861895870568], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.34033910078254365], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.09209308328419093], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.0003997203749878039], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.012959690817416353], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0706911877169008], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001495495413847947], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04466103314332658], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'cabinet washer - APOS' (unit, GLO, None)", 1.1956289187847524], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00010791902830195988], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005886656090334318], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.07335089498574109], ["'alubox production - APOS' (kilogram, GLO, None)", 0.04466103314332658], ["'market for polysulfone' (kilogram, GLO, None)", 0.004055170103071208], ["'autoclave - APOS' (unit, GLO, None)", 3.129825108129818], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.018845208006611682], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.20336214326403826], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05502819615320331], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.00019986018749390194], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.012851771789114423], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.07010252210786737], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008936003892174735], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.12111377992974776], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.09596492182364787], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.0002950255512293384]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803254142205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988016077573258], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160211213468], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403665335802184], ["'autoclave - APOS' (unit, GLO, None)", 0.056365658284072195], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10336682766020874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007781135532005043], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0012145638671537762], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.003969807099348921], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003492633924358508], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00042420285281352844], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.011895091502925913], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.459679983644953e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.641132976625703e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.12160803254142205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.013988016077573258], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013416160211213468], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007403665335802184], ["'autoclave - APOS' (unit, GLO, None)", 0.056365658284072195], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00030940886510838017], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.639786655763302e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.008097092447691842], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.026465380662326142], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003492633924358508]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834165262993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.03979689081225067], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461434737988106], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328514500774294], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848742610829], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29408590404735446], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002346691620844814], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.003474800098127062], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.011357398714201834], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936789475745447], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0012793419111406478], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.033842373008324426], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.646570120442603e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0001320435015885059]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3459834165262993], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.03979689081225067], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.040461434737988106], ["'market for corrugated board box' (kilogram, RER, None)", 0.0022328514500774294], ["'autoclave - APOS' (unit, GLO, None)", 0.08454848742610829], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0008802900105900394], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010977134136284022], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.023165333987513765], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0757159914018565], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0009936789475745447]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0051548323432003265], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'cabinet washer - APOS' (unit, GLO, None)", 0.057753136601294705], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.038949587660766e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.664315288152267e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02298154846145394], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0051548323432003265], ["'market for polysulfone' (kilogram, GLO, None)", 0.0012730291171368345], ["'autoclave - APOS' (unit, GLO, None)", 0.11273131656814439], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0005208426773001819], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0010836718516666292], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.009695591791322167], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.4958310206580567e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0012242584400614983], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004001493851602162], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00010937604216611957], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0030801566762962166], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'cabinet washer - APOS' (unit, GLO, None)", 0.028876568300647353], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.0194747938303803e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.3321576440761337e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.013732118760088546], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0030801566762962166], ["'market for polysulfone' (kilogram, GLO, None)", 0.0006365145585684172], ["'autoclave - APOS' (unit, GLO, None)", 0.07515421104542959], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0003112180848912247], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0006475242775311994], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005793387601844494], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.2479155103290283e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0012140636921231973], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0039681722751614005], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.535524813093724e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.02757611851530734], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.4355439968830205e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.383455910649532e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820793076343897e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.0308532582936736e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.771669514912249e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.5167001711438661e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132229774676], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3647674114892314e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0454832326406704e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.833580797358679e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.294245714485044e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.135742139638992e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.3258759273290159e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.573773895275813e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8978797228107274e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.5711237746726995e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.7820793076343897e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.0308532582936736e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.771669514912249e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.5167001711438661e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00021722132229774676], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7140825164484664e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9319198152071517e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.555720531572453e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.862830476323363e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.135742139638992e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.91521155129784e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920537680592e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406621993949417e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175118498023e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198344662015], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.727929818603166e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8232409379894202e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.0967662789159356e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.2285599661544782e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266369377141e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.998673350624826e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.322567983742453e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.739637082228912e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.315028203998384e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.91521155129784e-05], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 5.777920537680592e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.7406621993949417e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.574175118498023e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00032583198344662015], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.876685469332256e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.826424721485942e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.311775192772909e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.190399771533853e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.231266369377141e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.298072450121346e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000213816591514358], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.435625328090765e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.208966745718866e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.401088951578398e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 1.298072450121346e-05], ["'market for polysulfone' (kilogram, GLO, None)", 7.228334899883678e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0004344426445954935], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1736799652498354e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 5.467509668945441e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.4677620472350228e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6535761186576152e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.864180199780167e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.328522115494994e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.5567134387784224e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.756346389871466e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'cabinet washer - APOS' (unit, GLO, None)", 0.000106908295757179], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.217812664045374e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.604483372859433e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.032245889568089e-05], ["'alubox production - APOS' (kilogram, GLO, None)", 7.756346389871466e-06], ["'market for polysulfone' (kilogram, GLO, None)", 3.614167449941839e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.000289628429730329], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.013066459024696e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.2669901343602154e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.770289250956278e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.267880593288076e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.8320020731397224e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.292477281766399e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.1252358808975695e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 2.029504581319918e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8850688645118978e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9523612826370633e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509994796639e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.71246984587139e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423274976632e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026019891237803e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491774029565], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.394033495577143e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.517197203000857e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.320007562049886e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.6585978738224706e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456718758605e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.4573703531119156e-07], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 8.806667543890843e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.1636724573406e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.2765353207469765e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.816509994796639e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.71246984587139e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.868423274976632e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.6026019891237803e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00012890491774029565], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.851023547164651e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.442448304893733e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.213338374699924e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.1057319158816474e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.019456718758605e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013169280970719e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167730507334e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730164951759908e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.8332440933113705e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0001933573766104435], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.811193888825111e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6639165830715626e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.498358146803744e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3327991052968872e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989539968295e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0426989742606827e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.5055589350224652e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5572980111433537e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2167044151984354e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.013169280970719e-06], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.717167730507334e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.3730164951759908e-06], ["'market for corrugated board box' (kilogram, RER, None)", 4.8332440933113705e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0001933573766104435], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.11136276798957e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0381986740955693e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.3322387645358344e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.88532736557652e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5660989539968295e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.768984392664894e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'cabinet washer - APOS' (unit, GLO, None)", 9.5405786118599e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.573464049721457e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.82062308190254e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.7466860569801634e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 2.768984392664894e-06], ["'market for polysulfone' (kilogram, GLO, None)", 1.2009010434000354e-07], ["'autoclave - APOS' (unit, GLO, None)", 0.0002578098354805913], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.640461352019145e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.686070247107967e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.372231528417174e-06], ["'plastic incineration - APOS' (kilogram, CH, None)", 6.7758439442676694e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.3465076549926363e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.695782511005345e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.824551612770653e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6545457147364198e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'cabinet washer - APOS' (unit, GLO, None)", 4.77028930592995e-05], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.786732024860721e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.91031154095127e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.6412218347424924e-06], ["'alubox production - APOS' (kilogram, GLO, None)", 1.6545457147364198e-06], ["'market for polysulfone' (kilogram, GLO, None)", 6.004505217000177e-08], ["'autoclave - APOS' (unit, GLO, None)", 0.00017187322365372755], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.772805605088301e-08], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0074741878238798e-07], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.199467649522475e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.3879219721338347e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.3186403347440365e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.6566793955958316e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6877486865989981e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 8.807196817382656e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.140845051623292e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.666060294466588e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163223278448111], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0027284135987856333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057102158520291], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781342541652896], ["'autoclave - APOS' (unit, GLO, None)", 0.021058174772081266], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005238739786680894], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048528081645774125], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0003821640246204147], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0006321369818437856], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096573596587094e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0001360179025014553], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.002781161663206985], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0728235331289484e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.160048043551441e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006163223278448111], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0027284135987856333], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009057102158520291], ["'market for corrugated board box' (kilogram, RER, None)", 0.00015781342541652896], ["'autoclave - APOS' (unit, GLO, None)", 0.021058174772081266], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.000610669869570096], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.152156887526323e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.002547760164136098], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.004214246545625237], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.096573596587094e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534804256993216], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762528830347858], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027315069448556766], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759452511703831], ["'autoclave - APOS' (unit, GLO, None)", 0.0315872621581219], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014904583618444232], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014635452898282373], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010933501532229583], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0018085089691057081], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035322065407152], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0004102127135199798], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.007912600788279028], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.235499478814631e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0002606098175770973]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.017534804256993216], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.007762528830347858], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027315069448556766], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004759452511703831], ["'autoclave - APOS' (unit, GLO, None)", 0.0315872621581219], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0017373987838473154], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00021569996525430874], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.007289001021486394], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.012056726456539784], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00023035322065407152]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0016569049325327032], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'cabinet washer - APOS' (unit, GLO, None)", 0.021196857863795212], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.415580122967029e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.0612002162520437e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.02174716490370648], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0016569049325327032], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011911045453520447], ["'autoclave - APOS' (unit, GLO, None)", 0.04211634954416253], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 8.548884693100405e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0005548137784417793], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00915697645294773], ["'plastic incineration - APOS' (kilogram, CH, None)", 7.576165373575673e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00038521443398923055], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0006371826597400946], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5355396365052867e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000990047095646231], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'cabinet washer - APOS' (unit, GLO, None)", 0.010598428931897606], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.207790061483506e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.306001081260218e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.012994540017780583], ["'alubox production - APOS' (kilogram, GLO, None)", 0.000990047095646231], ["'market for polysulfone' (kilogram, GLO, None)", 5.9555227267602234e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.028077566362775024], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 5.108197999314915e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003315167691191319], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.005471549854271974], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.7880826867878366e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00038200664392774793], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0006318766586588344], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.5150559373683404e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00210320300925282], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010680808275727515], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.2977041048200047e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178328460674], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05617292625753365], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01368810313351906], ["'market for corrugated board box' (kilogram, RER, None)", 0.0032036545510320813], ["'autoclave - APOS' (unit, GLO, None)", 0.6552303266668471], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06993101579191573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007174092093972467], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006820550638254574], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017527754368185728], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0037009009636983854], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.006715400009865732], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.1678878250852133], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.0020925783694543945], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.017248762312032474]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.08227178328460674], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.05617292625753365], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01368810313351906], ["'market for corrugated board box' (kilogram, RER, None)", 0.0032036545510320813], ["'autoclave - APOS' (unit, GLO, None)", 0.6552303266668471], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.11499174874688316], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.013950522463029297], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.04547033758836383], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.11685169578790486], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0037009009636983854]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.23406901723226142], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981593104256053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.04128158004261325], ["'market for corrugated board box' (kilogram, RER, None)", 0.00966181531089436], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454900002708], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1989586646474222], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021636150321309305], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.019513218421873996], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.050145936551105254], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01052932386940861], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.02025279327028034], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.47765268545370543], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.006310950510194184], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04907394347930365]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.23406901723226142], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.15981593104256053], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.04128158004261325], ["'market for corrugated board box' (kilogram, RER, None)", 0.00966181531089436], ["'autoclave - APOS' (unit, GLO, None)", 0.9828454900002708], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.3271596231953577], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.04207300340129456], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.1300881228124934], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.33430624355855054], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.01052932386940861]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03451083729224588], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'cabinet washer - APOS' (unit, GLO, None)", 0.6530817847874218], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00011450002167508742], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00029424724798853745], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.09654217604585785], ["'alubox production - APOS' (kilogram, GLO, None)", 0.03451083729224588], ["'market for polysulfone' (kilogram, GLO, None)", 0.0023105988091134872], ["'autoclave - APOS' (unit, GLO, None)", 1.3104606533336942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.0012879710573912052], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.05671644994283556], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.05120411116157493], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000742088521293012], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006874991847335098], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.01766765980850585], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011589817559607394], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02062119169219945], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'cabinet washer - APOS' (unit, GLO, None)", 0.3265408923937109], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.725001083754356e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00014712362399426873], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.05768665366664431], ["'alubox production - APOS' (kilogram, GLO, None)", 0.02062119169219945], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011552994045567436], ["'autoclave - APOS' (unit, GLO, None)", 0.8736404355557962], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.000769598773960677], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.03388966707669626], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.030595890292374056], ["'plastic incineration - APOS' (kilogram, CH, None)", 0.000371044260646506], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00681774183649757], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.017520536184511583], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.000692524054993704], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0416333615677676], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.020833275628183365], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 0.000869493899675208]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518096964451757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992225070824545], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894595793664894], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043152966339], ["'autoclave - APOS' (unit, GLO, None)", 0.059837554022526586], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028490382419783995], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007156527375484888], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0013972237057605001], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0011651038537690154], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868606096336], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0007560188476917547], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0143407888787581], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.674220113776982e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.019006253840008e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0033518096964451757], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0056992225070824545], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017894595793664894], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002570043152966339], ["'autoclave - APOS' (unit, GLO, None)", 0.059837554022526586], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.679337502560005e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.1161467425179882e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.009314824705070002], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.007767359025126769], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001369868606096336]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536134629322894], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214689386347264], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782749082573], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750923793262855], ["'autoclave - APOS' (unit, GLO, None)", 0.08975633103378988], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008105714434924461], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00215831773618643], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.003997379801244607], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.003333297734511598], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372654281909], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0022800567960571576], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.040800554274776565], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.409685402582656e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1434355820784247e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009536134629322894], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.016214689386347264], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005396782749082573], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007750923793262855], ["'autoclave - APOS' (unit, GLO, None)", 0.08975633103378988], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.622903880522831e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.397902683884373e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.026649198674964066], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.02222198488906751], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0003897372654281909]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006772944159882615], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'cabinet washer - APOS' (unit, GLO, None)", 0.06230870168279971], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3455898662672162e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.955918570005941e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001713507965896947], ["'alubox production - APOS' (kilogram, GLO, None)", 0.006772944159882615], ["'market for polysulfone' (kilogram, GLO, None)", 0.00012463822549358994], ["'autoclave - APOS' (unit, GLO, None)", 0.11967510804505317], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.662960988574499e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00038651002947241004], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0009075068395825944], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.299040854256733e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0014083762580883042], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0011744036399399178], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.289908695482757e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004047023798894711], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'cabinet washer - APOS' (unit, GLO, None)", 0.031154350841399853], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.172794933133605e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.779592850029704e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001023868993141204], ["'alubox production - APOS' (kilogram, GLO, None)", 0.004047023798894711], ["'market for polysulfone' (kilogram, GLO, None)", 6.231911274679497e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.07978340536336878], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5911937618094813e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00023095056608490473], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005422607496463012], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.6495204271283664e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0013966483087569715], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001164624047089888], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.563340578977248e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00295339671940208], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.653556464052743e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 3.6543046813894804e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207932406008272], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.001148291902275994], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957462723510336], ["'market for corrugated board box' (kilogram, RER, None)", 0.001138043570404791], ["'autoclave - APOS' (unit, GLO, None)", 0.04296488453890233], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011226742545107032], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019331240393995774], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010170018546853893], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00903059463730626], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478380963292218e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.739842619740273e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.001287499143565877], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.41081613215163e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.9527686049524953e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0013207932406008272], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.001148291902275994], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005957462723510336], ["'market for corrugated board box' (kilogram, RER, None)", 0.001138043570404791], ["'autoclave - APOS' (unit, GLO, None)", 0.04296488453890233], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9685124033016634e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.27387742143442e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.006780012364569262], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.06020396424870841], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.478380963292218e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577497831178465], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003266971327602124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966950706942103], ["'market for corrugated board box' (kilogram, RER, None)", 0.003432194894252749], ["'autoclave - APOS' (unit, GLO, None)", 0.0644473268083535], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031940873156501696], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005830056508659369], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0029095860991958603], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.02583603216867676], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001558637964331314], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00023342382031124741], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003663025732398692], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.028658812668187e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.4008346225409e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0037577497831178465], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.003266971327602124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0017966950706942103], ["'market for corrugated board box' (kilogram, RER, None)", 0.003432194894252749], ["'autoclave - APOS' (unit, GLO, None)", 0.0644473268083535], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.600556415027267e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.857725417787913e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.01939724066130575], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.1722402143983455], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001558637964331314]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013315670717982462], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'cabinet washer - APOS' (unit, GLO, None)", 0.044294200731273194], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.707292278602314e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00015160114432859073], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012523176141713823], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013315670717982462], ["'market for polysulfone' (kilogram, GLO, None)", 3.3532685111356674e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.08592976907780465], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.230213442142991e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00026476371183170426], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0008842432740276694], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.7578620899131495e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.001025119499952279], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.009102676279514695], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7156210476686938e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007956486133919996], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'cabinet washer - APOS' (unit, GLO, None)", 0.022147100365636597], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.536461393011548e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.580057216429537e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0007482948432302543], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007956486133919996], ["'market for polysulfone' (kilogram, GLO, None)", 1.6766342555678337e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.057286512718536436], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.722726996908149e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00015820373202149343], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005283601177755137], ["'plastic incineration - APOS' (kilogram, CH, None)", 8.789310449565747e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0010165830385592699], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.009026875707350399], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0251316197632345e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.012919565025839252], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3957377002179627e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.5968259271491231e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989515327474321], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892083450511886], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014519205921922204], ["'market for corrugated board box' (kilogram, RER, None)", 3.043856745482396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.003318526024295534], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011041088028353172], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.45274644835933e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.129778439087798e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.152933954186232e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.358060276100274e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.531665131525146e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0005254160162484852], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.821610603076094e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.2140700445360995e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012989515327474321], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005892083450511886], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014519205921922204], ["'market for corrugated board box' (kilogram, RER, None)", 3.043856745482396e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.003318526024295534], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.1427133630240664e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.54774040205073e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00020865189593918652], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0005435289302790821], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.358060276100274e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0036956085861264967], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763392352160578], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0004378808046480016], ["'market for corrugated board box' (kilogram, RER, None)", 9.179885421228235e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789036443301], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003141267298207522], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002850828236199528], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.954123139480248e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00023325093459436268], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.863777123867839e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010651053355504625], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0014948455673548453], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0573110925854562e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7679466887271718e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0036956085861264967], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0016763392352160578], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0004378808046480016], ["'market for corrugated board box' (kilogram, RER, None)", 9.179885421228235e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004977789036443301], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011786311258181146], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3715407283903042e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005969415426320169], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001555006230091915], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.863777123867839e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00022988608564692464], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0028827848821244974], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.254116831914334e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3686741202888717e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.001699336489305514], ["'alubox production - APOS' (kilogram, GLO, None)", 0.00022988608564692464], ["'market for polysulfone' (kilogram, GLO, None)", 6.169988930936128e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.006637052048591068], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8556450060037964e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00019946383622380736], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.000837470594087771], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.997020691726345e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.154760135055632e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.218010163653867e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.252929486452199e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0001373633736947827], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0014413924410622487], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.62705841595716e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -6.843370601444359e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0010154011390326883], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0001373633736947827], ["'market for polysulfone' (kilogram, GLO, None)", 3.084994465468064e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004424701365727379], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.1087998548813715e-05], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00011918522774748165], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0005004121317318586], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.9985103458631726e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.128489550896068e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.149576457639423e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5412444660258642e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0003253565229066758], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.791453834968052e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.196312973928236e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942587028778399e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365173912387527e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025178791257542e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.5011792422494893e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134654874562e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6511989744616393e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.511046967028263e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.263490113753864e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3324710035021734e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.615871280411299e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.0466982785052492e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 2.180478770094741e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.406065949265461e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9838529690177567e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.942587028778399e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.1365173912387527e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.025178791257542e-09], ["'market for corrugated board box' (kilogram, RER, None)", 2.5011792422494893e-09], ["'autoclave - APOS' (unit, GLO, None)", 2.612134654874562e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3225686460118377e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.604043966176974e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.5089934091692426e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.883140023347823e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.615871280411299e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.5267968987779805e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078542437045465e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139427854705832e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543238983201868e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019823118436e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.697777363961283e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.557125681262195e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.5058554315980734e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.8121259001145944e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.597267586897023e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.1567090299582873e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 6.203615655762501e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.256389223805671e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.6442014048110814e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.5267968987779805e-08], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 6.078542437045465e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.2139427854705832e-08], ["'market for corrugated board box' (kilogram, RER, None)", 7.543238983201868e-09], ["'autoclave - APOS' (unit, GLO, None)", 3.9182019823118436e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.762800936540721e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.837592815870448e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.003903621065383e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.5414172658651424e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.597267586897023e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.182844241281565e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 2.583138483679973e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.836086176550302e-11], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.236886240924784e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.253892558569181e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 9.182844241281565e-09], ["'market for polysulfone' (kilogram, GLO, None)", 7.169071892870195e-10], ["'autoclave - APOS' (unit, GLO, None)", 5.224269309749124e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.563958897334612e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.881641722104317e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.0404786029063329e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 3.212349922622744e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.3055029630052074e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3431067038059805e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.060295728924676e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.4870065821794444e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 1.2915692418399865e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.4180430882751393e-11], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.118443120462392e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.346763919701245e-08], ["'alubox production - APOS' (kilogram, GLO, None)", 5.4870065821794444e-09], ["'market for polysulfone' (kilogram, GLO, None)", 3.5845359464350974e-10], ["'autoclave - APOS' (unit, GLO, None)", 3.4828462064994164e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 4.519677255379156e-10], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.1243336207398138e-09], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 6.217151018524903e-09], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.606174961311372e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.261322532122469e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3319222726013565e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.0236684051659466e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.0906149193553916e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.3954292862973433e-09], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.334751771899528e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998808751290194], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083894329085643], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.563846646430212e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.221071493223657e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00026266372704495083], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014448987438596666], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.365155602597805e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.805220435650861e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.9333742216010307e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.187935482516619e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.4474714955504604e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 4.890829126148164e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.955407194765598e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.91534992433645e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00016998808751290194], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00011083894329085643], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.563846646430212e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.221071493223657e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00026266372704495083], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.9435666162243e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.6369381298437325e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.5368136237672407e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00012889161477340206], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.187935482516619e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00048362807996628435], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0003153445992218732], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.732235761171105e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714342596859484e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00039399559056742625], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00041108386797134174], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.316475472527912e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.0886525361717041e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.5312767973244387e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069900950997864e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 7.381263091024474e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00013914753288477873], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.0976624448172618e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6829587108675533e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00048362807996628435], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0003153445992218732], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.732235761171105e-05], ["'market for corrugated board box' (kilogram, RER, None)", 9.714342596859484e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00039399559056742625], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1219724739117022e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3984416298781747e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.257683574478034e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0003687517863609124], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.069900950997864e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.690688853863927e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00026064339086917884], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.388015359299601e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.2456527635432e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00021599600460378606], ["'alubox production - APOS' (kilogram, GLO, None)", 2.690688853863927e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8687908003542756e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0005253274540899017], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.313813768893339e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7084090843148722e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 9.150625109195342e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.8984146691510548e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.835593467437011e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.948806293850265e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 9.983404310620651e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.607761937785823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00013032169543458942], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.194007679649792e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.6228263817716e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0001290636613063179], ["'alubox production - APOS' (kilogram, GLO, None)", 1.607761937785823e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9343954001771378e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00035021830272660107], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 7.850405177589779e-07], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.0208222686114744e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 5.467754748522672e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.4492073345755274e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.803653390640522e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.9325780300325485e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.965363648111507e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 7.00095886574827e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.924658942765554e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 8.776607969254695e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637562412197], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202379605742242], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.0427775671571336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205840572272298e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00046917716330600797], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029789419280503674], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.2785561402377255e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.294578092846817e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.074446858607071e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.635631753193612e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.983674811912533e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.111001240267534e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.070526905349755e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.194737868726268e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003504637562412197], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017202379605742242], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.0427775671571336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.205840572272298e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00046917716330600797], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.796491912484178e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3803512702331703e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.196385395231212e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0003382964572404714], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.635631753193612e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000997094067052484], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894198141352018], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001520837648175818], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747773150009857e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000703765744959012], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008475299569946116], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1951200613187538e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.6591274236371347e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00014517712015952027], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343628369084119e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.998384171103948e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00020231299303296362], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.529206496032634e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1934324640601491e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000997094067052484], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0004894198141352018], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001520837648175818], ["'market for corrugated board box' (kilogram, RER, None)", 2.4747773150009857e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000703765744959012], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.95621642706766e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0194709973550895e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00017727516157580911], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0009678474673957968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0343628369084119e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860584027478561e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00047574085355946627], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.560327676658225e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.518729734822057e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00028581829600085454], ["'alubox production - APOS' (kilogram, GLO, None)", 3.860584027478561e-05], ["'market for polysulfone' (kilogram, GLO, None)", 5.830555042426712e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009383543266120159], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.0530268828729265e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.2499991363943704e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012112527019651706], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.903301016465704e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.368766834504987e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.1149507764063246e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.138541915785876e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3068070647003994e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'cabinet washer - APOS' (unit, GLO, None)", 0.00023787042677973313], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.801638383291104e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.259364867411029e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017078443565597605], ["'alubox production - APOS' (kilogram, GLO, None)", 2.3068070647003994e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.915277521213356e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006255695510746773], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.8242690567031337e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.4690948783394786e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.237574082426108e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.51650508232852e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.290750450672098e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.0723571277322135e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.803106780975459e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.000845598811283996], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.0481112746479286e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.316669423458693e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528485713830205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017648308573057762], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431389542663e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533509457480574e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00048105680387887937], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031899212856755676], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.587741374888064e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.504365090646851e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.2571108824573934e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489393409772704e-06], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 3.0932532365447937e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 7.471644967036696e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.097637159547919e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.21871493078855e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00037528485713830205], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00017648308573057762], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 5.542431389542663e-05], ["'market for corrugated board box' (kilogram, RER, None)", 8.533509457480574e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.00048105680387887937], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.8124766205256997e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.398424773031946e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.336243393764568e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0003504740588304929], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7489393409772704e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677118470695354], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021068072898124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00016715268931442921], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598089887251e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000721585205818319], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009075550700091052], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2883664000386658e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.7191463242693107e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.00015040303693000725], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665996435762495e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 9.328858778379732e-06], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.00021257356103400175], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.537382604275978e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.2002541070694182e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0010677118470695354], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0005021068072898124], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00016715268931442921], ["'market for corrugated board box' (kilogram, RER, None)", 2.573598089887251e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.000721585205818319], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.001694047129455e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0249217361839854e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0001812764216179542], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0010026869125203417], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.0665996435762495e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 4.068915599799846e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0004877279684482972], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.595545677475535e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.825377039407906e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029025580488465963], ["'alubox production - APOS' (kilogram, GLO, None)", 4.068915599799846e-05], ["'market for polysulfone' (kilogram, GLO, None)", 6.2980384305854424e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0009621136077577587], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.399808213031939e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.302515573055163e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00012370010722629354], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.916291714570007e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.580228339015015e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.299072813083082e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1740255529707921e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.431291013090136e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0002438639842241486], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.977728387377654e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -4.412688519703953e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017343597147801023], ["'alubox production - APOS' (kilogram, GLO, None)", 2.431291013090136e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.1490192152927212e-06], ["'autoclave - APOS' (unit, GLO, None)", 0.0006414090718385057], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.031480612421941e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 7.782895293612735e-06], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 7.39142780529456e-05], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.581458572850035e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.500451055141261e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.254945927886042e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.01513144989575e-07], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.0012980183860893636], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.075101680661143e-06], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 6.338024629945281e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763533032125], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398057665380524], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00035118661232934003], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510674406984e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366451036561], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010562749003077308], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9913778002566647e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.340299311866327e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.362124449427776e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830857929533268e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.9340722831079356e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0004245227892481373], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.6669548415299007e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.5435373950929782e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0012426763533032125], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.00036398057665380524], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00035118661232934003], ["'market for corrugated board box' (kilogram, RER, None)", 4.222510674406984e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.004080366451036561], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00010290249300619854], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.1113032276866005e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0005560199541244219], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0006241416299618518], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.1830857929533268e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355017375668864], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503730150515], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342062047048], ["'market for corrugated board box' (kilogram, RER, None)", 0.00012734555999883686], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549676554841], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0030051764769318534], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.021615405321997e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00023861135384503336], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0002678452063868983], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659623971274956e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.832916291213947e-05], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.0012077972313820245], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.027324023408846e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.391472588856078e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035355017375668864], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0010355503730150515], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0010591342062047048], ["'market for corrugated board box' (kilogram, RER, None)", 0.00012734555999883686], ["'autoclave - APOS' (unit, GLO, None)", 0.006120549676554841], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00029276483925707187], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.3515493489392315e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015907423589668903], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0017856347086291496], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3659623971274956e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006790363580791568], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'cabinet washer - APOS' (unit, GLO, None)", 0.004000202721126463], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.4001280873559985e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.5716670240258893e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0006367619052598509], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0006790363580791568], ["'market for polysulfone' (kilogram, GLO, None)", 4.240918766228024e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.008160732902073121], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.674004075847474e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.511925685733032e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00029911006319095827], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.1758137937385132e-06], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.406871059913294e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.436852341884234e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7049757970259424e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004057432390685421], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'cabinet washer - APOS' (unit, GLO, None)", 0.0020001013605632314], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -7.000640436779974e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -7.858335120129446e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.00038048306969370007], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0004057432390685421], ["'market for polysulfone' (kilogram, GLO, None)", 2.120459383114012e-05], ["'autoclave - APOS' (unit, GLO, None)", 0.005440488601382081], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.5977923156956503e-06], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.098473941996524e-05], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.00017872663876261586], ["'plastic incineration - APOS' (kilogram, CH, None)", 5.879068968692566e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.336864655545515e-05], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.358268990682939e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.213826791848872e-06], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.00953629285640667], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.65958561840539e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 4.243960106660386e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.543912279524103e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.468603547044175e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.114265291456888e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.1510382649802027e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.429614265467404e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.562325437595488e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.702125835040508e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.8485222608352038e-11], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3950038735658053e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.1737826363737226e-12], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 8.324772118934001e-12], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.9564125406369867e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.600898437357765e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.914807130645023e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 6.543912279524103e-10], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 2.468603547044175e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.114265291456888e-11], ["'market for corrugated board box' (kilogram, RER, None)", 2.1510382649802027e-11], ["'autoclave - APOS' (unit, GLO, None)", 1.429614265467404e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.276538087096682e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.40059895823851e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8990148405568023e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -9.300025823772037e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.1737826363737226e-12]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8617891274138997e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350936660892e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.748746619519072e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487258258294417e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.1444213982011063e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5825207583018149e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.133395271530214e-11], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.149464757800252e-11], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.9910289853986434e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409916798107218e-11], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 2.5106455088195845e-11], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 5.566131453643258e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.895508993881246e-11], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.2518183667468934e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8617891274138997e-09], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 7.023350936660892e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.748746619519072e-10], ["'market for corrugated board box' (kilogram, RER, None)", 6.487258258294417e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.1444213982011063e-09], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.501212244497929e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9303393292541643e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -5.432976505200172e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.6606859893466414e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0409916798107218e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.570266185768992e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 1.45212764993342e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -4.78195790788917e-13], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.341863322064432e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 4.850294966856734e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 9.570266185768992e-11], ["'market for polysulfone' (kilogram, GLO, None)", 1.073767960239135e-11], ["'autoclave - APOS' (unit, GLO, None)", 2.859228530934808e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 6.670892093598536e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 3.6108175913572647e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 2.0831885973756969e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 2.1799834856574537e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.8712589875597108e-11], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.4061387073317184e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2465565218682446e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.71850204302226e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'cabinet washer - APOS' (unit, GLO, None)", 7.2606382496671e-10], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.3909789539445783e-13], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.170931661032216e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 2.8981870659433636e-10], ["'alubox production - APOS' (kilogram, GLO, None)", 5.71850204302226e-11], ["'market for polysulfone' (kilogram, GLO, None)", 5.368839801195675e-12], ["'autoclave - APOS' (unit, GLO, None)", 1.906152353956539e-09], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 3.986044831516773e-12], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.157564624885936e-11], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.2447635226497504e-10], ["'plastic incineration - APOS' (kilogram, CH, None)", 1.0899917428287269e-12], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.8473491980202717e-11], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.3944293907213962e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.3423804337688393e-12], ["'production of wet wipe - APOS' (unit, GLO, None)", 4.881049863140102e-10], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 9.558455078354877e-11], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 5.709591909133718e-12]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.05941352707176e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.4288748966945053e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3297915689772735e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.8013399028552125e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.986171292453461e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.600501498010996e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.633157766004504e-09], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.704051741642517e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.142686018682742e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453797769651666e-09], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 5.122989165913842e-09], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 1.1999443575216568e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.619618824601427e-09], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.9862283950816507e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.05941352707176e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 1.4288748966945053e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3297915689772735e-08], ["'market for corrugated board box' (kilogram, RER, None)", 5.8013399028552125e-09], ["'autoclave - APOS' (unit, GLO, None)", 5.986171292453461e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9908189300544337e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.4130792164009513e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -6.469367827761679e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.0951240124551615e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.453797769651666e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.704246936175993e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.0652497060885924e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058101292711045e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.749610446577378e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256938680193e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.398609895749594e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.6036507020837965e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -2.7762755715027587e-08], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -8.991051014438798e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671368303422127e-08], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 1.545028447310817e-08], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 3.4139262002728827e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.0916310519726363e-08], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 8.496030081781597e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 8.704246936175993e-07], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 4.0652497060885924e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.3058101292711045e-07], ["'market for corrugated board box' (kilogram, RER, None)", 1.749610446577378e-08], ["'autoclave - APOS' (unit, GLO, None)", 8.979256938680193e-07], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 5.664020054521064e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 7.277540346484242e-08], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.8508503810018404e-07], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.994034007555255e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2671368303422127e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.944524581590156e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'cabinet washer - APOS' (unit, GLO, None)", 6.010848751222249e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.629068082160856e-10], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -5.275785436427059e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 3.3256100092514027e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 4.944524581590156e-08], ["'market for polysulfone' (kilogram, GLO, None)", 5.869957201136065e-09], ["'autoclave - APOS' (unit, GLO, None)", 1.1972342584906922e-06], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 2.948861722979663e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 2.920869991730171e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 1.419126722415592e-07], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.110388596729371e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.781508876383502e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.1677707421445084e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.394760467896053e-09], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.9544918994669646e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'cabinet washer - APOS' (unit, GLO, None)", 3.0054243756111244e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -8.145340410804258e-11], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.6378927182135294e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 1.9871451078840944e-07], ["'alubox production - APOS' (kilogram, GLO, None)", 2.9544918994669646e-08], ["'market for polysulfone' (kilogram, GLO, None)", 2.9349786005680325e-09], ["'autoclave - APOS' (unit, GLO, None)", 7.981561723271282e-07], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 1.7620274567205618e-09], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 1.7453016134440225e-08], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 8.479679565766401e-08], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.5551942983646855e-10], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -9.700055472275482e-09], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -3.141391814962373e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.33408438057424e-10], ["'production of wet wipe - APOS' (unit, GLO, None)", 1.29088354948275e-07], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 3.603617324093059e-08], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 2.2264619256769038e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04813660219961103], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851068186335973], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179892206146], ["'market for corrugated board box' (kilogram, RER, None)", 0.00024889134897911904], ["'autoclave - APOS' (unit, GLO, None)", 0.011588420484181525], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040916111869669376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024680047090066366], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00022677315039605674], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.001212514540369267], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894028101073202e-05], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.00010414930389103977], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.003285789373452846], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 2.004135528595501e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.7044175018506254e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04813660219961103], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.0035851068186335973], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005074179892206146], ["'market for corrugated board box' (kilogram, RER, None)", 0.00024889134897911904], ["'autoclave - APOS' (unit, GLO, None)", 0.011588420484181525], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00011362783345670837], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.3360903523970008e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0015118210026403784], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.008083430269128448], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.894028101073202e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13695202315945673], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199881371323756], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303081904590694], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506247031350174], ["'autoclave - APOS' (unit, GLO, None)", 0.01738263072627229], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11640921968553822], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007443188654161671], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0006487854501183124], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.003468937088655893], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459065866855865], ["'recycling of PE - APOS' (kilogram, Europe without Switzerland, None)", 0.0003141010688641027], ["'recycling of PET - APOS' (kilogram, Europe without Switzerland, None)", 0.009348302161091195], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 6.0442181384039754e-06], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.849187822166568e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13695202315945673], ["'sheet manufacturing - APOS' (kilogram, GLO, None)", 0.010199881371323756], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015303081904590694], ["'market for corrugated board box' (kilogram, RER, None)", 0.0007506247031350174], ["'autoclave - APOS' (unit, GLO, None)", 0.01738263072627229], ["'transport Plastic - APOS' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'PP incineration no Energy Recovery - APOS' (kilogram, CH, None)", 0.00032327918814443785], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 4.029478758935984e-05], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.0043252363341220856], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0231262472497171], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00022459065866855865]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013343587684632348], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'cabinet washer - APOS' (unit, GLO, None)", 0.011721163846798993], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -3.8069551877590215e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -2.035509279484916e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.0045326308940257356], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0013343587684632348], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004548315891925471], ["'autoclave - APOS' (unit, GLO, None)", 0.02317684096836305], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00022504716080811512], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.0003551301174581805], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0020335947023017486], ["'plastic incineration - APOS' (kilogram, CH, None)", 9.422289167645892e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00022858323951486143], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012221927556786292], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.472110072635509e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007973167303254631], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'cabinet washer - APOS' (unit, GLO, None)", 0.005860581923399497], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -1.9034775938795056e-06], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -1.017754639742458e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - APOS' (kilogram, GLO, None)", 0.002708373886851222], ["'alubox production - APOS' (kilogram, GLO, None)", 0.0007973167303254631], ["'market for polysulfone' (kilogram, GLO, None)", 0.00022741579459627356], ["'autoclave - APOS' (unit, GLO, None)", 0.015451227312242034], ["'transport Alu - APOS' (ton kilometer, GLO, None)", 0.00013447198059874616], ["'alubox EoL melting - APOS' (kilogram, GLO, None)", 0.00021220018992190238], ["'avoided alubox raw materials - APOS' (kilogram, GLO, None)", 0.0012151297815607592], ["'plastic incineration - APOS' (kilogram, CH, None)", 4.711144583822946e-07], ["'mixed electricity mix - APOS' (kilowatt hour, GLO, None)", -0.00022667976192098244], ["'mixed heating grid DK 23 - APOS' (megajoule, GLO, None)", -0.0012120152092812044], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4771549966920415e-05], ["'production of wet wipe - APOS' (unit, GLO, None)", 0.010469528670292728], ["'PE incineration no Energy Recovery - APOS' (kilogram, CH, None)", 1.9952757073729748e-05], ["'incineration of wet wipe - APOS' (kilogram, CH, None)", 1.9393287787548558e-05]]</t>
   </si>
 </sst>
 </file>
